--- a/tables/list_datasets.xlsx
+++ b/tables/list_datasets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Corentin Gosling\drive_gmail\Recherche\es.utils\web\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E295449-6D92-4A52-866B-06E090188FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2974D1-4358-486B-BB2F-2FA20F2F1302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{3A80436A-EBC8-4660-8C38-C3E7D350F51B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="5" xr2:uid="{3A80436A-EBC8-4660-8C38-C3E7D350F51B}"/>
   </bookViews>
   <sheets>
     <sheet name="cohen_d" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="209">
   <si>
     <t>cohen_d</t>
   </si>
@@ -659,6 +659,30 @@
   </si>
   <si>
     <t>ancova_md_ci_up</t>
+  </si>
+  <si>
+    <t>paired_f_exp</t>
+  </si>
+  <si>
+    <t>paired_f_pval_exp</t>
+  </si>
+  <si>
+    <t>paired_t_exp</t>
+  </si>
+  <si>
+    <t>paired_t_pval_exp</t>
+  </si>
+  <si>
+    <t>paired_f_nexp</t>
+  </si>
+  <si>
+    <t>paired_f_pval_nexp</t>
+  </si>
+  <si>
+    <t>paired_t_nexp</t>
+  </si>
+  <si>
+    <t>paired_t_pval_nexp</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1037,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="E1:F1048576"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1165,19 +1189,19 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(100,1000)/10</f>
-        <v>39</v>
+        <v>90.5</v>
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(-25,25)+C2</f>
-        <v>14</v>
+        <v>114.5</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(100,500)/10</f>
-        <v>24.8</v>
+        <v>30.4</v>
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(100,500)/10</f>
-        <v>44.3</v>
+        <v>24.5</v>
       </c>
       <c r="O2">
         <f ca="1">0.05+P2/20</f>
@@ -1189,11 +1213,11 @@
       </c>
       <c r="Q2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="R2">
         <f ca="1">Q2+RANDBETWEEN(-10,10)</f>
-        <v>67</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -1205,19 +1229,19 @@
       </c>
       <c r="C3">
         <f ca="1">RANDBETWEEN(100,1000)/10</f>
-        <v>56.8</v>
+        <v>49.5</v>
       </c>
       <c r="D3">
         <f ca="1">RANDBETWEEN(-25,25)+C3</f>
-        <v>72.8</v>
+        <v>25.5</v>
       </c>
       <c r="G3">
         <f ca="1">RANDBETWEEN(100,500)/10/5</f>
-        <v>9.6</v>
+        <v>3.6</v>
       </c>
       <c r="H3">
         <f ca="1">RANDBETWEEN(1,5)+G3</f>
-        <v>12.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O6" ca="1" si="0">0.05+P3/20</f>
@@ -1229,11 +1253,11 @@
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q6" ca="1" si="2">RANDBETWEEN(10,100)</f>
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="R3">
         <f t="shared" ref="R3:R6" ca="1" si="3">Q3+RANDBETWEEN(-10,10)</f>
-        <v>29</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -1245,43 +1269,43 @@
       </c>
       <c r="C4">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>0.24</v>
+        <v>0.86</v>
       </c>
       <c r="D4">
         <f ca="1">RANDBETWEEN(-2,2)+C4</f>
-        <v>1.24</v>
+        <v>-1.1400000000000001</v>
       </c>
       <c r="I4">
         <f ca="1">C4-0.5</f>
-        <v>-0.26</v>
+        <v>0.36</v>
       </c>
       <c r="J4">
         <f ca="1">C4+0.5</f>
-        <v>0.74</v>
+        <v>1.3599999999999999</v>
       </c>
       <c r="K4">
         <f ca="1">D4-0.5</f>
-        <v>0.74</v>
+        <v>-1.6400000000000001</v>
       </c>
       <c r="L4">
         <f ca="1">D4+0.5</f>
-        <v>1.74</v>
+        <v>-0.64000000000000012</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="R4">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -1293,31 +1317,31 @@
       </c>
       <c r="C5">
         <f ca="1">RANDBETWEEN(-500,500)/10</f>
-        <v>-8</v>
+        <v>-0.6</v>
       </c>
       <c r="D5">
         <f ca="1">RANDBETWEEN(-5,5)+C5</f>
-        <v>-9</v>
+        <v>-2.6</v>
       </c>
       <c r="M5">
         <f ca="1">RANDBETWEEN(-500,500)/10</f>
-        <v>-47.8</v>
+        <v>-6.4</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="P5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -1329,31 +1353,31 @@
       </c>
       <c r="C6">
         <f ca="1">RANDBETWEEN(-500,500)/10</f>
-        <v>33.799999999999997</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <f ca="1">RANDBETWEEN(-5,5)+C6</f>
-        <v>32.799999999999997</v>
+        <v>16</v>
       </c>
       <c r="N6">
         <f ca="1">RANDBETWEEN(-500,500)/10</f>
-        <v>0.4</v>
+        <v>-37.299999999999997</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15000000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="P6">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="3"/>
-        <v>43</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1444,19 +1468,19 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(100,1000)/10</f>
-        <v>35</v>
+        <v>15.3</v>
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(-25,25)+C2</f>
-        <v>19</v>
+        <v>-4.6999999999999993</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(100,500)/10</f>
-        <v>22</v>
+        <v>14.5</v>
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(100,500)/10</f>
-        <v>42.6</v>
+        <v>26.6</v>
       </c>
       <c r="O2">
         <f ca="1">0.05+P2/20</f>
@@ -1468,11 +1492,11 @@
       </c>
       <c r="Q2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="R2">
         <f ca="1">Q2+RANDBETWEEN(-10,10)</f>
-        <v>9</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -1484,35 +1508,35 @@
       </c>
       <c r="C3">
         <f ca="1">RANDBETWEEN(100,1000)/10</f>
-        <v>10.1</v>
+        <v>63.6</v>
       </c>
       <c r="D3">
         <f ca="1">RANDBETWEEN(-25,25)+C3</f>
-        <v>20.100000000000001</v>
+        <v>39.6</v>
       </c>
       <c r="G3">
         <f ca="1">RANDBETWEEN(100,500)/10/5</f>
-        <v>8.64</v>
+        <v>3.16</v>
       </c>
       <c r="H3">
         <f ca="1">RANDBETWEEN(1,5)+G3</f>
-        <v>13.64</v>
+        <v>7.16</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O4" ca="1" si="0">0.05+P3/20</f>
-        <v>0.25</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P4" ca="1" si="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q4" ca="1" si="2">RANDBETWEEN(10,100)</f>
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="R3">
         <f t="shared" ref="R3:R4" ca="1" si="3">Q3+RANDBETWEEN(-10,10)</f>
-        <v>43</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -1524,43 +1548,43 @@
       </c>
       <c r="C4">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>0.87</v>
+        <v>-0.71</v>
       </c>
       <c r="D4">
         <f ca="1">RANDBETWEEN(-2,2)+C4</f>
-        <v>2.87</v>
+        <v>1.29</v>
       </c>
       <c r="I4">
         <f ca="1">C4-0.5</f>
-        <v>0.37</v>
+        <v>-1.21</v>
       </c>
       <c r="J4">
         <f ca="1">C4+0.5</f>
-        <v>1.37</v>
+        <v>-0.20999999999999996</v>
       </c>
       <c r="K4">
         <f ca="1">D4-0.5</f>
-        <v>2.37</v>
+        <v>0.79</v>
       </c>
       <c r="L4">
         <f ca="1">D4+0.5</f>
-        <v>3.37</v>
+        <v>1.79</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="2"/>
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="R4">
         <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1625,23 +1649,23 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>5.56</v>
+        <v>1.34</v>
       </c>
       <c r="I2">
         <f ca="1">0.05+J2/20</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="L2">
         <f ca="1">K2+RANDBETWEEN(-10,10)</f>
-        <v>29</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -1653,23 +1677,23 @@
       </c>
       <c r="D3">
         <f ca="1">RANDBETWEEN(0,1000)/10000</f>
-        <v>4.0599999999999997E-2</v>
+        <v>1.72E-2</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I4" ca="1" si="0">0.05+J3/20</f>
-        <v>0.2</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J7" ca="1" si="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K7" ca="1" si="2">RANDBETWEEN(10,100)</f>
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L4" ca="1" si="3">K3+RANDBETWEEN(-10,10)</f>
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1681,23 +1705,23 @@
       </c>
       <c r="E4">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>1.59</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1709,23 +1733,23 @@
       </c>
       <c r="F5">
         <f ca="1">RANDBETWEEN(0,1000)/100000</f>
-        <v>1.09E-3</v>
+        <v>9.58E-3</v>
       </c>
       <c r="I5">
         <f t="shared" ref="I5:I7" ca="1" si="4">0.05+J5/20</f>
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="2"/>
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="L5">
         <f t="shared" ref="L5:L7" ca="1" si="5">K5+RANDBETWEEN(-10,10)</f>
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -1737,7 +1761,7 @@
       </c>
       <c r="G6">
         <f ca="1">RANDBETWEEN(0,1000)/1000</f>
-        <v>0.24</v>
+        <v>0.82099999999999995</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="4"/>
@@ -1749,11 +1773,11 @@
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -1765,23 +1789,23 @@
       </c>
       <c r="H7">
         <f ca="1">RANDBETWEEN(0,1000)/1000</f>
-        <v>6.2E-2</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="4"/>
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1866,16 +1890,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>4.5</v>
+        <f t="shared" ref="C2:C14" ca="1" si="0">RANDBETWEEN(0,600)/100</f>
+        <v>2.96</v>
       </c>
       <c r="O2">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="P2">
         <f ca="1">O2+RANDBETWEEN(-50,50)</f>
-        <v>155</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -1886,20 +1910,20 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>0.62</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3.29</v>
       </c>
       <c r="E3">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.61</v>
+        <v>0.78</v>
       </c>
       <c r="M3">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>493</v>
+        <v>472</v>
       </c>
       <c r="N3">
         <f ca="1">M3+RANDBETWEEN(-10,10)</f>
-        <v>500</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -1910,20 +1934,20 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>3.45</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3.26</v>
       </c>
       <c r="F4">
         <f ca="1">C4*E3/10</f>
-        <v>0.21045000000000003</v>
+        <v>0.25427999999999995</v>
       </c>
       <c r="M4">
-        <f t="shared" ref="M4:M5" ca="1" si="0">RANDBETWEEN(30,500)</f>
-        <v>497</v>
+        <f t="shared" ref="M4:M5" ca="1" si="1">RANDBETWEEN(30,500)</f>
+        <v>149</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N5" ca="1" si="1">M4+RANDBETWEEN(-10,10)</f>
-        <v>502</v>
+        <f t="shared" ref="N4:N5" ca="1" si="2">M4+RANDBETWEEN(-10,10)</f>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -1934,24 +1958,24 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>1.82</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.74</v>
       </c>
       <c r="G5">
         <f ca="1">EXP(LN(C5)-2)</f>
-        <v>0.24631021549063511</v>
+        <v>0.23548339283170611</v>
       </c>
       <c r="H5">
         <f ca="1">EXP(LN(C5)+2)</f>
-        <v>13.448082100053787</v>
+        <v>12.856957612139333</v>
       </c>
       <c r="M5">
-        <f t="shared" ca="1" si="0"/>
-        <v>311</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>333</v>
       </c>
       <c r="N5">
-        <f t="shared" ca="1" si="1"/>
-        <v>321</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -1962,20 +1986,20 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>4.8899999999999997</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.44</v>
       </c>
       <c r="E6">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.81</v>
+        <v>0.96</v>
       </c>
       <c r="O6">
-        <f t="shared" ref="O6:O8" ca="1" si="2">RANDBETWEEN(30,500)</f>
-        <v>235</v>
+        <f t="shared" ref="O6:O8" ca="1" si="3">RANDBETWEEN(30,500)</f>
+        <v>500</v>
       </c>
       <c r="P6">
-        <f t="shared" ref="P6:P8" ca="1" si="3">O6+RANDBETWEEN(-50,50)</f>
-        <v>241</v>
+        <f t="shared" ref="P6:P8" ca="1" si="4">O6+RANDBETWEEN(-50,50)</f>
+        <v>491</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -1986,20 +2010,20 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>1.95</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4.0199999999999996</v>
       </c>
       <c r="F7">
         <f ca="1">C7*E6/10</f>
-        <v>0.15795000000000001</v>
+        <v>0.38591999999999993</v>
       </c>
       <c r="O7">
-        <f t="shared" ca="1" si="2"/>
-        <v>359</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>45</v>
       </c>
       <c r="P7">
-        <f t="shared" ca="1" si="3"/>
-        <v>358</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -2010,24 +2034,24 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>3.41</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.83</v>
       </c>
       <c r="G8">
         <f ca="1">EXP(LN(C8)-2)</f>
-        <v>0.46149331583684927</v>
+        <v>0.11232828508638852</v>
       </c>
       <c r="H8">
         <f ca="1">EXP(LN(C8)+2)</f>
-        <v>25.196681297353511</v>
+        <v>6.1329165621124391</v>
       </c>
       <c r="O8">
-        <f t="shared" ca="1" si="2"/>
-        <v>331</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>432</v>
       </c>
       <c r="P8">
-        <f t="shared" ca="1" si="3"/>
-        <v>311</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -2038,16 +2062,16 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>3.81</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.85</v>
       </c>
       <c r="E9">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.66</v>
+        <v>0.73</v>
       </c>
       <c r="K9">
         <f ca="1">RANDBETWEEN(0,600)/1000</f>
-        <v>7.0000000000000001E-3</v>
+        <v>0.14499999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -2058,16 +2082,16 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>1.78</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5.3</v>
       </c>
       <c r="F10">
         <f ca="1">C10*E9/100</f>
-        <v>1.1748000000000001E-2</v>
+        <v>3.8689999999999995E-2</v>
       </c>
       <c r="K10">
-        <f t="shared" ref="K10:L12" ca="1" si="4">RANDBETWEEN(0,600)/1000</f>
-        <v>0.13900000000000001</v>
+        <f t="shared" ref="K10:K11" ca="1" si="5">RANDBETWEEN(0,600)/1000</f>
+        <v>0.26700000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -2078,20 +2102,20 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>3.05</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5.99</v>
       </c>
       <c r="G11">
         <f ca="1">EXP(LN(C11)-2)</f>
-        <v>0.41277261387166869</v>
+        <v>0.81065834658731017</v>
       </c>
       <c r="H11">
         <f ca="1">EXP(LN(C11)+2)</f>
-        <v>22.536621101738479</v>
+        <v>44.260446032594608</v>
       </c>
       <c r="K11">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.34599999999999997</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -2102,24 +2126,24 @@
         <v>11</v>
       </c>
       <c r="C12">
-        <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>2.34</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.61</v>
       </c>
       <c r="E12">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.67</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="L12">
         <f ca="1">RANDBETWEEN(0,100)/500</f>
-        <v>0.17599999999999999</v>
+        <v>0.186</v>
       </c>
       <c r="M12">
         <f ca="1">RANDBETWEEN(30,100)+O12</f>
-        <v>188</v>
+        <v>129</v>
       </c>
       <c r="O12">
         <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>97</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -2130,24 +2154,24 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>2.57</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F13">
         <f ca="1">C13*E12/1000</f>
-        <v>1.7218999999999999E-3</v>
+        <v>6.4400000000000004E-4</v>
       </c>
       <c r="L13">
-        <f t="shared" ref="L13:L14" ca="1" si="5">RANDBETWEEN(0,100)/500</f>
-        <v>0.186</v>
+        <f t="shared" ref="L13:L14" ca="1" si="6">RANDBETWEEN(0,100)/500</f>
+        <v>1.6E-2</v>
       </c>
       <c r="M13">
-        <f t="shared" ref="M13:M14" ca="1" si="6">RANDBETWEEN(30,100)+O13</f>
+        <f t="shared" ref="M13:M14" ca="1" si="7">RANDBETWEEN(30,100)+O13</f>
         <v>138</v>
       </c>
       <c r="O13">
-        <f t="shared" ref="O13:O14" ca="1" si="7">RANDBETWEEN(30,100)</f>
-        <v>94</v>
+        <f t="shared" ref="O13:O14" ca="1" si="8">RANDBETWEEN(30,100)</f>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -2158,28 +2182,28 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>1.1100000000000001</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.16</v>
       </c>
       <c r="G14">
         <f ca="1">EXP(LN(C14)-2)</f>
-        <v>0.15022216439264008</v>
+        <v>2.1653645317858027E-2</v>
       </c>
       <c r="H14">
         <f ca="1">EXP(LN(C14)+2)</f>
-        <v>8.2018522698130241</v>
+        <v>1.1822489758289039</v>
       </c>
       <c r="L14">
-        <f t="shared" ca="1" si="5"/>
-        <v>8.5999999999999993E-2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.1</v>
       </c>
       <c r="M14">
-        <f t="shared" ca="1" si="6"/>
-        <v>122</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>109</v>
       </c>
       <c r="O14">
-        <f t="shared" ca="1" si="7"/>
-        <v>81</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -2191,15 +2215,15 @@
       </c>
       <c r="D15">
         <f ca="1">LN(C2)</f>
-        <v>1.5040773967762742</v>
+        <v>1.085189268335969</v>
       </c>
       <c r="O15">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>442</v>
+        <v>149</v>
       </c>
       <c r="P15">
         <f ca="1">O15+RANDBETWEEN(-50,50)</f>
-        <v>403</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -2210,20 +2234,20 @@
         <v>15</v>
       </c>
       <c r="D16">
-        <f t="shared" ref="D16:D27" ca="1" si="8">LN(C3)</f>
-        <v>-0.4780358009429998</v>
+        <f t="shared" ref="D16:D27" ca="1" si="9">LN(C3)</f>
+        <v>1.1908875647772805</v>
       </c>
       <c r="E16">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.55000000000000004</v>
+        <v>0.66</v>
       </c>
       <c r="M16">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>335</v>
+        <v>445</v>
       </c>
       <c r="N16">
         <f ca="1">M16+RANDBETWEEN(-10,10)</f>
-        <v>339</v>
+        <v>451</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -2234,20 +2258,20 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.2383742310432684</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1.1817271953786161</v>
       </c>
       <c r="F17">
         <f ca="1">D17*E16/10</f>
-        <v>6.8110582707379769E-2</v>
+        <v>7.7993994894988677E-2</v>
       </c>
       <c r="M17">
-        <f t="shared" ref="M17:M18" ca="1" si="9">RANDBETWEEN(30,500)</f>
-        <v>284</v>
+        <f t="shared" ref="M17:M18" ca="1" si="10">RANDBETWEEN(30,500)</f>
+        <v>477</v>
       </c>
       <c r="N17">
-        <f t="shared" ref="N17:N18" ca="1" si="10">M17+RANDBETWEEN(-10,10)</f>
-        <v>293</v>
+        <f t="shared" ref="N17:N18" ca="1" si="11">M17+RANDBETWEEN(-10,10)</f>
+        <v>486</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -2258,24 +2282,24 @@
         <v>17</v>
       </c>
       <c r="D18">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.59883650108870401</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0.55388511322643763</v>
       </c>
       <c r="I18">
         <f ca="1">D18-2</f>
-        <v>-1.401163498911296</v>
+        <v>-1.4461148867735623</v>
       </c>
       <c r="J18">
         <f ca="1">D18+2</f>
-        <v>2.5988365010887042</v>
+        <v>2.5538851132264377</v>
       </c>
       <c r="M18">
-        <f t="shared" ca="1" si="9"/>
-        <v>75</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>234</v>
       </c>
       <c r="N18">
-        <f t="shared" ca="1" si="10"/>
-        <v>85</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -2286,20 +2310,20 @@
         <v>18</v>
       </c>
       <c r="D19">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.5871923034867805</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0.36464311358790924</v>
       </c>
       <c r="E19">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.12</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="O19">
-        <f t="shared" ref="O19:O21" ca="1" si="11">RANDBETWEEN(30,500)</f>
-        <v>363</v>
+        <f t="shared" ref="O19:O21" ca="1" si="12">RANDBETWEEN(30,500)</f>
+        <v>321</v>
       </c>
       <c r="P19">
-        <f t="shared" ref="P19:P21" ca="1" si="12">O19+RANDBETWEEN(-50,50)</f>
-        <v>399</v>
+        <f t="shared" ref="P19:P21" ca="1" si="13">O19+RANDBETWEEN(-50,50)</f>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -2310,20 +2334,20 @@
         <v>19</v>
       </c>
       <c r="D20">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.66782937257565544</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1.3912819026309295</v>
       </c>
       <c r="F20">
         <f ca="1">D20*E19/10</f>
-        <v>8.0139524709078643E-3</v>
+        <v>7.9303068449962974E-2</v>
       </c>
       <c r="O20">
-        <f t="shared" ca="1" si="11"/>
-        <v>378</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>154</v>
       </c>
       <c r="P20">
-        <f t="shared" ca="1" si="12"/>
-        <v>377</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
@@ -2334,24 +2358,24 @@
         <v>20</v>
       </c>
       <c r="D21">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.2267122912954254</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.18632957819149348</v>
       </c>
       <c r="I21">
         <f ca="1">D21-2</f>
-        <v>-0.77328770870457464</v>
+        <v>-2.1863295781914935</v>
       </c>
       <c r="J21">
         <f ca="1">D21+2</f>
-        <v>3.2267122912954251</v>
+        <v>1.8136704218085065</v>
       </c>
       <c r="O21">
-        <f t="shared" ca="1" si="11"/>
-        <v>170</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>344</v>
       </c>
       <c r="P21">
-        <f t="shared" ca="1" si="12"/>
-        <v>195</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
@@ -2362,16 +2386,16 @@
         <v>21</v>
       </c>
       <c r="D22">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.3376291891386096</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0.61518563909023349</v>
       </c>
       <c r="E22">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.12</v>
+        <v>0.75</v>
       </c>
       <c r="K22">
         <f ca="1">RANDBETWEEN(0,600)/1000</f>
-        <v>0.436</v>
+        <v>0.51700000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
@@ -2382,16 +2406,16 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.57661336430399379</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1.6677068205580761</v>
       </c>
       <c r="F23">
         <f ca="1">D23*E22/10</f>
-        <v>6.9193603716479254E-3</v>
+        <v>0.12507801154185572</v>
       </c>
       <c r="K23">
-        <f t="shared" ref="K23:L25" ca="1" si="13">RANDBETWEEN(0,600)/1000</f>
-        <v>0.46500000000000002</v>
+        <f t="shared" ref="K23:K24" ca="1" si="14">RANDBETWEEN(0,600)/1000</f>
+        <v>0.17100000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
@@ -2402,20 +2426,20 @@
         <v>23</v>
       </c>
       <c r="D24">
-        <f t="shared" ca="1" si="8"/>
-        <v>1.1151415906193203</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1.7900914121273581</v>
       </c>
       <c r="I24">
         <f ca="1">D24-2</f>
-        <v>-0.88485840938067972</v>
+        <v>-0.20990858787264188</v>
       </c>
       <c r="J24">
         <f ca="1">D24+2</f>
-        <v>3.1151415906193201</v>
+        <v>3.7900914121273583</v>
       </c>
       <c r="K24">
-        <f t="shared" ca="1" si="13"/>
-        <v>0.16800000000000001</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.36499999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
@@ -2426,24 +2450,24 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.85015092936961001</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>-0.49429632181478012</v>
       </c>
       <c r="E25">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.01</v>
+        <v>0.65</v>
       </c>
       <c r="L25">
         <f ca="1">RANDBETWEEN(0,100)/500</f>
-        <v>4.8000000000000001E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="M25">
         <f ca="1">RANDBETWEEN(30,100)+O25</f>
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="O25">
         <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
@@ -2454,24 +2478,24 @@
         <v>25</v>
       </c>
       <c r="D26">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.94390589890712839</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>1.5260563034950492</v>
       </c>
       <c r="F26">
         <f ca="1">D26*E25/10</f>
-        <v>9.4390589890712829E-4</v>
+        <v>9.9193659727178196E-2</v>
       </c>
       <c r="L26">
-        <f t="shared" ref="L26:L27" ca="1" si="14">RANDBETWEEN(0,100)/500</f>
-        <v>0.12</v>
+        <f t="shared" ref="L26:L27" ca="1" si="15">RANDBETWEEN(0,100)/500</f>
+        <v>0.154</v>
       </c>
       <c r="M26">
-        <f t="shared" ref="M26:M27" ca="1" si="15">RANDBETWEEN(30,100)+O26</f>
-        <v>102</v>
+        <f t="shared" ref="M26:M27" ca="1" si="16">RANDBETWEEN(30,100)+O26</f>
+        <v>115</v>
       </c>
       <c r="O26">
-        <f t="shared" ref="O26:O27" ca="1" si="16">RANDBETWEEN(30,100)</f>
-        <v>38</v>
+        <f t="shared" ref="O26:O27" ca="1" si="17">RANDBETWEEN(30,100)</f>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
@@ -2482,28 +2506,28 @@
         <v>26</v>
       </c>
       <c r="D27">
-        <f t="shared" ca="1" si="8"/>
-        <v>0.10436001532424286</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>-1.8325814637483102</v>
       </c>
       <c r="I27">
         <f ca="1">D27-2</f>
-        <v>-1.8956399846757572</v>
+        <v>-3.8325814637483102</v>
       </c>
       <c r="J27">
         <f ca="1">D27+2</f>
-        <v>2.104360015324243</v>
+        <v>0.16741853625168979</v>
       </c>
       <c r="L27">
-        <f t="shared" ca="1" si="14"/>
-        <v>0.15</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="M27">
-        <f t="shared" ca="1" si="15"/>
-        <v>93</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>135</v>
       </c>
       <c r="O27">
-        <f t="shared" ca="1" si="16"/>
-        <v>48</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2579,20 +2603,20 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>0.8</v>
+        <f t="shared" ref="C2:C10" ca="1" si="0">RANDBETWEEN(0,600)/100</f>
+        <v>5.3</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.63</v>
+        <v>0.49</v>
       </c>
       <c r="M2">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>173</v>
+        <v>306</v>
       </c>
       <c r="N2">
         <f ca="1">M2+RANDBETWEEN(-10,10)</f>
-        <v>183</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -2603,20 +2627,20 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>2.1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4.8</v>
       </c>
       <c r="F3">
         <f ca="1">C3*E2/10</f>
-        <v>0.13230000000000003</v>
+        <v>0.23519999999999999</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M4" ca="1" si="0">RANDBETWEEN(30,500)</f>
-        <v>139</v>
+        <f t="shared" ref="M3:M4" ca="1" si="1">RANDBETWEEN(30,500)</f>
+        <v>481</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N4" ca="1" si="1">M3+RANDBETWEEN(-10,10)</f>
-        <v>134</v>
+        <f t="shared" ref="N3:N4" ca="1" si="2">M3+RANDBETWEEN(-10,10)</f>
+        <v>473</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -2627,24 +2651,24 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>5.94</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.81</v>
       </c>
       <c r="G4">
         <f ca="1">EXP(LN(C4)-2)</f>
-        <v>0.80389158242547942</v>
+        <v>0.24495686265826894</v>
       </c>
       <c r="H4">
         <f ca="1">EXP(LN(C4)+2)</f>
-        <v>43.890993227648053</v>
+        <v>13.374191539064476</v>
       </c>
       <c r="M4">
-        <f t="shared" ca="1" si="0"/>
-        <v>237</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>428</v>
       </c>
       <c r="N4">
-        <f t="shared" ca="1" si="1"/>
-        <v>240</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -2655,20 +2679,20 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>2.02</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.66</v>
       </c>
       <c r="E5">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.43</v>
+        <v>0.37</v>
       </c>
       <c r="O5">
-        <f t="shared" ref="O5:O7" ca="1" si="2">RANDBETWEEN(30,500)</f>
-        <v>109</v>
+        <f t="shared" ref="O5:O7" ca="1" si="3">RANDBETWEEN(30,500)</f>
+        <v>96</v>
       </c>
       <c r="P5">
-        <f t="shared" ref="P5:P7" ca="1" si="3">O5+RANDBETWEEN(-50,50)</f>
-        <v>141</v>
+        <f t="shared" ref="P5:P7" ca="1" si="4">O5+RANDBETWEEN(-50,50)</f>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -2679,20 +2703,20 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>0.99</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.8</v>
       </c>
       <c r="F6">
         <f ca="1">C6*E5/10</f>
-        <v>4.2569999999999997E-2</v>
+        <v>2.9599999999999998E-2</v>
       </c>
       <c r="O6">
-        <f t="shared" ca="1" si="2"/>
-        <v>305</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>271</v>
       </c>
       <c r="P6">
-        <f t="shared" ca="1" si="3"/>
-        <v>266</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -2703,24 +2727,24 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>0.17</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.4</v>
       </c>
       <c r="G7">
         <f ca="1">EXP(LN(C7)-2)</f>
-        <v>2.300699815022416E-2</v>
+        <v>5.4134113294645077E-2</v>
       </c>
       <c r="H7">
         <f ca="1">EXP(LN(C7)+2)</f>
-        <v>1.2561395368182107</v>
+        <v>2.9556224395722599</v>
       </c>
       <c r="O7">
-        <f t="shared" ca="1" si="2"/>
-        <v>478</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>238</v>
       </c>
       <c r="P7">
-        <f t="shared" ca="1" si="3"/>
-        <v>428</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -2731,16 +2755,16 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>5.28</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.21</v>
       </c>
       <c r="E8">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.53</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K8">
-        <f t="shared" ref="K8:K10" ca="1" si="4">RANDBETWEEN(0,600)/1000</f>
-        <v>0.52</v>
+        <f t="shared" ref="K8:K10" ca="1" si="5">RANDBETWEEN(0,600)/1000</f>
+        <v>0.40899999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -2751,16 +2775,16 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>1.0900000000000001</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5.9</v>
       </c>
       <c r="F9">
         <f ca="1">C9*E8/10</f>
-        <v>5.7770000000000009E-2</v>
+        <v>4.130000000000001E-2</v>
       </c>
       <c r="K9">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.31900000000000001</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5.6000000000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -2771,20 +2795,20 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>5.98</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>3.8</v>
       </c>
       <c r="G10">
         <f ca="1">EXP(LN(C10)-2)</f>
-        <v>0.80930499375494391</v>
+        <v>0.51427407629912814</v>
       </c>
       <c r="H10">
         <f ca="1">EXP(LN(C10)+2)</f>
-        <v>44.186555471605296</v>
+        <v>28.078413175936461</v>
       </c>
       <c r="K10">
-        <f t="shared" ca="1" si="4"/>
-        <v>0.13</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -2796,19 +2820,19 @@
       </c>
       <c r="D11">
         <f ca="1">LN(C2)</f>
-        <v>-0.22314355131420971</v>
+        <v>1.6677068205580761</v>
       </c>
       <c r="E11">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.49</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="M11">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>72</v>
+        <v>237</v>
       </c>
       <c r="N11">
         <f ca="1">M11+RANDBETWEEN(-10,10)</f>
-        <v>62</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -2819,20 +2843,20 @@
         <v>11</v>
       </c>
       <c r="D12">
-        <f t="shared" ref="D12:D19" ca="1" si="5">LN(C3)</f>
-        <v>0.74193734472937733</v>
+        <f t="shared" ref="D12:D19" ca="1" si="6">LN(C3)</f>
+        <v>1.5686159179138452</v>
       </c>
       <c r="F12">
         <f ca="1">C12*E11/10</f>
         <v>0</v>
       </c>
       <c r="M12">
-        <f t="shared" ref="M12:M13" ca="1" si="6">RANDBETWEEN(30,500)</f>
-        <v>158</v>
+        <f t="shared" ref="M12:M13" ca="1" si="7">RANDBETWEEN(30,500)</f>
+        <v>269</v>
       </c>
       <c r="N12">
-        <f t="shared" ref="N12:N13" ca="1" si="7">M12+RANDBETWEEN(-10,10)</f>
-        <v>165</v>
+        <f t="shared" ref="N12:N13" ca="1" si="8">M12+RANDBETWEEN(-10,10)</f>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -2843,24 +2867,24 @@
         <v>12</v>
       </c>
       <c r="D13">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.7817091333745536</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.59332684527773438</v>
       </c>
       <c r="I13">
         <f ca="1">D13-2</f>
-        <v>-0.21829086662544639</v>
+        <v>-1.4066731547222657</v>
       </c>
       <c r="J13">
         <f ca="1">D13+2</f>
-        <v>3.7817091333745534</v>
+        <v>2.5933268452777343</v>
       </c>
       <c r="M13">
-        <f t="shared" ca="1" si="6"/>
-        <v>308</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>275</v>
       </c>
       <c r="N13">
-        <f t="shared" ca="1" si="7"/>
-        <v>309</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -2871,20 +2895,20 @@
         <v>13</v>
       </c>
       <c r="D14">
-        <f t="shared" ca="1" si="5"/>
-        <v>0.70309751141311339</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.41551544396166579</v>
       </c>
       <c r="E14">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.92</v>
       </c>
       <c r="O14">
-        <f t="shared" ref="O14:O16" ca="1" si="8">RANDBETWEEN(30,500)</f>
-        <v>204</v>
+        <f t="shared" ref="O14:O16" ca="1" si="9">RANDBETWEEN(30,500)</f>
+        <v>85</v>
       </c>
       <c r="P14">
-        <f t="shared" ref="P14:P16" ca="1" si="9">O14+RANDBETWEEN(-50,50)</f>
-        <v>223</v>
+        <f t="shared" ref="P14:P16" ca="1" si="10">O14+RANDBETWEEN(-50,50)</f>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -2895,20 +2919,20 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <f t="shared" ca="1" si="5"/>
-        <v>-1.0050335853501451E-2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.22314355131420971</v>
       </c>
       <c r="F15">
         <f ca="1">C15*E14/10</f>
         <v>0</v>
       </c>
       <c r="O15">
-        <f t="shared" ca="1" si="8"/>
-        <v>195</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>178</v>
       </c>
       <c r="P15">
-        <f t="shared" ca="1" si="9"/>
-        <v>190</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -2919,24 +2943,24 @@
         <v>15</v>
       </c>
       <c r="D16">
-        <f t="shared" ca="1" si="5"/>
-        <v>-1.7719568419318752</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>-0.916290731874155</v>
       </c>
       <c r="I16">
         <f ca="1">D16-2</f>
-        <v>-3.7719568419318752</v>
+        <v>-2.9162907318741551</v>
       </c>
       <c r="J16">
         <f ca="1">D16+2</f>
-        <v>0.22804315806812481</v>
+        <v>1.0837092681258449</v>
       </c>
       <c r="O16">
-        <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>332</v>
       </c>
       <c r="P16">
-        <f t="shared" ca="1" si="9"/>
-        <v>70</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -2947,16 +2971,16 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.6639260977181702</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>0.79299251552966143</v>
       </c>
       <c r="E17">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="K17">
-        <f t="shared" ref="K17:K19" ca="1" si="10">RANDBETWEEN(0,600)/1000</f>
-        <v>0.29499999999999998</v>
+        <f t="shared" ref="K17:K19" ca="1" si="11">RANDBETWEEN(0,600)/1000</f>
+        <v>0.183</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -2967,16 +2991,16 @@
         <v>17</v>
       </c>
       <c r="D18">
-        <f t="shared" ca="1" si="5"/>
-        <v>8.6177696241052412E-2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1.7749523509116738</v>
       </c>
       <c r="F18">
         <f ca="1">C18*E17/10</f>
         <v>0</v>
       </c>
       <c r="K18">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.39600000000000002</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.32100000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -2987,20 +3011,20 @@
         <v>18</v>
       </c>
       <c r="D19">
-        <f t="shared" ca="1" si="5"/>
-        <v>1.7884205679625405</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>1.33500106673234</v>
       </c>
       <c r="I19">
         <f ca="1">D19-2</f>
-        <v>-0.21157943203745955</v>
+        <v>-0.66499893326766002</v>
       </c>
       <c r="J19">
         <f ca="1">D19+2</f>
-        <v>3.7884205679625405</v>
+        <v>3.3350010667323398</v>
       </c>
       <c r="K19">
-        <f t="shared" ca="1" si="10"/>
-        <v>0.57899999999999996</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>0.222</v>
       </c>
     </row>
   </sheetData>
@@ -3064,19 +3088,19 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>465</v>
+        <v>162</v>
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>274</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3088,19 +3112,19 @@
       </c>
       <c r="C3">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>332</v>
+        <v>60</v>
       </c>
       <c r="D3">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>470</v>
+        <v>128</v>
       </c>
       <c r="I3">
         <f ca="1">RANDBETWEEN(30,500)+C3</f>
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="J3">
         <f ca="1">RANDBETWEEN(30,500)+D3</f>
-        <v>653</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3112,19 +3136,19 @@
       </c>
       <c r="G4">
         <f t="shared" ref="G4:H4" ca="1" si="0">RANDBETWEEN(0,600)/1000</f>
-        <v>0</v>
+        <v>0.502</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11600000000000001</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="I4">
         <f ca="1">RANDBETWEEN(30,500)+C4</f>
-        <v>387</v>
+        <v>322</v>
       </c>
       <c r="J4">
         <f ca="1">RANDBETWEEN(30,500)+D4</f>
-        <v>384</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3176,20 +3200,20 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:E4" ca="1" si="0">RANDBETWEEN(0,600)/1000</f>
-        <v>6.6000000000000003E-2</v>
+        <f t="shared" ref="C2" ca="1" si="0">RANDBETWEEN(0,600)/1000</f>
+        <v>0.38300000000000001</v>
       </c>
       <c r="F2">
         <f ca="1">ROUND((G2+H2)*1.37, 0)</f>
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="G2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="H2">
         <f ca="1">G2+RANDBETWEEN(-10,10)</f>
-        <v>49</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -3201,19 +3225,19 @@
       </c>
       <c r="D3">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>0.87</v>
+        <v>2.48</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F4" ca="1" si="1">ROUND((G3+H3)*1.37, 0)</f>
-        <v>32</v>
+        <v>264</v>
       </c>
       <c r="G3">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="H3">
         <f ca="1">G3+RANDBETWEEN(-10,10)</f>
-        <v>9</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -3225,19 +3249,19 @@
       </c>
       <c r="E4">
         <f ca="1">RANDBETWEEN(0,600)/1000000</f>
-        <v>2.5000000000000001E-5</v>
+        <v>3.8499999999999998E-4</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>121</v>
+        <v>207</v>
       </c>
       <c r="G4">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="H4">
         <f ca="1">G4+RANDBETWEEN(-10,10)</f>
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -3302,7 +3326,7 @@
       </c>
       <c r="E2">
         <f ca="1">LN(RANDBETWEEN(0,600)/100)</f>
-        <v>1.2383742310432684</v>
+        <v>1.5953389880545987</v>
       </c>
       <c r="F2">
         <f ca="1">(H3-G3)/4</f>
@@ -3324,15 +3348,15 @@
       </c>
       <c r="E3">
         <f ca="1">LN(RANDBETWEEN(0,600)/100)</f>
-        <v>0.71783979315031676</v>
+        <v>1.3787660946990992</v>
       </c>
       <c r="G3">
         <f ca="1">E3-1.27</f>
-        <v>-0.55216020684968325</v>
+        <v>0.10876609469909915</v>
       </c>
       <c r="H3">
         <f ca="1">E3+1.27</f>
-        <v>1.9878397931503167</v>
+        <v>2.6487660946990994</v>
       </c>
     </row>
   </sheetData>
@@ -3395,7 +3419,7 @@
       </c>
       <c r="E2">
         <f ca="1">LN(RANDBETWEEN(0,600)/100)</f>
-        <v>-0.37106368139083207</v>
+        <v>1.33500106673234</v>
       </c>
       <c r="F2">
         <f ca="1">(H3-G3)/4</f>
@@ -3417,15 +3441,15 @@
       </c>
       <c r="E3">
         <f ca="1">LN(RANDBETWEEN(0,600)/100)</f>
-        <v>2.9558802241544429E-2</v>
+        <v>1.4255150742731719</v>
       </c>
       <c r="G3">
         <f ca="1">E3-1.27</f>
-        <v>-1.2404411977584555</v>
+        <v>0.1555150742731719</v>
       </c>
       <c r="H3">
         <f ca="1">E3+1.27</f>
-        <v>1.2995588022415445</v>
+        <v>2.6955150742731719</v>
       </c>
     </row>
   </sheetData>
@@ -3484,11 +3508,11 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(1,1000)/1000</f>
-        <v>0.86499999999999999</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="J2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3500,11 +3524,11 @@
       </c>
       <c r="D3">
         <f ca="1">RANDBETWEEN(1,1000)/1000</f>
-        <v>0.151</v>
+        <v>0.25900000000000001</v>
       </c>
       <c r="J3">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3516,15 +3540,15 @@
       </c>
       <c r="C4">
         <f ca="1">RANDBETWEEN(1,1000)/1000</f>
-        <v>0.373</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="H4">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="I4">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>39</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -3536,15 +3560,15 @@
       </c>
       <c r="D5">
         <f ca="1">RANDBETWEEN(1,1000)/1000</f>
-        <v>0.98199999999999998</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="H5">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="I5">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>55</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -3556,11 +3580,11 @@
       </c>
       <c r="C6">
         <f ca="1">RANDBETWEEN(1,1000)/1000</f>
-        <v>0.115</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="E6">
         <f ca="1">RANDBETWEEN(1,1000)/1000</f>
-        <v>0.76400000000000001</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -3570,7 +3594,7 @@
       </c>
       <c r="J6">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -3582,11 +3606,11 @@
       </c>
       <c r="D7">
         <f ca="1">RANDBETWEEN(1,1000)/1000</f>
-        <v>0.57499999999999996</v>
+        <v>0.84299999999999997</v>
       </c>
       <c r="E7">
         <f ca="1">RANDBETWEEN(1,1000)/1000</f>
-        <v>0.76400000000000001</v>
+        <v>0.55300000000000005</v>
       </c>
       <c r="F7">
         <v>0.54</v>
@@ -3596,7 +3620,7 @@
       </c>
       <c r="J7">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3864,11 +3888,11 @@
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2">
         <f ca="1">F2+RANDBETWEEN(-10,10)</f>
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -3886,11 +3910,11 @@
       </c>
       <c r="F3">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="G3">
         <f ca="1">F3+RANDBETWEEN(-10,10)</f>
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -4054,7 +4078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51B0C296-4640-431B-8D57-E5F31FFCBDAD}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -4108,15 +4132,15 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>4.5</v>
+        <v>1.39</v>
       </c>
       <c r="J2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="K2">
         <f ca="1">J2+RANDBETWEEN(-10,30)</f>
-        <v>111</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -4128,15 +4152,15 @@
       </c>
       <c r="D3">
         <f ca="1">RANDBETWEEN(0,1000)/10000</f>
-        <v>6.9999999999999999E-4</v>
+        <v>7.3300000000000004E-2</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J8" ca="1" si="0">RANDBETWEEN(10,100)</f>
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K8" ca="1" si="1">J3+RANDBETWEEN(-10,30)</f>
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -4148,15 +4172,15 @@
       </c>
       <c r="E4">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>5.91</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -4168,15 +4192,15 @@
       </c>
       <c r="F5">
         <f ca="1">RANDBETWEEN(0,1000)/100000</f>
-        <v>8.1499999999999993E-3</v>
+        <v>7.9100000000000004E-3</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="1"/>
-        <v>91</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -4188,15 +4212,15 @@
       </c>
       <c r="G6">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>0.9</v>
+        <v>1.18</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -4208,15 +4232,15 @@
       </c>
       <c r="H7">
         <f ca="1">RANDBETWEEN(0,1000)/1000</f>
-        <v>0.96</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -4228,15 +4252,15 @@
       </c>
       <c r="I8">
         <f ca="1">RANDBETWEEN(0,1000)/1000</f>
-        <v>8.5999999999999993E-2</v>
+        <v>0.4</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -4363,47 +4387,47 @@
       </c>
       <c r="D2">
         <f ca="1">E2-RANDBETWEEN(-100,100)/10</f>
-        <v>105.7</v>
+        <v>105.8</v>
       </c>
       <c r="E2">
         <v>101.2</v>
       </c>
       <c r="F2">
         <f ca="1">G2-RANDBETWEEN(-100,100)/10</f>
-        <v>104</v>
+        <v>101.10000000000001</v>
       </c>
       <c r="G2">
         <v>98.9</v>
       </c>
       <c r="H2">
         <f ca="1">I2-RANDBETWEEN(-100,100)/100</f>
-        <v>16.419999999999998</v>
+        <v>15.879999999999999</v>
       </c>
       <c r="I2">
         <v>15.87</v>
       </c>
       <c r="J2">
         <f ca="1">K2-RANDBETWEEN(-100,100)/100</f>
-        <v>13.709999999999999</v>
+        <v>13.959999999999999</v>
       </c>
       <c r="K2">
         <v>13.87</v>
       </c>
       <c r="Z2">
         <f ca="1">RANDBETWEEN(0,1000)/1000</f>
-        <v>0.34899999999999998</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AA2">
         <f ca="1">Z2+RANDBETWEEN(-100,100)/1000</f>
-        <v>0.44699999999999995</v>
+        <v>-5.4000000000000006E-2</v>
       </c>
       <c r="AB2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="AC2">
         <f ca="1">AB2+RANDBETWEEN(-10,30)</f>
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
@@ -4415,47 +4439,47 @@
       </c>
       <c r="D3">
         <f ca="1">E3-RANDBETWEEN(-100,100)/100</f>
-        <v>6.16</v>
+        <v>6.15</v>
       </c>
       <c r="E3">
         <v>5.94</v>
       </c>
       <c r="F3">
         <f ca="1">G3-RANDBETWEEN(-100,100)/100</f>
-        <v>6.42</v>
+        <v>5.8</v>
       </c>
       <c r="G3">
         <v>5.81</v>
       </c>
       <c r="L3">
         <f ca="1">M3-RANDBETWEEN(-100,100)/1000</f>
-        <v>6.6000000000000003E-2</v>
+        <v>0.218</v>
       </c>
       <c r="M3">
         <v>0.13</v>
       </c>
       <c r="N3">
         <f ca="1">O3-RANDBETWEEN(-100,100)/1000</f>
-        <v>8.5000000000000006E-2</v>
+        <v>0.221</v>
       </c>
       <c r="O3">
         <v>0.13</v>
       </c>
       <c r="Z3">
         <f t="shared" ref="Z3:Z5" ca="1" si="0">RANDBETWEEN(0,1000)/1000</f>
-        <v>0.65800000000000003</v>
+        <v>0.66900000000000004</v>
       </c>
       <c r="AA3">
         <f t="shared" ref="AA3:AA5" ca="1" si="1">Z3+RANDBETWEEN(-100,100)/1000</f>
-        <v>0.57500000000000007</v>
+        <v>0.626</v>
       </c>
       <c r="AB3">
         <f t="shared" ref="AB3:AB5" ca="1" si="2">RANDBETWEEN(10,100)</f>
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AC3">
         <f t="shared" ref="AC3:AC5" ca="1" si="3">AB3+RANDBETWEEN(-10,30)</f>
-        <v>86</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
@@ -4467,25 +4491,25 @@
       </c>
       <c r="D4">
         <f ca="1">E4-RANDBETWEEN(-100,100)/10</f>
-        <v>55.5</v>
+        <v>44.2</v>
       </c>
       <c r="E4">
         <v>50</v>
       </c>
       <c r="F4">
         <f ca="1">G4-RANDBETWEEN(-100,100)/10</f>
-        <v>61.2</v>
+        <v>61.7</v>
       </c>
       <c r="G4">
         <v>60</v>
       </c>
       <c r="P4">
         <f ca="1">D4-5</f>
-        <v>50.5</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="Q4">
         <f ca="1">D4+5</f>
-        <v>60.5</v>
+        <v>49.2</v>
       </c>
       <c r="R4">
         <v>45</v>
@@ -4501,19 +4525,19 @@
       </c>
       <c r="Z4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36</v>
+        <v>1.4E-2</v>
       </c>
       <c r="AA4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36899999999999999</v>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="AB4">
         <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="AC4">
         <f t="shared" ca="1" si="3"/>
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
@@ -4525,35 +4549,35 @@
       </c>
       <c r="V5">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>-1.05</v>
+        <v>-3.39</v>
       </c>
       <c r="W5">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>-4.24</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="X5">
         <f ca="1">RANDBETWEEN(100,300)/100</f>
-        <v>1.1599999999999999</v>
+        <v>2.87</v>
       </c>
       <c r="Y5">
         <f ca="1">RANDBETWEEN(100,300)/100</f>
-        <v>1.24</v>
+        <v>2.25</v>
       </c>
       <c r="Z5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85299999999999998</v>
+        <v>0.501</v>
       </c>
       <c r="AA5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.873</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="AB5">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="AC5">
         <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
@@ -4573,10 +4597,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E3721F9-A03A-46BD-B4DA-C21DB1A50FE7}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4584,7 +4608,7 @@
     <col min="1" max="2" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -4592,31 +4616,43 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>201</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>205</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>202</v>
       </c>
       <c r="F1" t="s">
-        <v>45</v>
+        <v>206</v>
       </c>
       <c r="G1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H1" t="s">
+        <v>207</v>
+      </c>
+      <c r="I1" t="s">
+        <v>204</v>
+      </c>
+      <c r="J1" t="s">
+        <v>208</v>
+      </c>
+      <c r="K1" t="s">
         <v>109</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>110</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -4625,107 +4661,123 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>4.2</v>
-      </c>
-      <c r="G2">
+        <v>0.87</v>
+      </c>
+      <c r="D2">
+        <f ca="1">RANDBETWEEN(0,600)/100</f>
+        <v>0.31</v>
+      </c>
+      <c r="K2">
         <f ca="1">RANDBETWEEN(0,1000)/1000</f>
-        <v>0.83</v>
-      </c>
-      <c r="H2">
-        <f ca="1">G2+RANDBETWEEN(-100,100)/1000</f>
-        <v>0.85599999999999998</v>
-      </c>
-      <c r="I2">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="L2">
+        <f ca="1">K2+RANDBETWEEN(-100,100)/1000</f>
+        <v>0.68900000000000006</v>
+      </c>
+      <c r="M2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>72</v>
-      </c>
-      <c r="J2">
-        <f ca="1">I2+RANDBETWEEN(-10,30)</f>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="N2">
+        <f ca="1">M2+RANDBETWEEN(-10,30)</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>43</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <f ca="1">RANDBETWEEN(0,1000)/10000</f>
-        <v>2.52E-2</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G5" ca="1" si="0">RANDBETWEEN(0,1000)/1000</f>
-        <v>0.56899999999999995</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H5" ca="1" si="1">G3+RANDBETWEEN(-100,100)/1000</f>
-        <v>0.56799999999999995</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I5" ca="1" si="2">RANDBETWEEN(10,100)</f>
-        <v>73</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ref="J3:J5" ca="1" si="3">I3+RANDBETWEEN(-10,30)</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>8.8499999999999995E-2</v>
+      </c>
+      <c r="F3">
+        <f ca="1">RANDBETWEEN(0,1000)/10000</f>
+        <v>7.9100000000000004E-2</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K5" ca="1" si="0">RANDBETWEEN(0,1000)/1000</f>
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L5" ca="1" si="1">K3+RANDBETWEEN(-100,100)/1000</f>
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M5" ca="1" si="2">RANDBETWEEN(10,100)</f>
+        <v>36</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N5" ca="1" si="3">M3+RANDBETWEEN(-10,30)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>44</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G4">
+        <v>5.18</v>
+      </c>
+      <c r="H4">
+        <f ca="1">RANDBETWEEN(0,600)/100</f>
+        <v>0.31</v>
+      </c>
+      <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14099999999999999</v>
-      </c>
-      <c r="H4">
+        <v>0.64</v>
+      </c>
+      <c r="L4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11299999999999999</v>
-      </c>
-      <c r="I4">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="M4">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
-      </c>
-      <c r="J4">
+        <v>77</v>
+      </c>
+      <c r="N4">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>45</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="F5">
+      <c r="I5">
         <f ca="1">RANDBETWEEN(0,1000)/100000</f>
-        <v>4.8399999999999997E-3</v>
-      </c>
-      <c r="G5">
+        <v>8.2799999999999992E-3</v>
+      </c>
+      <c r="J5">
+        <f ca="1">RANDBETWEEN(0,1000)/100000</f>
+        <v>7.0699999999999999E-3</v>
+      </c>
+      <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56899999999999995</v>
-      </c>
-      <c r="H5">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="L5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48</v>
-      </c>
-      <c r="I5">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="M5">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
-      </c>
-      <c r="J5">
+        <v>61</v>
+      </c>
+      <c r="N5">
         <f t="shared" ca="1" si="3"/>
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -4781,19 +4833,19 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>2.99</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(100,300)/100</f>
-        <v>2.4300000000000002</v>
+        <v>2.36</v>
       </c>
       <c r="H2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="I2">
         <f ca="1">H2+RANDBETWEEN(-10,30)</f>
-        <v>117</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -4805,19 +4857,19 @@
       </c>
       <c r="C3">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>-1.61</v>
+        <v>-1.72</v>
       </c>
       <c r="E3">
         <f ca="1">RANDBETWEEN(100,300)/100/5</f>
-        <v>0.51800000000000002</v>
+        <v>0.31</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H4" ca="1" si="0">RANDBETWEEN(10,100)</f>
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3:I4" ca="1" si="1">H3+RANDBETWEEN(-10,30)</f>
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -4829,23 +4881,23 @@
       </c>
       <c r="C4">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>-1.9</v>
+        <v>1.88</v>
       </c>
       <c r="F4">
         <f ca="1">C4-0.5</f>
-        <v>-2.4</v>
+        <v>1.38</v>
       </c>
       <c r="G4">
         <f ca="1">C4+0.5</f>
-        <v>-1.4</v>
+        <v>2.38</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -4907,11 +4959,11 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>-3.16</v>
+        <v>-1.1499999999999999</v>
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(100,300)/100</f>
-        <v>2.68</v>
+        <v>1.79</v>
       </c>
       <c r="H2">
         <f>0.3</f>
@@ -4922,11 +4974,11 @@
       </c>
       <c r="J2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="K2">
         <f ca="1">J2+RANDBETWEEN(-20,30)</f>
-        <v>70</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -4938,11 +4990,11 @@
       </c>
       <c r="C3">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>0.53</v>
+        <v>0.86</v>
       </c>
       <c r="E3">
         <f ca="1">RANDBETWEEN(100,300)/100/5</f>
-        <v>0.39200000000000002</v>
+        <v>0.28199999999999997</v>
       </c>
       <c r="H3">
         <f>0.07</f>
@@ -4953,11 +5005,11 @@
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J4" ca="1" si="0">RANDBETWEEN(10,100)</f>
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K4" ca="1" si="1">J3+RANDBETWEEN(-20,30)</f>
-        <v>76</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -4969,15 +5021,15 @@
       </c>
       <c r="C4">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>-0.21</v>
+        <v>2.81</v>
       </c>
       <c r="F4">
         <f ca="1">C4-0.5</f>
-        <v>-0.71</v>
+        <v>2.31</v>
       </c>
       <c r="G4">
         <f ca="1">C4+0.5</f>
-        <v>0.29000000000000004</v>
+        <v>3.31</v>
       </c>
       <c r="H4">
         <f>0.22</f>
@@ -4988,11 +5040,11 @@
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -5067,47 +5119,47 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(10,20)</f>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D2">
         <f ca="1">RANDBETWEEN(10,20)</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <f ca="1">C2+RANDBETWEEN(10,20)</f>
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F2">
         <f ca="1">D2+RANDBETWEEN(10,20)</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2:L2" ca="1" si="0">E2+E2-C2</f>
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="M2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N2">
         <f ca="1">M2+RANDBETWEEN(-10,10)</f>
@@ -5123,35 +5175,35 @@
       </c>
       <c r="E3">
         <f ca="1">C3+RANDBETWEEN(10,20)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F3">
         <f ca="1">D3+RANDBETWEEN(10,20)</f>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3" ca="1" si="1">E3+E3-C3</f>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3" ca="1" si="2">F3+F3-D3</f>
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="I3">
         <f ca="1">G3+G3-E3</f>
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <f ca="1">H3+H3-F3</f>
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M4" ca="1" si="3">RANDBETWEEN(10,100)</f>
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N4" ca="1" si="4">M3+RANDBETWEEN(-10,10)</f>
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -5163,35 +5215,35 @@
       </c>
       <c r="C4">
         <f ca="1">RANDBETWEEN(10,20)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <f ca="1">RANDBETWEEN(10,20)</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G4">
         <f ca="1">C4+24</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <f ca="1">D4+26</f>
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K4">
         <f ca="1">G4+I4-C4+G4</f>
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L4">
         <f ca="1">H4+J4-D4+H4</f>
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="3"/>
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="4"/>
-        <v>103</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/tables/list_datasets.xlsx
+++ b/tables/list_datasets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Corentin Gosling\drive_gmail\Recherche\metaConvert\web\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2922AC57-CAC9-4B45-BC5C-16FE860CBA19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDC876A-4F78-46CF-86A6-6C7EDE936738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="12" activeTab="23" xr2:uid="{3A80436A-EBC8-4660-8C38-C3E7D350F51B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="12" activeTab="15" xr2:uid="{3A80436A-EBC8-4660-8C38-C3E7D350F51B}"/>
   </bookViews>
   <sheets>
     <sheet name="cohen_d" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="232">
   <si>
     <t>cohen_d</t>
   </si>
@@ -532,18 +532,6 @@
     <t>or</t>
   </si>
   <si>
-    <t>or_ci_lo</t>
-  </si>
-  <si>
-    <t>or_ci_up</t>
-  </si>
-  <si>
-    <t>logor_ci_lo</t>
-  </si>
-  <si>
-    <t>logor_ci_up</t>
-  </si>
-  <si>
     <t>n_controls</t>
   </si>
   <si>
@@ -556,21 +544,6 @@
     <t>or_ci</t>
   </si>
   <si>
-    <t>rr</t>
-  </si>
-  <si>
-    <t>rr_ci_lo</t>
-  </si>
-  <si>
-    <t>rr_ci_up</t>
-  </si>
-  <si>
-    <t>logrr_ci_lo</t>
-  </si>
-  <si>
-    <t>logrr_ci_up</t>
-  </si>
-  <si>
     <t>rr_se</t>
   </si>
   <si>
@@ -761,6 +734,27 @@
   </si>
   <si>
     <t>CVR</t>
+  </si>
+  <si>
+    <t>IRR</t>
+  </si>
+  <si>
+    <t>(log)or</t>
+  </si>
+  <si>
+    <t>(log)or_ci_lo</t>
+  </si>
+  <si>
+    <t>(log)or_ci_up</t>
+  </si>
+  <si>
+    <t>(log)rr</t>
+  </si>
+  <si>
+    <t>(log)rr_ci_lo</t>
+  </si>
+  <si>
+    <t>(log)rr_ci_up</t>
   </si>
 </sst>
 </file>
@@ -1134,10 +1128,10 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -1160,10 +1154,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E2">
         <v>0.43</v>
@@ -1183,10 +1177,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="F3">
         <v>0.87</v>
@@ -1226,10 +1220,10 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E1" t="s">
         <v>111</v>
@@ -1276,58 +1270,58 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D2" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(10,20)</f>
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(10,20)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2">
         <f ca="1">E2+RANDBETWEEN(10,20)</f>
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H2">
         <f ca="1">F2+RANDBETWEEN(10,20)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2:N2" ca="1" si="0">G2+G2-E2</f>
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="O2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="P2">
         <f ca="1">O2+RANDBETWEEN(-10,10)</f>
-        <v>22</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -1338,42 +1332,42 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D3" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="G3">
         <f ca="1">E3+RANDBETWEEN(10,20)</f>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <f ca="1">F3+RANDBETWEEN(10,20)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3" ca="1" si="1">G3+G3-E3</f>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3" ca="1" si="2">H3+H3-F3</f>
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K3">
         <f ca="1">I3+I3-G3</f>
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="L3">
         <f ca="1">J3+J3-H3</f>
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O4" ca="1" si="3">RANDBETWEEN(10,100)</f>
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P4" ca="1" si="4">O3+RANDBETWEEN(-10,10)</f>
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -1384,42 +1378,42 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D4" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E4">
         <f ca="1">RANDBETWEEN(10,20)</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F4">
         <f ca="1">RANDBETWEEN(10,20)</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I4">
         <f ca="1">E4+24</f>
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J4">
         <f ca="1">F4+26</f>
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M4">
         <f ca="1">I4+K4-E4+I4</f>
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="N4">
         <f ca="1">J4+L4-F4+J4</f>
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="4"/>
-        <v>93</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1453,10 +1447,10 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E1" t="s">
         <v>131</v>
@@ -1515,42 +1509,42 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(100,1000)/10</f>
-        <v>54.6</v>
+        <v>58.2</v>
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(-25,25)+E2</f>
-        <v>65.599999999999994</v>
+        <v>48.2</v>
       </c>
       <c r="G2">
         <f ca="1">RANDBETWEEN(100,500)/10</f>
-        <v>12.3</v>
+        <v>37.9</v>
       </c>
       <c r="H2">
         <f ca="1">RANDBETWEEN(100,500)/10</f>
-        <v>18.7</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="Q2">
         <f ca="1">0.05+R2/20</f>
-        <v>0.15000000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="R2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="T2">
         <f ca="1">S2+RANDBETWEEN(-10,10)</f>
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -1561,42 +1555,42 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E3">
         <f ca="1">RANDBETWEEN(100,1000)/10</f>
-        <v>70.599999999999994</v>
+        <v>38.5</v>
       </c>
       <c r="F3">
         <f ca="1">RANDBETWEEN(-25,25)+E3</f>
-        <v>62.599999999999994</v>
+        <v>22.5</v>
       </c>
       <c r="I3">
         <f ca="1">RANDBETWEEN(100,500)/10/5</f>
-        <v>6.3</v>
+        <v>8.120000000000001</v>
       </c>
       <c r="J3">
         <f ca="1">RANDBETWEEN(1,5)+I3</f>
-        <v>10.3</v>
+        <v>9.120000000000001</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q6" ca="1" si="0">0.05+R3/20</f>
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="R3">
         <f t="shared" ref="R3:R6" ca="1" si="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S3">
         <f t="shared" ref="S3:S6" ca="1" si="2">RANDBETWEEN(10,100)</f>
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="T3">
         <f t="shared" ref="T3:T6" ca="1" si="3">S3+RANDBETWEEN(-10,10)</f>
-        <v>24</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
@@ -1607,50 +1601,50 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D4" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E4">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>1.5</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="F4">
         <f ca="1">RANDBETWEEN(-2,2)+E4</f>
-        <v>3.5</v>
+        <v>6.11</v>
       </c>
       <c r="K4">
         <f ca="1">E4-0.5</f>
-        <v>1</v>
+        <v>3.6100000000000003</v>
       </c>
       <c r="L4">
         <f ca="1">E4+0.5</f>
-        <v>2</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="M4">
         <f ca="1">F4-0.5</f>
-        <v>3</v>
+        <v>5.61</v>
       </c>
       <c r="N4">
         <f ca="1">F4+0.5</f>
-        <v>4</v>
+        <v>6.61</v>
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="R4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S4">
         <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="T4">
         <f t="shared" ca="1" si="3"/>
-        <v>85</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
@@ -1661,38 +1655,38 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D5" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E5">
         <f ca="1">RANDBETWEEN(-500,500)/10</f>
-        <v>33.700000000000003</v>
+        <v>27.9</v>
       </c>
       <c r="F5">
         <f ca="1">RANDBETWEEN(-5,5)+E5</f>
-        <v>38.700000000000003</v>
+        <v>32.9</v>
       </c>
       <c r="O5">
         <f ca="1">RANDBETWEEN(-500,500)/10</f>
-        <v>49.1</v>
+        <v>22.9</v>
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S5">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="T5">
         <f t="shared" ca="1" si="3"/>
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
@@ -1703,22 +1697,22 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D6" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E6">
         <f ca="1">RANDBETWEEN(-500,500)/10</f>
-        <v>49.8</v>
+        <v>-7.9</v>
       </c>
       <c r="F6">
         <f ca="1">RANDBETWEEN(-5,5)+E6</f>
-        <v>51.8</v>
+        <v>-12.9</v>
       </c>
       <c r="P6">
         <f ca="1">RANDBETWEEN(-500,500)/10</f>
-        <v>21.1</v>
+        <v>32.6</v>
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="0"/>
@@ -1730,11 +1724,11 @@
       </c>
       <c r="S6">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="T6">
         <f t="shared" ca="1" si="3"/>
-        <v>27</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1769,10 +1763,10 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E1" t="s">
         <v>146</v>
@@ -1831,42 +1825,42 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(100,1000)/10</f>
-        <v>31.4</v>
+        <v>98</v>
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(-25,25)+E2</f>
-        <v>6.3999999999999986</v>
+        <v>107</v>
       </c>
       <c r="G2">
         <f ca="1">RANDBETWEEN(100,500)/10</f>
-        <v>43.2</v>
+        <v>26</v>
       </c>
       <c r="H2">
         <f ca="1">RANDBETWEEN(100,500)/10</f>
-        <v>17.600000000000001</v>
+        <v>12.3</v>
       </c>
       <c r="Q2">
         <f ca="1">0.05+R2/20</f>
-        <v>0.15000000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="R2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="T2">
         <f ca="1">S2+RANDBETWEEN(-10,10)</f>
-        <v>81</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -1877,42 +1871,42 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E3">
         <f ca="1">RANDBETWEEN(100,1000)/10</f>
-        <v>37.9</v>
+        <v>15.5</v>
       </c>
       <c r="F3">
         <f ca="1">RANDBETWEEN(-25,25)+E3</f>
-        <v>41.9</v>
+        <v>12.5</v>
       </c>
       <c r="I3">
         <f ca="1">RANDBETWEEN(100,500)/10/5</f>
-        <v>5.66</v>
+        <v>8.379999999999999</v>
       </c>
       <c r="J3">
         <f ca="1">RANDBETWEEN(1,5)+I3</f>
-        <v>10.66</v>
+        <v>9.379999999999999</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q4" ca="1" si="0">0.05+R3/20</f>
-        <v>0.15000000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="R3">
         <f t="shared" ref="R3:R4" ca="1" si="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S3">
         <f t="shared" ref="S3:S4" ca="1" si="2">RANDBETWEEN(10,100)</f>
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="T3">
         <f t="shared" ref="T3:T4" ca="1" si="3">S3+RANDBETWEEN(-10,10)</f>
-        <v>69</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
@@ -1923,34 +1917,34 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D4" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E4">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>4.5599999999999996</v>
+        <v>-3.98</v>
       </c>
       <c r="F4">
         <f ca="1">RANDBETWEEN(-2,2)+E4</f>
-        <v>6.56</v>
+        <v>-1.98</v>
       </c>
       <c r="K4">
         <f ca="1">E4-0.5</f>
-        <v>4.0599999999999996</v>
+        <v>-4.4800000000000004</v>
       </c>
       <c r="L4">
         <f ca="1">E4+0.5</f>
-        <v>5.0599999999999996</v>
+        <v>-3.48</v>
       </c>
       <c r="M4">
         <f ca="1">F4-0.5</f>
-        <v>6.06</v>
+        <v>-2.48</v>
       </c>
       <c r="N4">
         <f ca="1">F4+0.5</f>
-        <v>7.06</v>
+        <v>-1.48</v>
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="0"/>
@@ -1962,11 +1956,11 @@
       </c>
       <c r="S4">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="T4">
         <f t="shared" ca="1" si="3"/>
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1995,10 +1989,10 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
@@ -2036,14 +2030,14 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>5.52</v>
+        <v>0.63</v>
       </c>
       <c r="J2">
         <f ca="1">0.05+K2/20</f>
@@ -2055,11 +2049,11 @@
       </c>
       <c r="L2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="M2">
         <f ca="1">L2+RANDBETWEEN(-10,10)</f>
-        <v>66</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -2070,30 +2064,30 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="F3">
         <f ca="1">RANDBETWEEN(0,1000)/10000</f>
-        <v>3.9100000000000003E-2</v>
+        <v>2.0199999999999999E-2</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J4" ca="1" si="0">0.05+K3/20</f>
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K6" ca="1" si="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L6" ca="1" si="2">RANDBETWEEN(10,100)</f>
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M4" ca="1" si="3">L3+RANDBETWEEN(-10,10)</f>
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -2104,30 +2098,30 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D4" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="G4">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>3.47</v>
+        <v>1.89</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15000000000000002</v>
+        <v>0.3</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -2138,30 +2132,30 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D5" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="H5">
         <f ca="1">RANDBETWEEN(0,1000)/100000</f>
-        <v>5.0000000000000001E-3</v>
+        <v>8.6700000000000006E-3</v>
       </c>
       <c r="J5">
         <f t="shared" ref="J5:J6" ca="1" si="4">0.05+K5/20</f>
-        <v>0.15000000000000002</v>
+        <v>0.1</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="2"/>
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="M5">
         <f t="shared" ref="M5:M6" ca="1" si="5">L5+RANDBETWEEN(-10,10)</f>
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -2172,30 +2166,30 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D6" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="I6">
         <f ca="1">RANDBETWEEN(0,1000)/1000</f>
-        <v>0.29099999999999998</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="4"/>
-        <v>0.1</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="5"/>
-        <v>15</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2225,10 +2219,10 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -2254,14 +2248,14 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(0,1000)/1000</f>
-        <v>0.44400000000000001</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2" ca="1" si="0">0.05+G2/20</f>
@@ -2273,11 +2267,11 @@
       </c>
       <c r="H2">
         <f t="shared" ref="H2" ca="1" si="2">RANDBETWEEN(10,100)</f>
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2" ca="1" si="3">H2+RANDBETWEEN(-10,10)</f>
-        <v>99</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2287,25 +2281,24 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7C8B16-96FC-43F1-82FE-2C5813E16EA5}">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21.6640625" customWidth="1"/>
     <col min="3" max="4" width="23.77734375" customWidth="1"/>
-    <col min="11" max="11" width="22.88671875" customWidth="1"/>
-    <col min="12" max="12" width="15.44140625" customWidth="1"/>
-    <col min="13" max="13" width="16.77734375" customWidth="1"/>
-    <col min="14" max="14" width="17.77734375" customWidth="1"/>
-    <col min="15" max="16" width="26.77734375" customWidth="1"/>
-    <col min="17" max="17" width="25.77734375" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" customWidth="1"/>
+    <col min="11" max="11" width="16.77734375" customWidth="1"/>
+    <col min="12" max="12" width="17.77734375" customWidth="1"/>
+    <col min="13" max="14" width="26.77734375" customWidth="1"/>
+    <col min="15" max="15" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -2313,13 +2306,13 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E1" t="s">
-        <v>156</v>
+        <v>226</v>
       </c>
       <c r="F1" t="s">
         <v>16</v>
@@ -2328,37 +2321,31 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
         <v>157</v>
       </c>
-      <c r="I1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J1" t="s">
-        <v>159</v>
-      </c>
-      <c r="K1" t="s">
-        <v>160</v>
-      </c>
-      <c r="L1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>156</v>
       </c>
@@ -2366,402 +2353,402 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D2" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E2">
-        <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>3.44</v>
-      </c>
-      <c r="P2">
+        <f t="shared" ref="E2:E14" ca="1" si="0">RANDBETWEEN(0,600)/100</f>
+        <v>1.55</v>
+      </c>
+      <c r="N2">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>355</v>
-      </c>
-      <c r="Q2">
-        <f ca="1">P2+RANDBETWEEN(-50,50)</f>
-        <v>374</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+      <c r="O2">
+        <f ca="1">N2+RANDBETWEEN(-50,50)</f>
+        <v>385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D3" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E3">
-        <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>5.09</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4.2</v>
       </c>
       <c r="F3">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.41</v>
-      </c>
-      <c r="N3">
+        <v>0.38</v>
+      </c>
+      <c r="L3">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>397</v>
-      </c>
-      <c r="O3">
-        <f ca="1">N3+RANDBETWEEN(-10,10)</f>
-        <v>394</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+        <v>276</v>
+      </c>
+      <c r="M3">
+        <f ca="1">L3+RANDBETWEEN(-10,10)</f>
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D4" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E4">
-        <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>3.1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.09</v>
       </c>
       <c r="F4">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.49</v>
-      </c>
-      <c r="P4">
+        <v>0.83</v>
+      </c>
+      <c r="N4">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>79</v>
-      </c>
-      <c r="Q4">
-        <f ca="1">P4+RANDBETWEEN(-50,50)</f>
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+      <c r="O4">
+        <f ca="1">N4+RANDBETWEEN(-50,50)</f>
+        <v>429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B5">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D5" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E5">
-        <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>3.1</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F5">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.32</v>
-      </c>
-      <c r="L5">
+        <v>0.89</v>
+      </c>
+      <c r="J5">
         <f ca="1">RANDBETWEEN(0,600)/1000</f>
-        <v>2.3E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.221</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B6">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D6" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E6">
-        <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>0.46</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.88</v>
       </c>
       <c r="F6">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.85</v>
-      </c>
-      <c r="M6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K6">
         <f ca="1">RANDBETWEEN(0,100)/500</f>
-        <v>0.19800000000000001</v>
+        <v>0.184</v>
+      </c>
+      <c r="L6">
+        <f ca="1">RANDBETWEEN(30,100)+N6</f>
+        <v>172</v>
       </c>
       <c r="N6">
-        <f ca="1">RANDBETWEEN(30,100)+P6</f>
-        <v>143</v>
-      </c>
-      <c r="P6">
         <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D7" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E7">
-        <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>3.57</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5.85</v>
       </c>
       <c r="H7">
         <f ca="1">EXP(LN(E7)-2)</f>
-        <v>0.48314696115470723</v>
+        <v>0.79171140693418418</v>
       </c>
       <c r="I7">
         <f ca="1">EXP(LN(E7)+2)</f>
-        <v>26.378930273182423</v>
-      </c>
-      <c r="N7">
+        <v>43.225978178744299</v>
+      </c>
+      <c r="L7">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>361</v>
-      </c>
-      <c r="O7">
-        <f ca="1">N7+RANDBETWEEN(-10,10)</f>
-        <v>363</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+      <c r="M7">
+        <f ca="1">L7+RANDBETWEEN(-10,10)</f>
+        <v>473</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D8" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E8">
-        <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>1.4</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.34</v>
       </c>
       <c r="H8">
         <f ca="1">EXP(LN(E8)-2)</f>
-        <v>0.18946939653125777</v>
+        <v>0.18134927953706101</v>
       </c>
       <c r="I8">
         <f ca="1">EXP(LN(E8)+2)</f>
-        <v>10.34467853850291</v>
-      </c>
-      <c r="P8">
+        <v>9.9013351725670731</v>
+      </c>
+      <c r="N8">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>99</v>
-      </c>
-      <c r="Q8">
-        <f ca="1">P8+RANDBETWEEN(-50,50)</f>
-        <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+      <c r="O8">
+        <f ca="1">N8+RANDBETWEEN(-50,50)</f>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B9">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D9" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E9">
-        <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>5.9</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
       </c>
       <c r="H9">
         <f ca="1">EXP(LN(E9)-2)</f>
-        <v>0.79847817109601493</v>
+        <v>0.6766764161830634</v>
       </c>
       <c r="I9">
         <f ca="1">EXP(LN(E9)+2)</f>
-        <v>43.595430983690839</v>
-      </c>
-      <c r="L9">
+        <v>36.945280494653254</v>
+      </c>
+      <c r="J9">
         <f ca="1">RANDBETWEEN(0,600)/1000</f>
-        <v>0.105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B10">
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D10" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E10">
-        <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>4.7300000000000004</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H10">
         <f ca="1">EXP(LN(E10)-2)</f>
-        <v>0.64013588970917812</v>
+        <v>0.69020994450672468</v>
       </c>
       <c r="I10">
         <f ca="1">EXP(LN(E10)+2)</f>
-        <v>34.950235347941977</v>
-      </c>
-      <c r="M10">
+        <v>37.68418610454632</v>
+      </c>
+      <c r="K10">
         <f ca="1">RANDBETWEEN(0,100)/500</f>
-        <v>0.156</v>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="L10">
+        <f ca="1">RANDBETWEEN(30,100)+N10</f>
+        <v>134</v>
       </c>
       <c r="N10">
-        <f ca="1">RANDBETWEEN(30,100)+P10</f>
-        <v>120</v>
-      </c>
-      <c r="P10">
         <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D11" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E11">
-        <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>3.44</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2</v>
       </c>
       <c r="G11">
         <f ca="1">E11*F3/10</f>
-        <v>0.14104</v>
-      </c>
-      <c r="N11">
+        <v>4.5599999999999995E-2</v>
+      </c>
+      <c r="L11">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>370</v>
-      </c>
-      <c r="O11">
-        <f ca="1">N11+RANDBETWEEN(-10,10)</f>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+      <c r="M11">
+        <f ca="1">L11+RANDBETWEEN(-10,10)</f>
+        <v>484</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B12">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D12" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E12">
-        <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>1.78</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.56000000000000005</v>
       </c>
       <c r="G12">
         <f ca="1">E12*F4/10</f>
-        <v>8.7219999999999992E-2</v>
-      </c>
-      <c r="P12">
+        <v>4.6480000000000007E-2</v>
+      </c>
+      <c r="N12">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>125</v>
-      </c>
-      <c r="Q12">
-        <f ca="1">P12+RANDBETWEEN(-50,50)</f>
-        <v>156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+        <v>164</v>
+      </c>
+      <c r="O12">
+        <f ca="1">N12+RANDBETWEEN(-50,50)</f>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B13">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D13" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E13">
-        <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>5.04</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>1.57</v>
       </c>
       <c r="G13">
         <f ca="1">E13*F5/10</f>
-        <v>0.16128000000000001</v>
-      </c>
-      <c r="L13">
+        <v>0.13972999999999999</v>
+      </c>
+      <c r="J13">
         <f ca="1">RANDBETWEEN(0,600)/1000</f>
-        <v>0.35199999999999998</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B14">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D14" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E14">
-        <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>3.28</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>2.64</v>
       </c>
       <c r="G14">
         <f ca="1">E14*F6/10</f>
-        <v>0.27879999999999999</v>
-      </c>
-      <c r="M14">
+        <v>1.8480000000000003E-2</v>
+      </c>
+      <c r="K14">
         <f ca="1">RANDBETWEEN(0,100)/500</f>
-        <v>0.15</v>
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="L14">
+        <f ca="1">RANDBETWEEN(30,100)+N14</f>
+        <v>174</v>
       </c>
       <c r="N14">
-        <f ca="1">RANDBETWEEN(30,100)+P14</f>
-        <v>170</v>
-      </c>
-      <c r="P14">
         <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q14">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O14">
     <sortCondition ref="A2:A14"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2770,10 +2757,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5176A4-45E4-4D15-9483-1C1D485944B9}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2781,7 +2768,7 @@
     <col min="3" max="4" width="23.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -2789,13 +2776,13 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E1" t="s">
-        <v>165</v>
+        <v>229</v>
       </c>
       <c r="F1" t="s">
         <v>29</v>
@@ -2804,39 +2791,33 @@
         <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>166</v>
+        <v>230</v>
       </c>
       <c r="I1" t="s">
-        <v>167</v>
+        <v>231</v>
       </c>
       <c r="J1" t="s">
-        <v>168</v>
+        <v>18</v>
       </c>
       <c r="K1" t="s">
-        <v>169</v>
+        <v>19</v>
       </c>
       <c r="L1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M1" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="N1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>170</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2845,28 +2826,28 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E10" ca="1" si="0">RANDBETWEEN(0,600)/100</f>
-        <v>3.26</v>
+        <v>2.29</v>
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="N2">
+        <v>0.9</v>
+      </c>
+      <c r="L2">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>177</v>
-      </c>
-      <c r="O2">
-        <f ca="1">N2+RANDBETWEEN(-10,10)</f>
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+      <c r="M2">
+        <f ca="1">L2+RANDBETWEEN(-10,10)</f>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2875,28 +2856,28 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8099999999999996</v>
+        <v>3.77</v>
       </c>
       <c r="G3">
         <f ca="1">E3*F2/10</f>
-        <v>6.7339999999999997E-2</v>
-      </c>
-      <c r="N3">
-        <f t="shared" ref="N3:N4" ca="1" si="1">RANDBETWEEN(30,500)</f>
-        <v>35</v>
-      </c>
-      <c r="O3">
-        <f t="shared" ref="O3:O4" ca="1" si="2">N3+RANDBETWEEN(-10,10)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.33930000000000005</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L4" ca="1" si="1">RANDBETWEEN(30,500)</f>
+        <v>464</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M4" ca="1" si="2">L3+RANDBETWEEN(-10,10)</f>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -2905,32 +2886,32 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="H4">
         <f ca="1">EXP(LN(E4)-2)</f>
-        <v>0.32480467976787042</v>
+        <v>0.54946124994064749</v>
       </c>
       <c r="I4">
         <f ca="1">EXP(LN(E4)+2)</f>
-        <v>17.73373463743356</v>
-      </c>
-      <c r="N4">
+        <v>29.999567761658437</v>
+      </c>
+      <c r="L4">
         <f t="shared" ca="1" si="1"/>
-        <v>402</v>
-      </c>
-      <c r="O4">
+        <v>102</v>
+      </c>
+      <c r="M4">
         <f t="shared" ca="1" si="2"/>
-        <v>407</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2939,28 +2920,28 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="F5">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.74</v>
-      </c>
-      <c r="P5">
-        <f t="shared" ref="P5:P7" ca="1" si="3">RANDBETWEEN(30,500)</f>
-        <v>254</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" ref="Q5:Q7" ca="1" si="4">P5+RANDBETWEEN(-50,50)</f>
-        <v>265</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.41</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:N7" ca="1" si="3">RANDBETWEEN(30,500)</f>
+        <v>80</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:O7" ca="1" si="4">N5+RANDBETWEEN(-50,50)</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2969,28 +2950,28 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36</v>
+        <v>3.9</v>
       </c>
       <c r="G6">
         <f ca="1">E6*F5/10</f>
-        <v>2.6639999999999997E-2</v>
-      </c>
-      <c r="P6">
+        <v>0.15989999999999999</v>
+      </c>
+      <c r="N6">
         <f t="shared" ca="1" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="Q6">
+        <v>133</v>
+      </c>
+      <c r="O6">
         <f t="shared" ca="1" si="4"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2999,32 +2980,32 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.12</v>
+        <v>0.9</v>
       </c>
       <c r="H7">
         <f ca="1">EXP(LN(E7)-2)</f>
-        <v>0.69291665017145687</v>
+        <v>0.12180175491295142</v>
       </c>
       <c r="I7">
         <f ca="1">EXP(LN(E7)+2)</f>
-        <v>37.831967226524924</v>
-      </c>
-      <c r="P7">
+        <v>6.6501504890375847</v>
+      </c>
+      <c r="N7">
         <f t="shared" ca="1" si="3"/>
-        <v>318</v>
-      </c>
-      <c r="Q7">
+        <v>219</v>
+      </c>
+      <c r="O7">
         <f t="shared" ca="1" si="4"/>
-        <v>340</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -3033,24 +3014,24 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>2.58</v>
+        <v>0.68</v>
       </c>
       <c r="F8">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.36</v>
-      </c>
-      <c r="L8">
-        <f t="shared" ref="L8:L10" ca="1" si="5">RANDBETWEEN(0,600)/1000</f>
-        <v>0.57399999999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.65</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ref="J8:J10" ca="1" si="5">RANDBETWEEN(0,600)/1000</f>
+        <v>0.50700000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -3059,24 +3040,24 @@
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48</v>
+        <v>3.07</v>
       </c>
       <c r="G9">
         <f ca="1">E9*F8/10</f>
-        <v>1.7279999999999997E-2</v>
-      </c>
-      <c r="L9">
+        <v>0.19955000000000001</v>
+      </c>
+      <c r="J9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.35599999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+        <v>0.29499999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -3085,23 +3066,23 @@
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>2.38</v>
+        <v>5.45</v>
       </c>
       <c r="H10">
         <f ca="1">EXP(LN(E10)-2)</f>
-        <v>0.32209797410313817</v>
+        <v>0.73757729363953928</v>
       </c>
       <c r="I10">
         <f ca="1">EXP(LN(E10)+2)</f>
-        <v>17.585953515454946</v>
-      </c>
-      <c r="L10">
+        <v>40.270355739172054</v>
+      </c>
+      <c r="J10">
         <f t="shared" ca="1" si="5"/>
-        <v>0.374</v>
+        <v>0.56899999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -3133,28 +3114,28 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="F1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="G1" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="H1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="I1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="J1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="K1" t="s">
         <v>23</v>
@@ -3165,92 +3146,92 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D2" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>356</v>
+        <v>60</v>
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>97</v>
+        <v>304</v>
       </c>
       <c r="G2">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>418</v>
+        <v>161</v>
       </c>
       <c r="H2">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>106</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D3" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="E3">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="F3">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>118</v>
+        <v>458</v>
       </c>
       <c r="K3">
         <f ca="1">RANDBETWEEN(30,500)+E3</f>
-        <v>194</v>
+        <v>524</v>
       </c>
       <c r="L3">
         <f ca="1">RANDBETWEEN(30,500)+F3</f>
-        <v>604</v>
+        <v>896</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D4" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="I4">
         <f t="shared" ref="I4:J4" ca="1" si="0">RANDBETWEEN(0,600)/1000</f>
-        <v>0.47399999999999998</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="K4">
         <f ca="1">RANDBETWEEN(30,500)+E4</f>
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="L4">
         <f ca="1">RANDBETWEEN(30,500)+F4</f>
-        <v>427</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -3279,10 +3260,10 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E1" t="s">
         <v>21</v>
@@ -3311,26 +3292,26 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D2" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2" ca="1" si="0">RANDBETWEEN(0,600)/1000</f>
-        <v>0.30299999999999999</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="H2">
         <f ca="1">ROUND((I2+J2)*1.37, 0)</f>
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="I2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="J2">
         <f ca="1">I2+RANDBETWEEN(-10,10)</f>
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3341,26 +3322,26 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D3" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="F3">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H4" ca="1" si="1">ROUND((I3+J3)*1.37, 0)</f>
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="I3">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="J3">
         <f ca="1">I3+RANDBETWEEN(-10,10)</f>
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3371,26 +3352,26 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D4" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="G4">
         <f ca="1">RANDBETWEEN(0,600)/1000000</f>
-        <v>1.16E-4</v>
+        <v>4.37E-4</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="1"/>
-        <v>144</v>
+        <v>229</v>
       </c>
       <c r="I4">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="J4">
         <f ca="1">I4+RANDBETWEEN(-10,10)</f>
-        <v>50</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3423,10 +3404,10 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E1" t="s">
         <v>46</v>
@@ -3441,34 +3422,34 @@
         <v>49</v>
       </c>
       <c r="I1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="J1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D2" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="G2">
         <f ca="1">LN(RANDBETWEEN(0,600)/100)</f>
-        <v>0.10436001532424286</v>
+        <v>1.7900914121273581</v>
       </c>
       <c r="H2">
         <f ca="1">(J3-I3)/4</f>
@@ -3477,34 +3458,34 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D3" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="G3">
         <f ca="1">LN(RANDBETWEEN(0,600)/100)</f>
-        <v>1.62924053973028</v>
+        <v>1.1019400787607843</v>
       </c>
       <c r="I3">
         <f ca="1">G3-1.27</f>
-        <v>0.35924053973028003</v>
+        <v>-0.16805992123921576</v>
       </c>
       <c r="J3">
         <f ca="1">G3+1.27</f>
-        <v>2.8992405397302798</v>
+        <v>2.3719400787607841</v>
       </c>
     </row>
   </sheetData>
@@ -3541,10 +3522,10 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E1" t="s">
         <v>60</v>
@@ -3591,10 +3572,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E2" t="s">
         <v>63</v>
@@ -3623,10 +3604,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E3" t="s">
         <v>65</v>
@@ -3655,10 +3636,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D4" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E4">
         <v>50</v>
@@ -3714,10 +3695,10 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E1" t="s">
         <v>46</v>
@@ -3732,34 +3713,34 @@
         <v>52</v>
       </c>
       <c r="I1" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="J1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D2" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="G2">
         <f ca="1">LN(RANDBETWEEN(0,600)/100)</f>
-        <v>-0.30110509278392161</v>
+        <v>-1.7147984280919266</v>
       </c>
       <c r="H2">
         <f ca="1">(J3-I3)/4</f>
@@ -3768,34 +3749,34 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D3" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="G3">
         <f ca="1">LN(RANDBETWEEN(0,600)/100)</f>
-        <v>-1.5141277326297755</v>
+        <v>1.4350845252893227</v>
       </c>
       <c r="I3">
         <f ca="1">G3-1.27</f>
-        <v>-2.7841277326297753</v>
+        <v>0.16508452528932271</v>
       </c>
       <c r="J3">
         <f ca="1">G3+1.27</f>
-        <v>-0.2441277326297755</v>
+        <v>2.7050845252893225</v>
       </c>
     </row>
   </sheetData>
@@ -3824,10 +3805,10 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E1" t="s">
         <v>31</v>
@@ -3862,18 +3843,18 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D2" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(1,1000)/1000</f>
-        <v>0.95499999999999996</v>
+        <v>0.249</v>
       </c>
       <c r="L2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -3884,18 +3865,18 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D3" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="F3">
         <f ca="1">RANDBETWEEN(1,1000)/1000</f>
-        <v>0.36199999999999999</v>
+        <v>0.23400000000000001</v>
       </c>
       <c r="L3">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -3906,22 +3887,22 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="E4">
         <f ca="1">RANDBETWEEN(1,1000)/1000</f>
-        <v>0.16</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="J4">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>91</v>
+        <v>39</v>
       </c>
       <c r="K4">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>10</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -3932,22 +3913,22 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D5" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="F5">
         <f ca="1">RANDBETWEEN(1,1000)/1000</f>
-        <v>0.39900000000000002</v>
+        <v>0.63700000000000001</v>
       </c>
       <c r="J5">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="K5">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -3958,28 +3939,28 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D6" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="E6">
         <f ca="1">RANDBETWEEN(1,1000)/1000</f>
-        <v>0.193</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="G6">
         <f ca="1">RANDBETWEEN(1,1000)/1000</f>
-        <v>0.33800000000000002</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="L6">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -3990,28 +3971,28 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D7" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="F7">
         <f ca="1">RANDBETWEEN(1,1000)/1000</f>
-        <v>0.60399999999999998</v>
+        <v>0.192</v>
       </c>
       <c r="G7">
         <f ca="1">RANDBETWEEN(1,1000)/1000</f>
-        <v>0.70499999999999996</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="H7">
         <v>0.54</v>
       </c>
       <c r="I7" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="L7">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>100</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -4024,7 +4005,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4041,36 +4022,36 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E1" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="F1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="G1" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="H1" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D2" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
       <c r="E2">
         <v>121</v>
@@ -4111,10 +4092,10 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E1" t="s">
         <v>33</v>
@@ -4140,10 +4121,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E2">
         <v>0.42299999999999999</v>
@@ -4153,11 +4134,11 @@
       </c>
       <c r="H2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="I2">
         <f ca="1">H2+RANDBETWEEN(-10,10)</f>
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -4168,10 +4149,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="F3">
         <v>87.25</v>
@@ -4181,11 +4162,11 @@
       </c>
       <c r="H3">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="I3">
         <f ca="1">H3+RANDBETWEEN(-10,10)</f>
-        <v>37</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4197,7 +4178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63891796-E71C-438D-B64D-D0F284B6778F}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -4221,10 +4202,10 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E1" t="s">
         <v>60</v>
@@ -4271,10 +4252,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D2" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="G2" t="s">
         <v>59</v>
@@ -4297,10 +4278,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D3" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="E3" t="s">
         <v>63</v>
@@ -4329,10 +4310,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D4" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="I4" t="s">
         <v>67</v>
@@ -4355,10 +4336,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D5" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="E5" t="s">
         <v>65</v>
@@ -4387,10 +4368,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D6" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="K6">
         <v>45</v>
@@ -4419,10 +4400,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D7" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="E7">
         <v>50</v>
@@ -4482,10 +4463,10 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E1" t="s">
         <v>76</v>
@@ -4532,10 +4513,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E2" t="s">
         <v>63</v>
@@ -4564,10 +4545,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E3" t="s">
         <v>65</v>
@@ -4596,10 +4577,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D4" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E4">
         <v>50</v>
@@ -4654,10 +4635,10 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -4695,22 +4676,22 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>6</v>
+        <v>5.59</v>
       </c>
       <c r="L2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="M2">
         <f ca="1">L2+RANDBETWEEN(-10,30)</f>
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -4721,22 +4702,22 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="F3">
         <f ca="1">RANDBETWEEN(0,1000)/10000</f>
-        <v>9.2999999999999999E-2</v>
+        <v>3.2899999999999999E-2</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L8" ca="1" si="0">RANDBETWEEN(10,100)</f>
-        <v>89</v>
+        <v>14</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M8" ca="1" si="1">L3+RANDBETWEEN(-10,30)</f>
-        <v>97</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -4747,22 +4728,22 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D4" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="G4">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>0.61</v>
+        <v>4.55</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -4773,22 +4754,22 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D5" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="H5">
         <f ca="1">RANDBETWEEN(0,1000)/100000</f>
-        <v>9.8600000000000007E-3</v>
+        <v>9.2499999999999995E-3</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -4799,22 +4780,22 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D6" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="I6">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>0.36</v>
+        <v>2.59</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="1"/>
-        <v>39</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -4825,22 +4806,22 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D7" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="J7">
         <f ca="1">RANDBETWEEN(0,1000)/1000</f>
-        <v>0.59099999999999997</v>
+        <v>0.89</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="1"/>
-        <v>112</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -4851,22 +4832,22 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D8" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="K8">
         <f ca="1">RANDBETWEEN(0,1000)/1000</f>
-        <v>0.63800000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="1"/>
-        <v>112</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -4897,10 +4878,10 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E1" t="s">
         <v>102</v>
@@ -4915,28 +4896,28 @@
         <v>105</v>
       </c>
       <c r="I1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="J1" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="K1" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="L1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="M1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="N1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="O1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="P1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="Q1" t="s">
         <v>23</v>
@@ -4947,170 +4928,170 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:F4" ca="1" si="0">RANDBETWEEN(-500,500)/100</f>
-        <v>0.42</v>
+        <v>0.45</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.28</v>
+        <v>0.36</v>
       </c>
       <c r="G2">
         <f ca="1">RANDBETWEEN(100,300)/100</f>
-        <v>1.68</v>
+        <v>1.84</v>
       </c>
       <c r="H2">
         <f ca="1">RANDBETWEEN(100,300)/100</f>
-        <v>1.89</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="Q2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="R2">
         <f ca="1">Q2+RANDBETWEEN(-10,30)</f>
-        <v>39</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.69</v>
+        <v>-0.03</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.17</v>
+        <v>3.65</v>
       </c>
       <c r="I3">
         <f ca="1">RANDBETWEEN(100,300)/100</f>
-        <v>2.14</v>
+        <v>2.5</v>
       </c>
       <c r="J3">
         <f ca="1">RANDBETWEEN(100,300)/100</f>
-        <v>2.37</v>
+        <v>1.4</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q5" ca="1" si="1">RANDBETWEEN(10,100)</f>
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="R3">
         <f t="shared" ref="R3:R5" ca="1" si="2">Q3+RANDBETWEEN(-10,30)</f>
-        <v>33</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D4" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.42</v>
+        <v>0.11</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.35</v>
+        <v>2.76</v>
       </c>
       <c r="K4">
         <f ca="1">E4-2.5</f>
-        <v>-5.92</v>
+        <v>-2.39</v>
       </c>
       <c r="L4">
         <f ca="1">E4+2.5</f>
-        <v>-0.91999999999999993</v>
+        <v>2.61</v>
       </c>
       <c r="M4">
         <f ca="1">F4-2.5</f>
-        <v>-3.85</v>
+        <v>0.25999999999999979</v>
       </c>
       <c r="N4">
         <f ca="1">F4+2.5</f>
-        <v>1.1499999999999999</v>
+        <v>5.26</v>
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="R4">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D5" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E5">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>-3.88</v>
+        <v>0.46</v>
       </c>
       <c r="F5">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>-1.06</v>
+        <v>1.58</v>
       </c>
       <c r="G5">
         <f ca="1">RANDBETWEEN(100,300)/100</f>
-        <v>1.25</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H5">
         <f ca="1">RANDBETWEEN(100,300)/100</f>
-        <v>1.59</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="O5">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.11</v>
+        <v>0.21</v>
       </c>
       <c r="P5">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.95</v>
+        <v>0.42</v>
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -5151,10 +5132,10 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E1" t="s">
         <v>89</v>
@@ -5231,54 +5212,54 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E2">
         <f ca="1">F2-RANDBETWEEN(-100,100)/10</f>
-        <v>92.9</v>
+        <v>99.2</v>
       </c>
       <c r="F2">
         <v>101.2</v>
       </c>
       <c r="G2">
         <f ca="1">H2-RANDBETWEEN(-100,100)/10</f>
-        <v>93.600000000000009</v>
+        <v>94.4</v>
       </c>
       <c r="H2">
         <v>98.9</v>
       </c>
       <c r="I2">
         <f ca="1">J2-RANDBETWEEN(-100,100)/100</f>
-        <v>16.559999999999999</v>
+        <v>16.2</v>
       </c>
       <c r="J2">
         <v>15.87</v>
       </c>
       <c r="K2">
         <f ca="1">L2-RANDBETWEEN(-100,100)/100</f>
-        <v>13.459999999999999</v>
+        <v>13.79</v>
       </c>
       <c r="L2">
         <v>13.87</v>
       </c>
       <c r="W2">
         <f ca="1">RANDBETWEEN(0,1000)/1000</f>
-        <v>1.4999999999999999E-2</v>
+        <v>0.317</v>
       </c>
       <c r="X2">
         <f ca="1">W2+RANDBETWEEN(-100,100)/1000</f>
-        <v>-0.06</v>
+        <v>0.28799999999999998</v>
       </c>
       <c r="Y2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="Z2">
         <f ca="1">Y2+RANDBETWEEN(-10,30)</f>
-        <v>64</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
@@ -5289,54 +5270,54 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E3">
         <f ca="1">F3-RANDBETWEEN(-100,100)/100</f>
-        <v>6.16</v>
+        <v>5.37</v>
       </c>
       <c r="F3">
         <v>5.94</v>
       </c>
       <c r="G3">
         <f ca="1">H3-RANDBETWEEN(-100,100)/100</f>
-        <v>5.4099999999999993</v>
+        <v>5.14</v>
       </c>
       <c r="H3">
         <v>5.81</v>
       </c>
       <c r="M3">
         <f ca="1">N3-RANDBETWEEN(-100,100)/1000</f>
-        <v>7.8000000000000014E-2</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="N3">
         <v>0.13</v>
       </c>
       <c r="O3">
         <f ca="1">P3-RANDBETWEEN(-100,100)/1000</f>
-        <v>7.5000000000000011E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="P3">
         <v>0.13</v>
       </c>
       <c r="W3">
         <f t="shared" ref="W3:W4" ca="1" si="0">RANDBETWEEN(0,1000)/1000</f>
-        <v>0.40200000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="X3">
         <f t="shared" ref="X3:X4" ca="1" si="1">W3+RANDBETWEEN(-100,100)/1000</f>
-        <v>0.373</v>
+        <v>0.34700000000000003</v>
       </c>
       <c r="Y3">
         <f t="shared" ref="Y3:Y4" ca="1" si="2">RANDBETWEEN(10,100)</f>
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="Z3">
         <f t="shared" ref="Z3:Z4" ca="1" si="3">Y3+RANDBETWEEN(-10,30)</f>
-        <v>36</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
@@ -5347,32 +5328,32 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D4" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E4">
         <f ca="1">F4-RANDBETWEEN(-100,100)/10</f>
-        <v>43</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="F4">
         <v>50</v>
       </c>
       <c r="G4">
         <f ca="1">H4-RANDBETWEEN(-100,100)/10</f>
-        <v>63.7</v>
+        <v>55.8</v>
       </c>
       <c r="H4">
         <v>60</v>
       </c>
       <c r="Q4">
         <f ca="1">E4-5</f>
-        <v>38</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="R4">
         <f ca="1">E4+5</f>
-        <v>48</v>
+        <v>45.7</v>
       </c>
       <c r="S4">
         <v>45</v>
@@ -5388,15 +5369,15 @@
       </c>
       <c r="W4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23699999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="X4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28899999999999998</v>
+        <v>0.161</v>
       </c>
       <c r="Y4">
         <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z4">
         <f t="shared" ca="1" si="3"/>
@@ -5430,34 +5411,34 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E1" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F1" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="G1" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="H1" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="I1" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="J1" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="K1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="L1" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="M1" t="s">
         <v>106</v>
@@ -5480,34 +5461,34 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>3.55</v>
+        <v>0.51</v>
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>0.81</v>
+        <v>3.92</v>
       </c>
       <c r="M2">
         <f ca="1">RANDBETWEEN(0,1000)/1000</f>
-        <v>0.22800000000000001</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="N2">
         <f ca="1">M2+RANDBETWEEN(-100,100)/1000</f>
-        <v>0.27100000000000002</v>
+        <v>0.72</v>
       </c>
       <c r="O2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="P2">
         <f ca="1">O2+RANDBETWEEN(-10,30)</f>
-        <v>92</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -5518,34 +5499,34 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="G3">
         <f ca="1">RANDBETWEEN(0,1000)/10000</f>
-        <v>6.1100000000000002E-2</v>
+        <v>7.4200000000000002E-2</v>
       </c>
       <c r="H3">
         <f ca="1">RANDBETWEEN(0,1000)/10000</f>
-        <v>7.1300000000000002E-2</v>
+        <v>1.1599999999999999E-2</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M5" ca="1" si="0">RANDBETWEEN(0,1000)/1000</f>
-        <v>0.47699999999999998</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N5" ca="1" si="1">M3+RANDBETWEEN(-100,100)/1000</f>
-        <v>0.38</v>
+        <v>0.39899999999999997</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O5" ca="1" si="2">RANDBETWEEN(10,100)</f>
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P5" ca="1" si="3">O3+RANDBETWEEN(-10,30)</f>
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -5556,34 +5537,34 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D4" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="I4">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>5.53</v>
+        <v>4.74</v>
       </c>
       <c r="J4">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>3.86</v>
+        <v>4.38</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52700000000000002</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44700000000000001</v>
+        <v>0.86799999999999999</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="2"/>
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -5594,34 +5575,34 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D5" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="K5">
         <f ca="1">RANDBETWEEN(0,1000)/100000</f>
-        <v>6.8100000000000001E-3</v>
+        <v>6.45E-3</v>
       </c>
       <c r="L5">
         <f ca="1">RANDBETWEEN(0,1000)/100000</f>
-        <v>2.9299999999999999E-3</v>
+        <v>6.9800000000000001E-3</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83399999999999996</v>
+        <v>0.192</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80899999999999994</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="P5">
         <f t="shared" ca="1" si="3"/>
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -5650,10 +5631,10 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
@@ -5685,26 +5666,26 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>2.2400000000000002</v>
+        <v>-1.97</v>
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(100,300)/100</f>
-        <v>2.87</v>
+        <v>2.12</v>
       </c>
       <c r="J2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="K2">
         <f ca="1">J2+RANDBETWEEN(-10,30)</f>
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -5715,26 +5696,26 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E3">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>-4.47</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="G3">
         <f ca="1">RANDBETWEEN(100,300)/100/5</f>
-        <v>0.42599999999999999</v>
+        <v>0.33199999999999996</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J4" ca="1" si="0">RANDBETWEEN(10,100)</f>
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K4" ca="1" si="1">J3+RANDBETWEEN(-10,30)</f>
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -5745,30 +5726,30 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D4" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E4">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>-4.0199999999999996</v>
+        <v>-3.09</v>
       </c>
       <c r="H4">
         <f ca="1">E4-0.5</f>
-        <v>-4.5199999999999996</v>
+        <v>-3.59</v>
       </c>
       <c r="I4">
         <f ca="1">E4+0.5</f>
-        <v>-3.5199999999999996</v>
+        <v>-2.59</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="1"/>
-        <v>117</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -5797,10 +5778,10 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="E1" t="s">
         <v>39</v>
@@ -5812,10 +5793,10 @@
         <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="I1" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="J1" t="s">
         <v>129</v>
@@ -5838,18 +5819,18 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>4.2300000000000004</v>
+        <v>3.24</v>
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(100,300)/100</f>
-        <v>1.1399999999999999</v>
+        <v>1.46</v>
       </c>
       <c r="J2">
         <f>0.3</f>
@@ -5860,11 +5841,11 @@
       </c>
       <c r="L2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="M2">
         <f ca="1">L2+RANDBETWEEN(-20,30)</f>
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -5875,18 +5856,18 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E3">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>-1.68</v>
+        <v>-0.73</v>
       </c>
       <c r="G3">
         <f ca="1">RANDBETWEEN(100,300)/100/5</f>
-        <v>0.46600000000000003</v>
+        <v>0.2</v>
       </c>
       <c r="J3">
         <f>0.07</f>
@@ -5897,11 +5878,11 @@
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L4" ca="1" si="0">RANDBETWEEN(10,100)</f>
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M4" ca="1" si="1">L3+RANDBETWEEN(-20,30)</f>
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -5912,22 +5893,22 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D4" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E4">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>2.93</v>
+        <v>3.77</v>
       </c>
       <c r="H4">
         <f ca="1">E4-0.5</f>
-        <v>2.4300000000000002</v>
+        <v>3.27</v>
       </c>
       <c r="I4">
         <f ca="1">E4+0.5</f>
-        <v>3.43</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="J4">
         <f>0.22</f>
@@ -5938,11 +5919,11 @@
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="1"/>
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/tables/list_datasets.xlsx
+++ b/tables/list_datasets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Corentin Gosling\drive_gmail\Recherche\metaConvert\web\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDC876A-4F78-46CF-86A6-6C7EDE936738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02E8660-FDA4-4FB3-AD4C-69F769665819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="12" activeTab="15" xr2:uid="{3A80436A-EBC8-4660-8C38-C3E7D350F51B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="4" activeTab="11" xr2:uid="{3A80436A-EBC8-4660-8C38-C3E7D350F51B}"/>
   </bookViews>
   <sheets>
     <sheet name="cohen_d" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="238">
   <si>
     <t>cohen_d</t>
   </si>
@@ -295,18 +295,6 @@
     <t>plot_mean_nexp</t>
   </si>
   <si>
-    <t>plot_mean_sd_exp</t>
-  </si>
-  <si>
-    <t>plot_mean_sd_nexp</t>
-  </si>
-  <si>
-    <t>plot_mean_se_exp</t>
-  </si>
-  <si>
-    <t>plot_mean_se_nexp</t>
-  </si>
-  <si>
     <t>plot_mean_ci_lo_exp</t>
   </si>
   <si>
@@ -490,12 +478,6 @@
     <t>ancova_ancova_mean_sd_pooled_adj</t>
   </si>
   <si>
-    <t xml:space="preserve">ancova_plot_ancova_mean_sd_pooled_crude	</t>
-  </si>
-  <si>
-    <t>ancova_plot_ancova_mean_sd_pooled_adj</t>
-  </si>
-  <si>
     <t>ancova_means_plot</t>
   </si>
   <si>
@@ -505,18 +487,6 @@
     <t>ancova_plot_mean_nexp</t>
   </si>
   <si>
-    <t>ancova_plot_mean_sd_exp</t>
-  </si>
-  <si>
-    <t>ancova_plot_mean_sd_nexp</t>
-  </si>
-  <si>
-    <t>ancova_plot_mean_se_exp</t>
-  </si>
-  <si>
-    <t>ancova_plot_mean_se_nexp</t>
-  </si>
-  <si>
     <t>ancova_plot_mean_ci_lo_exp</t>
   </si>
   <si>
@@ -755,6 +725,54 @@
   </si>
   <si>
     <t>(log)rr_ci_up</t>
+  </si>
+  <si>
+    <t>plot_mean_sd_lo_exp</t>
+  </si>
+  <si>
+    <t>plot_mean_sd_up_nexp</t>
+  </si>
+  <si>
+    <t>plot_mean_sd_up_exp</t>
+  </si>
+  <si>
+    <t>plot_mean_sd_lo_nexp</t>
+  </si>
+  <si>
+    <t>plot_mean_se_lo_exp</t>
+  </si>
+  <si>
+    <t>plot_mean_se_up_nexp</t>
+  </si>
+  <si>
+    <t>plot_mean_se_up_exp</t>
+  </si>
+  <si>
+    <t>plot_mean_se_lo_nexp</t>
+  </si>
+  <si>
+    <t>ancova_plot_mean_sd_lo_exp</t>
+  </si>
+  <si>
+    <t>ancova_plot_mean_sd_up_exp</t>
+  </si>
+  <si>
+    <t>ancova_plot_mean_sd_lo_nexp</t>
+  </si>
+  <si>
+    <t>ancova_plot_mean_sd_up_nexp</t>
+  </si>
+  <si>
+    <t>ancova_plot_mean_se_lo_exp</t>
+  </si>
+  <si>
+    <t>ancova_plot_mean_se_up_exp</t>
+  </si>
+  <si>
+    <t>ancova_plot_mean_se_lo_nexp</t>
+  </si>
+  <si>
+    <t>ancova_plot_mean_se_up_nexp</t>
   </si>
 </sst>
 </file>
@@ -1128,10 +1146,10 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -1154,10 +1172,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E2">
         <v>0.43</v>
@@ -1177,10 +1195,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F3">
         <v>0.87</v>
@@ -1220,40 +1238,40 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I1" t="s">
+        <v>110</v>
+      </c>
+      <c r="J1" t="s">
         <v>111</v>
       </c>
-      <c r="F1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>112</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>113</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>114</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>115</v>
-      </c>
-      <c r="K1" t="s">
-        <v>116</v>
-      </c>
-      <c r="L1" t="s">
-        <v>117</v>
-      </c>
-      <c r="M1" t="s">
-        <v>118</v>
-      </c>
-      <c r="N1" t="s">
-        <v>119</v>
       </c>
       <c r="O1" t="s">
         <v>23</v>
@@ -1264,124 +1282,124 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D2" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(10,20)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(10,20)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <f ca="1">E2+RANDBETWEEN(10,20)</f>
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H2">
         <f ca="1">F2+RANDBETWEEN(10,20)</f>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2:N2" ca="1" si="0">G2+G2-E2</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="O2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="P2">
         <f ca="1">O2+RANDBETWEEN(-10,10)</f>
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D3" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="G3">
         <f ca="1">E3+RANDBETWEEN(10,20)</f>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H3">
         <f ca="1">F3+RANDBETWEEN(10,20)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3" ca="1" si="1">G3+G3-E3</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3" ca="1" si="2">H3+H3-F3</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="K3">
         <f ca="1">I3+I3-G3</f>
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="L3">
         <f ca="1">J3+J3-H3</f>
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O4" ca="1" si="3">RANDBETWEEN(10,100)</f>
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P4" ca="1" si="4">O3+RANDBETWEEN(-10,10)</f>
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D4" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="E4">
         <f ca="1">RANDBETWEEN(10,20)</f>
@@ -1389,7 +1407,7 @@
       </c>
       <c r="F4">
         <f ca="1">RANDBETWEEN(10,20)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I4">
         <f ca="1">E4+24</f>
@@ -1397,7 +1415,7 @@
       </c>
       <c r="J4">
         <f ca="1">F4+26</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M4">
         <f ca="1">I4+K4-E4+I4</f>
@@ -1405,15 +1423,15 @@
       </c>
       <c r="N4">
         <f ca="1">J4+L4-F4+J4</f>
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1447,52 +1465,52 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" t="s">
         <v>131</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>132</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>133</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>134</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>135</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>136</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>137</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>138</v>
       </c>
-      <c r="M1" t="s">
-        <v>139</v>
-      </c>
-      <c r="N1" t="s">
-        <v>140</v>
-      </c>
-      <c r="O1" t="s">
-        <v>141</v>
-      </c>
-      <c r="P1" t="s">
-        <v>142</v>
-      </c>
       <c r="Q1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="R1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="S1" t="s">
         <v>23</v>
@@ -1503,78 +1521,78 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(100,1000)/10</f>
-        <v>58.2</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(-25,25)+E2</f>
-        <v>48.2</v>
+        <v>83.1</v>
       </c>
       <c r="G2">
         <f ca="1">RANDBETWEEN(100,500)/10</f>
-        <v>37.9</v>
+        <v>42.5</v>
       </c>
       <c r="H2">
         <f ca="1">RANDBETWEEN(100,500)/10</f>
-        <v>19.600000000000001</v>
+        <v>20.6</v>
       </c>
       <c r="Q2">
         <f ca="1">0.05+R2/20</f>
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="R2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="T2">
         <f ca="1">S2+RANDBETWEEN(-10,10)</f>
-        <v>58</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E3">
         <f ca="1">RANDBETWEEN(100,1000)/10</f>
-        <v>38.5</v>
+        <v>37.1</v>
       </c>
       <c r="F3">
         <f ca="1">RANDBETWEEN(-25,25)+E3</f>
-        <v>22.5</v>
+        <v>26.1</v>
       </c>
       <c r="I3">
         <f ca="1">RANDBETWEEN(100,500)/10/5</f>
-        <v>8.120000000000001</v>
+        <v>7.38</v>
       </c>
       <c r="J3">
         <f ca="1">RANDBETWEEN(1,5)+I3</f>
-        <v>9.120000000000001</v>
+        <v>11.379999999999999</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q6" ca="1" si="0">0.05+R3/20</f>
@@ -1586,149 +1604,149 @@
       </c>
       <c r="S3">
         <f t="shared" ref="S3:S6" ca="1" si="2">RANDBETWEEN(10,100)</f>
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="T3">
         <f t="shared" ref="T3:T6" ca="1" si="3">S3+RANDBETWEEN(-10,10)</f>
-        <v>57</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E4">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>4.1100000000000003</v>
+        <v>0.34</v>
       </c>
       <c r="F4">
         <f ca="1">RANDBETWEEN(-2,2)+E4</f>
-        <v>6.11</v>
+        <v>1.34</v>
       </c>
       <c r="K4">
         <f ca="1">E4-0.5</f>
-        <v>3.6100000000000003</v>
+        <v>-0.15999999999999998</v>
       </c>
       <c r="L4">
         <f ca="1">E4+0.5</f>
-        <v>4.6100000000000003</v>
+        <v>0.84000000000000008</v>
       </c>
       <c r="M4">
         <f ca="1">F4-0.5</f>
-        <v>5.61</v>
+        <v>0.84000000000000008</v>
       </c>
       <c r="N4">
         <f ca="1">F4+0.5</f>
-        <v>6.61</v>
+        <v>1.84</v>
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="R4">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S4">
         <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="T4">
         <f t="shared" ca="1" si="3"/>
-        <v>49</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D5" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E5">
         <f ca="1">RANDBETWEEN(-500,500)/10</f>
-        <v>27.9</v>
+        <v>3.2</v>
       </c>
       <c r="F5">
         <f ca="1">RANDBETWEEN(-5,5)+E5</f>
-        <v>32.9</v>
+        <v>3.2</v>
       </c>
       <c r="O5">
         <f ca="1">RANDBETWEEN(-500,500)/10</f>
-        <v>22.9</v>
+        <v>21.5</v>
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S5">
         <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="T5">
         <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D6" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E6">
         <f ca="1">RANDBETWEEN(-500,500)/10</f>
-        <v>-7.9</v>
+        <v>-10.5</v>
       </c>
       <c r="F6">
         <f ca="1">RANDBETWEEN(-5,5)+E6</f>
-        <v>-12.9</v>
+        <v>-8.5</v>
       </c>
       <c r="P6">
         <f ca="1">RANDBETWEEN(-500,500)/10</f>
-        <v>32.6</v>
+        <v>-26.3</v>
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S6">
         <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="T6">
         <f t="shared" ca="1" si="3"/>
-        <v>81</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1738,24 +1756,26 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A577E7D-613F-40B3-ABD8-BC24A7ED5660}">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="C1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
     <col min="3" max="4" width="23.77734375" customWidth="1"/>
-    <col min="5" max="5" width="28.77734375" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="14" width="28.44140625" customWidth="1"/>
-    <col min="15" max="15" width="36.109375" customWidth="1"/>
-    <col min="16" max="18" width="29" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" customWidth="1"/>
+    <col min="15" max="15" width="14.21875" customWidth="1"/>
+    <col min="16" max="18" width="16.88671875" customWidth="1"/>
+    <col min="19" max="20" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -1763,204 +1783,216 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G1" t="s">
-        <v>148</v>
+        <v>230</v>
       </c>
       <c r="H1" t="s">
-        <v>149</v>
+        <v>231</v>
       </c>
       <c r="I1" t="s">
-        <v>150</v>
+        <v>232</v>
       </c>
       <c r="J1" t="s">
-        <v>151</v>
+        <v>233</v>
       </c>
       <c r="K1" t="s">
-        <v>152</v>
+        <v>234</v>
       </c>
       <c r="L1" t="s">
-        <v>153</v>
+        <v>235</v>
       </c>
       <c r="M1" t="s">
-        <v>154</v>
+        <v>236</v>
       </c>
       <c r="N1" t="s">
-        <v>155</v>
+        <v>237</v>
       </c>
       <c r="O1" t="s">
+        <v>142</v>
+      </c>
+      <c r="P1" t="s">
         <v>143</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>144</v>
       </c>
-      <c r="Q1" t="s">
-        <v>129</v>
-      </c>
       <c r="R1" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="S1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T1" t="s">
+        <v>126</v>
+      </c>
+      <c r="U1" t="s">
         <v>23</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E2">
-        <f ca="1">RANDBETWEEN(100,1000)/10</f>
-        <v>98</v>
+        <v>101.2</v>
       </c>
       <c r="F2">
-        <f ca="1">RANDBETWEEN(-25,25)+E2</f>
-        <v>107</v>
+        <v>98.9</v>
       </c>
       <c r="G2">
-        <f ca="1">RANDBETWEEN(100,500)/10</f>
-        <v>26</v>
+        <f>E2-15.87</f>
+        <v>85.33</v>
       </c>
       <c r="H2">
-        <f ca="1">RANDBETWEEN(100,500)/10</f>
-        <v>12.3</v>
-      </c>
-      <c r="Q2">
-        <f ca="1">0.05+R2/20</f>
-        <v>0.2</v>
-      </c>
-      <c r="R2">
+        <f>E2+15.87</f>
+        <v>117.07000000000001</v>
+      </c>
+      <c r="I2">
+        <f>F2-15.87</f>
+        <v>83.03</v>
+      </c>
+      <c r="J2">
+        <f>F2+15.87</f>
+        <v>114.77000000000001</v>
+      </c>
+      <c r="S2">
+        <f ca="1">0.05+T2/20</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="T2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
-      </c>
-      <c r="S2">
+        <v>2</v>
+      </c>
+      <c r="U2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>23</v>
-      </c>
-      <c r="T2">
-        <f ca="1">S2+RANDBETWEEN(-10,10)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="V2">
+        <f ca="1">U2+RANDBETWEEN(-10,10)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E3">
-        <f ca="1">RANDBETWEEN(100,1000)/10</f>
-        <v>15.5</v>
+        <v>5.94</v>
       </c>
       <c r="F3">
-        <f ca="1">RANDBETWEEN(-25,25)+E3</f>
-        <v>12.5</v>
-      </c>
-      <c r="I3">
-        <f ca="1">RANDBETWEEN(100,500)/10/5</f>
-        <v>8.379999999999999</v>
-      </c>
-      <c r="J3">
-        <f ca="1">RANDBETWEEN(1,5)+I3</f>
-        <v>9.379999999999999</v>
-      </c>
-      <c r="Q3">
-        <f t="shared" ref="Q3:Q4" ca="1" si="0">0.05+R3/20</f>
-        <v>0.25</v>
-      </c>
-      <c r="R3">
-        <f t="shared" ref="R3:R4" ca="1" si="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>5.81</v>
+      </c>
+      <c r="K3">
+        <f>E3-5.87</f>
+        <v>7.0000000000000284E-2</v>
+      </c>
+      <c r="L3">
+        <f>E3+5.87</f>
+        <v>11.81</v>
+      </c>
+      <c r="M3">
+        <f>F3-7.87</f>
+        <v>-2.0600000000000005</v>
+      </c>
+      <c r="N3">
+        <f>F3+7.87</f>
+        <v>13.68</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S4" ca="1" si="2">RANDBETWEEN(10,100)</f>
-        <v>16</v>
+        <f t="shared" ref="S3:S4" ca="1" si="0">0.05+T3/20</f>
+        <v>0.3</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T4" ca="1" si="3">S3+RANDBETWEEN(-10,10)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+        <f t="shared" ref="T3:T4" ca="1" si="1">RANDBETWEEN(1,5)</f>
+        <v>5</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U4" ca="1" si="2">RANDBETWEEN(10,100)</f>
+        <v>48</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V4" ca="1" si="3">U3+RANDBETWEEN(-10,10)</f>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E4">
-        <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>-3.98</v>
+        <v>50</v>
       </c>
       <c r="F4">
-        <f ca="1">RANDBETWEEN(-2,2)+E4</f>
-        <v>-1.98</v>
-      </c>
-      <c r="K4">
-        <f ca="1">E4-0.5</f>
-        <v>-4.4800000000000004</v>
-      </c>
-      <c r="L4">
-        <f ca="1">E4+0.5</f>
-        <v>-3.48</v>
-      </c>
-      <c r="M4">
-        <f ca="1">F4-0.5</f>
-        <v>-2.48</v>
-      </c>
-      <c r="N4">
-        <f ca="1">F4+0.5</f>
-        <v>-1.48</v>
+        <v>60</v>
+      </c>
+      <c r="O4">
+        <v>45</v>
+      </c>
+      <c r="P4">
+        <v>55</v>
       </c>
       <c r="Q4">
+        <v>55</v>
+      </c>
+      <c r="R4">
+        <v>65</v>
+      </c>
+      <c r="S4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3</v>
-      </c>
-      <c r="R4">
+        <v>0.25</v>
+      </c>
+      <c r="T4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="S4">
+        <v>4</v>
+      </c>
+      <c r="U4">
         <f t="shared" ca="1" si="2"/>
-        <v>66</v>
-      </c>
-      <c r="T4">
+        <v>27</v>
+      </c>
+      <c r="V4">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1989,10 +2021,10 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
@@ -2010,10 +2042,10 @@
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L1" t="s">
         <v>23</v>
@@ -2030,30 +2062,30 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>0.63</v>
+        <v>3.5</v>
       </c>
       <c r="J2">
         <f ca="1">0.05+K2/20</f>
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="K2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="M2">
         <f ca="1">L2+RANDBETWEEN(-10,10)</f>
-        <v>96</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -2064,30 +2096,30 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F3">
         <f ca="1">RANDBETWEEN(0,1000)/10000</f>
-        <v>2.0199999999999999E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J4" ca="1" si="0">0.05+K3/20</f>
-        <v>0.25</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K6" ca="1" si="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L6" ca="1" si="2">RANDBETWEEN(10,100)</f>
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M4" ca="1" si="3">L3+RANDBETWEEN(-10,10)</f>
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -2098,30 +2130,30 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="G4">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>1.89</v>
+        <v>1.03</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -2132,30 +2164,30 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D5" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="H5">
         <f ca="1">RANDBETWEEN(0,1000)/100000</f>
-        <v>8.6700000000000006E-3</v>
+        <v>8.0400000000000003E-3</v>
       </c>
       <c r="J5">
         <f t="shared" ref="J5:J6" ca="1" si="4">0.05+K5/20</f>
-        <v>0.1</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="M5">
         <f t="shared" ref="M5:M6" ca="1" si="5">L5+RANDBETWEEN(-10,10)</f>
-        <v>35</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -2166,30 +2198,30 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D6" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="I6">
         <f ca="1">RANDBETWEEN(0,1000)/1000</f>
-        <v>0.20399999999999999</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="4"/>
-        <v>0.15000000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="5"/>
-        <v>98</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2219,19 +2251,19 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H1" t="s">
         <v>23</v>
@@ -2248,14 +2280,14 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(0,1000)/1000</f>
-        <v>0.63700000000000001</v>
+        <v>1.0999999999999999E-2</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2" ca="1" si="0">0.05+G2/20</f>
@@ -2267,11 +2299,11 @@
       </c>
       <c r="H2">
         <f t="shared" ref="H2" ca="1" si="2">RANDBETWEEN(10,100)</f>
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2" ca="1" si="3">H2+RANDBETWEEN(-10,10)</f>
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2306,13 +2338,13 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F1" t="s">
         <v>16</v>
@@ -2321,10 +2353,10 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="I1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="J1" t="s">
         <v>18</v>
@@ -2342,409 +2374,409 @@
         <v>24</v>
       </c>
       <c r="O1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="D2" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E14" ca="1" si="0">RANDBETWEEN(0,600)/100</f>
-        <v>1.55</v>
+        <v>2.92</v>
       </c>
       <c r="N2">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>387</v>
+        <v>461</v>
       </c>
       <c r="O2">
         <f ca="1">N2+RANDBETWEEN(-50,50)</f>
-        <v>385</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D3" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.2</v>
+        <v>5.59</v>
       </c>
       <c r="F3">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.38</v>
+        <v>0.81</v>
       </c>
       <c r="L3">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="M3">
         <f ca="1">L3+RANDBETWEEN(-10,10)</f>
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B4">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D4" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.09</v>
+        <v>0.33</v>
       </c>
       <c r="F4">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.83</v>
+        <v>0.66</v>
       </c>
       <c r="N4">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>475</v>
+        <v>162</v>
       </c>
       <c r="O4">
         <f ca="1">N4+RANDBETWEEN(-50,50)</f>
-        <v>429</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B5">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D5" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4000000000000004</v>
+        <v>4.07</v>
       </c>
       <c r="F5">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.89</v>
+        <v>0.82</v>
       </c>
       <c r="J5">
         <f ca="1">RANDBETWEEN(0,600)/1000</f>
-        <v>0.221</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B6">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D6" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="F6">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>7.0000000000000007E-2</v>
+        <v>0.75</v>
       </c>
       <c r="K6">
         <f ca="1">RANDBETWEEN(0,100)/500</f>
-        <v>0.184</v>
+        <v>0.122</v>
       </c>
       <c r="L6">
         <f ca="1">RANDBETWEEN(30,100)+N6</f>
-        <v>172</v>
+        <v>92</v>
       </c>
       <c r="N6">
         <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>77</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D7" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>5.85</v>
+        <v>0.15</v>
       </c>
       <c r="H7">
         <f ca="1">EXP(LN(E7)-2)</f>
-        <v>0.79171140693418418</v>
+        <v>2.0300292485491905E-2</v>
       </c>
       <c r="I7">
         <f ca="1">EXP(LN(E7)+2)</f>
-        <v>43.225978178744299</v>
+        <v>1.1083584148395975</v>
       </c>
       <c r="L7">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>482</v>
+        <v>424</v>
       </c>
       <c r="M7">
         <f ca="1">L7+RANDBETWEEN(-10,10)</f>
-        <v>473</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D8" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.34</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="H8">
         <f ca="1">EXP(LN(E8)-2)</f>
-        <v>0.18134927953706101</v>
+        <v>0.55622801410247813</v>
       </c>
       <c r="I8">
         <f ca="1">EXP(LN(E8)+2)</f>
-        <v>9.9013351725670731</v>
+        <v>30.369020566604974</v>
       </c>
       <c r="N8">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>106</v>
+        <v>497</v>
       </c>
       <c r="O8">
         <f ca="1">N8+RANDBETWEEN(-50,50)</f>
-        <v>118</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B9">
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D9" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>0.83</v>
       </c>
       <c r="H9">
         <f ca="1">EXP(LN(E9)-2)</f>
-        <v>0.6766764161830634</v>
+        <v>0.11232828508638852</v>
       </c>
       <c r="I9">
         <f ca="1">EXP(LN(E9)+2)</f>
-        <v>36.945280494653254</v>
+        <v>6.1329165621124391</v>
       </c>
       <c r="J9">
         <f ca="1">RANDBETWEEN(0,600)/1000</f>
-        <v>0.10100000000000001</v>
+        <v>0.58899999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B10">
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D10" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>5.0999999999999996</v>
+        <v>3.15</v>
       </c>
       <c r="H10">
         <f ca="1">EXP(LN(E10)-2)</f>
-        <v>0.69020994450672468</v>
+        <v>0.42630614219532997</v>
       </c>
       <c r="I10">
         <f ca="1">EXP(LN(E10)+2)</f>
-        <v>37.68418610454632</v>
+        <v>23.275526711631549</v>
       </c>
       <c r="K10">
         <f ca="1">RANDBETWEEN(0,100)/500</f>
-        <v>4.0000000000000001E-3</v>
+        <v>0.152</v>
       </c>
       <c r="L10">
         <f ca="1">RANDBETWEEN(30,100)+N10</f>
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="N10">
         <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>78</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D11" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2</v>
+        <v>3.08</v>
       </c>
       <c r="G11">
         <f ca="1">E11*F3/10</f>
-        <v>4.5599999999999995E-2</v>
+        <v>0.24948000000000001</v>
       </c>
       <c r="L11">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>479</v>
+        <v>450</v>
       </c>
       <c r="M11">
         <f ca="1">L11+RANDBETWEEN(-10,10)</f>
-        <v>484</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B12">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D12" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56000000000000005</v>
+        <v>5.05</v>
       </c>
       <c r="G12">
         <f ca="1">E12*F4/10</f>
-        <v>4.6480000000000007E-2</v>
+        <v>0.33330000000000004</v>
       </c>
       <c r="N12">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="O12">
         <f ca="1">N12+RANDBETWEEN(-50,50)</f>
-        <v>206</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B13">
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D13" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>1.57</v>
+        <v>2.62</v>
       </c>
       <c r="G13">
         <f ca="1">E13*F5/10</f>
-        <v>0.13972999999999999</v>
+        <v>0.21484</v>
       </c>
       <c r="J13">
         <f ca="1">RANDBETWEEN(0,600)/1000</f>
-        <v>0.17599999999999999</v>
+        <v>0.52100000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B14">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D14" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>2.64</v>
+        <v>0.73</v>
       </c>
       <c r="G14">
         <f ca="1">E14*F6/10</f>
-        <v>1.8480000000000003E-2</v>
+        <v>5.475E-2</v>
       </c>
       <c r="K14">
         <f ca="1">RANDBETWEEN(0,100)/500</f>
-        <v>0.13600000000000001</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="L14">
         <f ca="1">RANDBETWEEN(30,100)+N14</f>
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="N14">
         <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>92</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2759,7 +2791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5176A4-45E4-4D15-9483-1C1D485944B9}">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
@@ -2776,13 +2808,13 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E1" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="F1" t="s">
         <v>29</v>
@@ -2791,10 +2823,10 @@
         <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="I1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="J1" t="s">
         <v>18</v>
@@ -2812,12 +2844,12 @@
         <v>24</v>
       </c>
       <c r="O1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2826,11 +2858,11 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E10" ca="1" si="0">RANDBETWEEN(0,600)/100</f>
-        <v>2.29</v>
+        <v>1.59</v>
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
@@ -2838,16 +2870,16 @@
       </c>
       <c r="L2">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="M2">
         <f ca="1">L2+RANDBETWEEN(-10,10)</f>
-        <v>260</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2856,28 +2888,28 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.77</v>
+        <v>1.81</v>
       </c>
       <c r="G3">
         <f ca="1">E3*F2/10</f>
-        <v>0.33930000000000005</v>
+        <v>0.16289999999999999</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L4" ca="1" si="1">RANDBETWEEN(30,500)</f>
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M4" ca="1" si="2">L3+RANDBETWEEN(-10,10)</f>
-        <v>460</v>
+        <v>467</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -2886,32 +2918,32 @@
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0599999999999996</v>
+        <v>0.11</v>
       </c>
       <c r="H4">
         <f ca="1">EXP(LN(E4)-2)</f>
-        <v>0.54946124994064749</v>
+        <v>1.4886881156027392E-2</v>
       </c>
       <c r="I4">
         <f ca="1">EXP(LN(E4)+2)</f>
-        <v>29.999567761658437</v>
+        <v>0.81279617088237166</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="1"/>
-        <v>102</v>
+        <v>167</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2920,28 +2952,28 @@
         <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8499999999999996</v>
+        <v>3.08</v>
       </c>
       <c r="F5">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.41</v>
+        <v>0.48</v>
       </c>
       <c r="N5">
         <f t="shared" ref="N5:N7" ca="1" si="3">RANDBETWEEN(30,500)</f>
-        <v>80</v>
+        <v>471</v>
       </c>
       <c r="O5">
         <f t="shared" ref="O5:O7" ca="1" si="4">N5+RANDBETWEEN(-50,50)</f>
-        <v>121</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2950,19 +2982,19 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9</v>
+        <v>5.6</v>
       </c>
       <c r="G6">
         <f ca="1">E6*F5/10</f>
-        <v>0.15989999999999999</v>
+        <v>0.26879999999999998</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="3"/>
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="4"/>
@@ -2971,7 +3003,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2980,32 +3012,32 @@
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9</v>
+        <v>2.61</v>
       </c>
       <c r="H7">
         <f ca="1">EXP(LN(E7)-2)</f>
-        <v>0.12180175491295142</v>
+        <v>0.35322508924755908</v>
       </c>
       <c r="I7">
         <f ca="1">EXP(LN(E7)+2)</f>
-        <v>6.6501504890375847</v>
+        <v>19.285436418208995</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="3"/>
-        <v>219</v>
+        <v>485</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="4"/>
-        <v>230</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -3014,24 +3046,24 @@
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68</v>
+        <v>0.38</v>
       </c>
       <c r="F8">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.65</v>
+        <v>0.47</v>
       </c>
       <c r="J8">
         <f t="shared" ref="J8:J10" ca="1" si="5">RANDBETWEEN(0,600)/1000</f>
-        <v>0.50700000000000001</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -3040,24 +3072,24 @@
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>3.07</v>
+        <v>2.61</v>
       </c>
       <c r="G9">
         <f ca="1">E9*F8/10</f>
-        <v>0.19955000000000001</v>
+        <v>0.12266999999999999</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.29499999999999998</v>
+        <v>0.51200000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -3066,23 +3098,23 @@
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>5.45</v>
+        <v>5.51</v>
       </c>
       <c r="H10">
         <f ca="1">EXP(LN(E10)-2)</f>
-        <v>0.73757729363953928</v>
+        <v>0.74569741063373585</v>
       </c>
       <c r="I10">
         <f ca="1">EXP(LN(E10)+2)</f>
-        <v>40.270355739172054</v>
+        <v>40.713699105107878</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="5"/>
-        <v>0.56899999999999995</v>
+        <v>0.47099999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -3114,28 +3146,28 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="G1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="H1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="I1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="J1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="K1" t="s">
         <v>23</v>
@@ -3146,76 +3178,76 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D2" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>60</v>
+        <v>162</v>
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="G2">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>161</v>
+        <v>475</v>
       </c>
       <c r="H2">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>64</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D3" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="E3">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="F3">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>458</v>
+        <v>357</v>
       </c>
       <c r="K3">
         <f ca="1">RANDBETWEEN(30,500)+E3</f>
-        <v>524</v>
+        <v>223</v>
       </c>
       <c r="L3">
         <f ca="1">RANDBETWEEN(30,500)+F3</f>
-        <v>896</v>
+        <v>800</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D4" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="I4">
         <f t="shared" ref="I4:J4" ca="1" si="0">RANDBETWEEN(0,600)/1000</f>
@@ -3223,15 +3255,15 @@
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>3.0000000000000001E-3</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="K4">
         <f ca="1">RANDBETWEEN(30,500)+E4</f>
-        <v>332</v>
+        <v>454</v>
       </c>
       <c r="L4">
         <f ca="1">RANDBETWEEN(30,500)+F4</f>
-        <v>280</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -3260,10 +3292,10 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E1" t="s">
         <v>21</v>
@@ -3292,26 +3324,26 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D2" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2" ca="1" si="0">RANDBETWEEN(0,600)/1000</f>
-        <v>3.5999999999999997E-2</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="H2">
         <f ca="1">ROUND((I2+J2)*1.37, 0)</f>
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="I2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="J2">
         <f ca="1">I2+RANDBETWEEN(-10,10)</f>
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3322,26 +3354,26 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D3" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="F3">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>2.06</v>
+        <v>5.22</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H4" ca="1" si="1">ROUND((I3+J3)*1.37, 0)</f>
-        <v>134</v>
+        <v>181</v>
       </c>
       <c r="I3">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="J3">
         <f ca="1">I3+RANDBETWEEN(-10,10)</f>
-        <v>52</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3352,26 +3384,26 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D4" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="G4">
         <f ca="1">RANDBETWEEN(0,600)/1000000</f>
-        <v>4.37E-4</v>
+        <v>5.1E-5</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="1"/>
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="I4">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J4">
         <f ca="1">I4+RANDBETWEEN(-10,10)</f>
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3404,10 +3436,10 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E1" t="s">
         <v>46</v>
@@ -3422,34 +3454,34 @@
         <v>49</v>
       </c>
       <c r="I1" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="J1" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D2" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G2">
         <f ca="1">LN(RANDBETWEEN(0,600)/100)</f>
-        <v>1.7900914121273581</v>
+        <v>1.0260415958332743</v>
       </c>
       <c r="H2">
         <f ca="1">(J3-I3)/4</f>
@@ -3458,34 +3490,34 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D3" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G3">
         <f ca="1">LN(RANDBETWEEN(0,600)/100)</f>
-        <v>1.1019400787607843</v>
+        <v>0.63127177684185776</v>
       </c>
       <c r="I3">
         <f ca="1">G3-1.27</f>
-        <v>-0.16805992123921576</v>
+        <v>-0.63872822315814226</v>
       </c>
       <c r="J3">
         <f ca="1">G3+1.27</f>
-        <v>2.3719400787607841</v>
+        <v>1.9012717768418579</v>
       </c>
     </row>
   </sheetData>
@@ -3522,10 +3554,10 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E1" t="s">
         <v>60</v>
@@ -3572,10 +3604,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E2" t="s">
         <v>63</v>
@@ -3604,10 +3636,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E3" t="s">
         <v>65</v>
@@ -3636,10 +3668,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E4">
         <v>50</v>
@@ -3695,10 +3727,10 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E1" t="s">
         <v>46</v>
@@ -3713,34 +3745,34 @@
         <v>52</v>
       </c>
       <c r="I1" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="J1" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D2" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G2">
         <f ca="1">LN(RANDBETWEEN(0,600)/100)</f>
-        <v>-1.7147984280919266</v>
+        <v>1.1281710909096541</v>
       </c>
       <c r="H2">
         <f ca="1">(J3-I3)/4</f>
@@ -3749,34 +3781,34 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D3" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="G3">
         <f ca="1">LN(RANDBETWEEN(0,600)/100)</f>
-        <v>1.4350845252893227</v>
+        <v>1.2412685890696329</v>
       </c>
       <c r="I3">
         <f ca="1">G3-1.27</f>
-        <v>0.16508452528932271</v>
+        <v>-2.8731410930367129E-2</v>
       </c>
       <c r="J3">
         <f ca="1">G3+1.27</f>
-        <v>2.7050845252893225</v>
+        <v>2.5112685890696329</v>
       </c>
     </row>
   </sheetData>
@@ -3805,10 +3837,10 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E1" t="s">
         <v>31</v>
@@ -3843,18 +3875,18 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(1,1000)/1000</f>
-        <v>0.249</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="L2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>12</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -3865,18 +3897,18 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="F3">
         <f ca="1">RANDBETWEEN(1,1000)/1000</f>
-        <v>0.23400000000000001</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="L3">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -3887,22 +3919,22 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D4" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E4">
         <f ca="1">RANDBETWEEN(1,1000)/1000</f>
-        <v>8.3000000000000004E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J4">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="K4">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -3913,22 +3945,22 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D5" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="F5">
         <f ca="1">RANDBETWEEN(1,1000)/1000</f>
-        <v>0.63700000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="J5">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="K5">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -3939,28 +3971,28 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D6" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="E6">
         <f ca="1">RANDBETWEEN(1,1000)/1000</f>
-        <v>0.41099999999999998</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="G6">
         <f ca="1">RANDBETWEEN(1,1000)/1000</f>
-        <v>0.33300000000000002</v>
+        <v>0.36</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="L6">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -3971,28 +4003,28 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D7" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="F7">
         <f ca="1">RANDBETWEEN(1,1000)/1000</f>
-        <v>0.192</v>
+        <v>0.23799999999999999</v>
       </c>
       <c r="G7">
         <f ca="1">RANDBETWEEN(1,1000)/1000</f>
-        <v>0.29799999999999999</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="H7">
         <v>0.54</v>
       </c>
       <c r="I7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="L7">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -4022,36 +4054,36 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="F1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="G1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="H1" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="D2" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E2">
         <v>121</v>
@@ -4092,10 +4124,10 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E1" t="s">
         <v>33</v>
@@ -4121,10 +4153,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E2">
         <v>0.42299999999999999</v>
@@ -4134,11 +4166,11 @@
       </c>
       <c r="H2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="I2">
         <f ca="1">H2+RANDBETWEEN(-10,10)</f>
-        <v>37</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -4149,10 +4181,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F3">
         <v>87.25</v>
@@ -4162,11 +4194,11 @@
       </c>
       <c r="H3">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="I3">
         <f ca="1">H3+RANDBETWEEN(-10,10)</f>
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -4202,10 +4234,10 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E1" t="s">
         <v>60</v>
@@ -4252,10 +4284,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D2" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="G2" t="s">
         <v>59</v>
@@ -4278,10 +4310,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D3" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E3" t="s">
         <v>63</v>
@@ -4310,10 +4342,10 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D4" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="I4" t="s">
         <v>67</v>
@@ -4336,10 +4368,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D5" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E5" t="s">
         <v>65</v>
@@ -4368,10 +4400,10 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="D6" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="K6">
         <v>45</v>
@@ -4400,10 +4432,10 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D7" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="E7">
         <v>50</v>
@@ -4437,10 +4469,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1E2805-6C3E-4C7E-86CD-3A9AB14E62DE}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4450,12 +4482,13 @@
     <col min="3" max="4" width="23.77734375" customWidth="1"/>
     <col min="5" max="5" width="13.5546875" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" customWidth="1"/>
-    <col min="11" max="11" width="14.21875" customWidth="1"/>
-    <col min="12" max="14" width="16.88671875" customWidth="1"/>
+    <col min="12" max="12" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" customWidth="1"/>
+    <col min="15" max="15" width="14.21875" customWidth="1"/>
+    <col min="16" max="18" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -4463,10 +4496,10 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E1" t="s">
         <v>76</v>
@@ -4475,112 +4508,144 @@
         <v>77</v>
       </c>
       <c r="G1" t="s">
+        <v>222</v>
+      </c>
+      <c r="H1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I1" t="s">
+        <v>225</v>
+      </c>
+      <c r="J1" t="s">
+        <v>223</v>
+      </c>
+      <c r="K1" t="s">
+        <v>226</v>
+      </c>
+      <c r="L1" t="s">
+        <v>228</v>
+      </c>
+      <c r="M1" t="s">
+        <v>229</v>
+      </c>
+      <c r="N1" t="s">
+        <v>227</v>
+      </c>
+      <c r="O1" t="s">
         <v>78</v>
       </c>
-      <c r="H1" t="s">
+      <c r="P1" t="s">
         <v>79</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Q1" t="s">
         <v>80</v>
       </c>
-      <c r="J1" t="s">
+      <c r="R1" t="s">
         <v>81</v>
       </c>
-      <c r="K1" t="s">
+      <c r="S1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>82</v>
-      </c>
-      <c r="L1" t="s">
-        <v>83</v>
-      </c>
-      <c r="M1" t="s">
-        <v>84</v>
-      </c>
-      <c r="N1" t="s">
-        <v>85</v>
-      </c>
-      <c r="O1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>86</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O2">
+        <v>188</v>
+      </c>
+      <c r="E2">
+        <v>101.2</v>
+      </c>
+      <c r="F2">
+        <v>98.9</v>
+      </c>
+      <c r="G2">
+        <f>E2-15.87</f>
+        <v>85.33</v>
+      </c>
+      <c r="H2">
+        <f>E2+15.87</f>
+        <v>117.07000000000001</v>
+      </c>
+      <c r="I2">
+        <f>F2-15.87</f>
+        <v>83.03</v>
+      </c>
+      <c r="J2">
+        <f>F2+15.87</f>
+        <v>114.77000000000001</v>
+      </c>
+      <c r="S2">
         <v>10</v>
       </c>
-      <c r="P2">
+      <c r="T2">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
-      </c>
-      <c r="E3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J3" t="s">
-        <v>67</v>
-      </c>
-      <c r="O3">
+        <v>188</v>
+      </c>
+      <c r="E3">
+        <v>5.94</v>
+      </c>
+      <c r="F3">
+        <v>5.81</v>
+      </c>
+      <c r="K3">
+        <f>E3-5.87</f>
+        <v>7.0000000000000284E-2</v>
+      </c>
+      <c r="L3">
+        <f>E3+5.87</f>
+        <v>11.81</v>
+      </c>
+      <c r="M3">
+        <f>F3-7.87</f>
+        <v>-2.0600000000000005</v>
+      </c>
+      <c r="N3">
+        <f>F3+7.87</f>
+        <v>13.68</v>
+      </c>
+      <c r="S3">
         <v>20</v>
       </c>
-      <c r="P3">
+      <c r="T3">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E4">
         <v>50</v>
@@ -4588,22 +4653,22 @@
       <c r="F4">
         <v>60</v>
       </c>
-      <c r="K4">
+      <c r="O4">
         <v>45</v>
       </c>
-      <c r="L4">
+      <c r="P4">
         <v>55</v>
       </c>
-      <c r="M4">
+      <c r="Q4">
         <v>55</v>
       </c>
-      <c r="N4">
+      <c r="R4">
         <v>65</v>
       </c>
-      <c r="O4">
+      <c r="S4">
         <v>59</v>
       </c>
-      <c r="P4">
+      <c r="T4">
         <v>64</v>
       </c>
     </row>
@@ -4635,10 +4700,10 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -4676,22 +4741,22 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>5.59</v>
+        <v>3.8</v>
       </c>
       <c r="L2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="M2">
         <f ca="1">L2+RANDBETWEEN(-10,30)</f>
-        <v>75</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -4702,22 +4767,22 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F3">
         <f ca="1">RANDBETWEEN(0,1000)/10000</f>
-        <v>3.2899999999999999E-2</v>
+        <v>1.26E-2</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L8" ca="1" si="0">RANDBETWEEN(10,100)</f>
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M8" ca="1" si="1">L3+RANDBETWEEN(-10,30)</f>
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -4728,22 +4793,22 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="G4">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>4.55</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -4754,22 +4819,22 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D5" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="H5">
         <f ca="1">RANDBETWEEN(0,1000)/100000</f>
-        <v>9.2499999999999995E-3</v>
+        <v>9.5399999999999999E-3</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -4780,22 +4845,22 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D6" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="I6">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>2.59</v>
+        <v>4.82</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -4806,22 +4871,22 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D7" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="J7">
         <f ca="1">RANDBETWEEN(0,1000)/1000</f>
-        <v>0.89</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -4832,22 +4897,22 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D8" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="K8">
         <f ca="1">RANDBETWEEN(0,1000)/1000</f>
-        <v>0.12</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4878,46 +4943,46 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K1" t="s">
         <v>196</v>
       </c>
-      <c r="D1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1" t="s">
-        <v>105</v>
-      </c>
-      <c r="I1" t="s">
-        <v>204</v>
-      </c>
-      <c r="J1" t="s">
-        <v>205</v>
-      </c>
-      <c r="K1" t="s">
-        <v>206</v>
-      </c>
       <c r="L1" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="M1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="N1" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="O1" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="P1" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="Q1" t="s">
         <v>23</v>
@@ -4928,170 +4993,170 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:F4" ca="1" si="0">RANDBETWEEN(-500,500)/100</f>
-        <v>0.45</v>
+        <v>2.21</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36</v>
+        <v>2.74</v>
       </c>
       <c r="G2">
         <f ca="1">RANDBETWEEN(100,300)/100</f>
-        <v>1.84</v>
+        <v>1.23</v>
       </c>
       <c r="H2">
         <f ca="1">RANDBETWEEN(100,300)/100</f>
-        <v>2.4300000000000002</v>
+        <v>2.04</v>
       </c>
       <c r="Q2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="R2">
         <f ca="1">Q2+RANDBETWEEN(-10,30)</f>
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.03</v>
+        <v>-3.28</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.65</v>
+        <v>0.59</v>
       </c>
       <c r="I3">
         <f ca="1">RANDBETWEEN(100,300)/100</f>
-        <v>2.5</v>
+        <v>2.89</v>
       </c>
       <c r="J3">
         <f ca="1">RANDBETWEEN(100,300)/100</f>
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q5" ca="1" si="1">RANDBETWEEN(10,100)</f>
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="R3">
         <f t="shared" ref="R3:R5" ca="1" si="2">Q3+RANDBETWEEN(-10,30)</f>
-        <v>20</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11</v>
+        <v>2.89</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.76</v>
+        <v>-1.57</v>
       </c>
       <c r="K4">
         <f ca="1">E4-2.5</f>
-        <v>-2.39</v>
+        <v>0.39000000000000012</v>
       </c>
       <c r="L4">
         <f ca="1">E4+2.5</f>
-        <v>2.61</v>
+        <v>5.3900000000000006</v>
       </c>
       <c r="M4">
         <f ca="1">F4-2.5</f>
-        <v>0.25999999999999979</v>
+        <v>-4.07</v>
       </c>
       <c r="N4">
         <f ca="1">F4+2.5</f>
-        <v>5.26</v>
+        <v>0.92999999999999994</v>
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="R4">
         <f t="shared" ca="1" si="2"/>
-        <v>114</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D5" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E5">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>0.46</v>
+        <v>-3.05</v>
       </c>
       <c r="F5">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>1.58</v>
+        <v>0.38</v>
       </c>
       <c r="G5">
         <f ca="1">RANDBETWEEN(100,300)/100</f>
-        <v>2.2000000000000002</v>
+        <v>2.37</v>
       </c>
       <c r="H5">
         <f ca="1">RANDBETWEEN(100,300)/100</f>
-        <v>1.0900000000000001</v>
+        <v>1.08</v>
       </c>
       <c r="O5">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.21</v>
+        <v>0.36</v>
       </c>
       <c r="P5">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.42</v>
+        <v>0.05</v>
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -5132,58 +5197,58 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F1" t="s">
         <v>60</v>
       </c>
       <c r="G1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H1" t="s">
         <v>61</v>
       </c>
       <c r="I1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J1" t="s">
         <v>71</v>
       </c>
       <c r="K1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L1" t="s">
         <v>70</v>
       </c>
       <c r="M1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="N1" t="s">
         <v>69</v>
       </c>
       <c r="O1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="P1" t="s">
         <v>68</v>
       </c>
       <c r="Q1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="R1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="S1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="T1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="U1" t="s">
         <v>74</v>
@@ -5192,10 +5257,10 @@
         <v>75</v>
       </c>
       <c r="W1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="X1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Y1" t="s">
         <v>23</v>
@@ -5206,154 +5271,154 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E2">
         <f ca="1">F2-RANDBETWEEN(-100,100)/10</f>
-        <v>99.2</v>
+        <v>109.8</v>
       </c>
       <c r="F2">
         <v>101.2</v>
       </c>
       <c r="G2">
         <f ca="1">H2-RANDBETWEEN(-100,100)/10</f>
-        <v>94.4</v>
+        <v>104.10000000000001</v>
       </c>
       <c r="H2">
         <v>98.9</v>
       </c>
       <c r="I2">
         <f ca="1">J2-RANDBETWEEN(-100,100)/100</f>
-        <v>16.2</v>
+        <v>15.93</v>
       </c>
       <c r="J2">
         <v>15.87</v>
       </c>
       <c r="K2">
         <f ca="1">L2-RANDBETWEEN(-100,100)/100</f>
-        <v>13.79</v>
+        <v>13.54</v>
       </c>
       <c r="L2">
         <v>13.87</v>
       </c>
       <c r="W2">
         <f ca="1">RANDBETWEEN(0,1000)/1000</f>
-        <v>0.317</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="X2">
         <f ca="1">W2+RANDBETWEEN(-100,100)/1000</f>
-        <v>0.28799999999999998</v>
+        <v>0.49700000000000005</v>
       </c>
       <c r="Y2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="Z2">
         <f ca="1">Y2+RANDBETWEEN(-10,30)</f>
-        <v>124</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E3">
         <f ca="1">F3-RANDBETWEEN(-100,100)/100</f>
-        <v>5.37</v>
+        <v>6.57</v>
       </c>
       <c r="F3">
         <v>5.94</v>
       </c>
       <c r="G3">
         <f ca="1">H3-RANDBETWEEN(-100,100)/100</f>
-        <v>5.14</v>
+        <v>4.96</v>
       </c>
       <c r="H3">
         <v>5.81</v>
       </c>
       <c r="M3">
         <f ca="1">N3-RANDBETWEEN(-100,100)/1000</f>
-        <v>0.13500000000000001</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="N3">
         <v>0.13</v>
       </c>
       <c r="O3">
         <f ca="1">P3-RANDBETWEEN(-100,100)/1000</f>
-        <v>9.8000000000000004E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="P3">
         <v>0.13</v>
       </c>
       <c r="W3">
         <f t="shared" ref="W3:W4" ca="1" si="0">RANDBETWEEN(0,1000)/1000</f>
-        <v>0.4</v>
+        <v>0.71</v>
       </c>
       <c r="X3">
         <f t="shared" ref="X3:X4" ca="1" si="1">W3+RANDBETWEEN(-100,100)/1000</f>
-        <v>0.34700000000000003</v>
+        <v>0.76300000000000001</v>
       </c>
       <c r="Y3">
         <f t="shared" ref="Y3:Y4" ca="1" si="2">RANDBETWEEN(10,100)</f>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Z3">
         <f t="shared" ref="Z3:Z4" ca="1" si="3">Y3+RANDBETWEEN(-10,30)</f>
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E4">
         <f ca="1">F4-RANDBETWEEN(-100,100)/10</f>
-        <v>40.700000000000003</v>
+        <v>42.6</v>
       </c>
       <c r="F4">
         <v>50</v>
       </c>
       <c r="G4">
         <f ca="1">H4-RANDBETWEEN(-100,100)/10</f>
-        <v>55.8</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="H4">
         <v>60</v>
       </c>
       <c r="Q4">
         <f ca="1">E4-5</f>
-        <v>35.700000000000003</v>
+        <v>37.6</v>
       </c>
       <c r="R4">
         <f ca="1">E4+5</f>
-        <v>45.7</v>
+        <v>47.6</v>
       </c>
       <c r="S4">
         <v>45</v>
@@ -5369,19 +5434,19 @@
       </c>
       <c r="W4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17</v>
+        <v>0.48499999999999999</v>
       </c>
       <c r="X4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.161</v>
+        <v>0.46799999999999997</v>
       </c>
       <c r="Y4">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="Z4">
         <f t="shared" ca="1" si="3"/>
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -5411,40 +5476,40 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E1" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="G1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="H1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="I1" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="J1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="K1" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="L1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="M1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="N1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="O1" t="s">
         <v>23</v>
@@ -5461,34 +5526,34 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>0.51</v>
+        <v>4.2</v>
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>3.92</v>
+        <v>5.91</v>
       </c>
       <c r="M2">
         <f ca="1">RANDBETWEEN(0,1000)/1000</f>
-        <v>0.69699999999999995</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="N2">
         <f ca="1">M2+RANDBETWEEN(-100,100)/1000</f>
-        <v>0.72</v>
+        <v>0.69599999999999995</v>
       </c>
       <c r="O2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="P2">
         <f ca="1">O2+RANDBETWEEN(-10,30)</f>
-        <v>12</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -5499,34 +5564,34 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="G3">
         <f ca="1">RANDBETWEEN(0,1000)/10000</f>
-        <v>7.4200000000000002E-2</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="H3">
         <f ca="1">RANDBETWEEN(0,1000)/10000</f>
-        <v>1.1599999999999999E-2</v>
+        <v>3.3300000000000003E-2</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M5" ca="1" si="0">RANDBETWEEN(0,1000)/1000</f>
-        <v>0.42599999999999999</v>
+        <v>0.751</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N5" ca="1" si="1">M3+RANDBETWEEN(-100,100)/1000</f>
-        <v>0.39899999999999997</v>
+        <v>0.69499999999999995</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O5" ca="1" si="2">RANDBETWEEN(10,100)</f>
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P5" ca="1" si="3">O3+RANDBETWEEN(-10,30)</f>
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -5537,34 +5602,34 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="I4">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>4.74</v>
+        <v>3.59</v>
       </c>
       <c r="J4">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>4.38</v>
+        <v>0.6</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92400000000000004</v>
+        <v>0.80900000000000005</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.86799999999999999</v>
+        <v>0.73100000000000009</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="3"/>
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -5575,34 +5640,34 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="D5" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="K5">
         <f ca="1">RANDBETWEEN(0,1000)/100000</f>
-        <v>6.45E-3</v>
+        <v>4.8999999999999998E-3</v>
       </c>
       <c r="L5">
         <f ca="1">RANDBETWEEN(0,1000)/100000</f>
-        <v>6.9800000000000001E-3</v>
+        <v>7.1300000000000001E-3</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.192</v>
+        <v>0.113</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26400000000000001</v>
+        <v>2.4000000000000007E-2</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="P5">
         <f t="shared" ca="1" si="3"/>
-        <v>66</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -5631,10 +5696,10 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
@@ -5646,10 +5711,10 @@
         <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="J1" t="s">
         <v>23</v>
@@ -5666,26 +5731,26 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>-1.97</v>
+        <v>4.62</v>
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(100,300)/100</f>
-        <v>2.12</v>
+        <v>2.8</v>
       </c>
       <c r="J2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="K2">
         <f ca="1">J2+RANDBETWEEN(-10,30)</f>
-        <v>90</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -5696,60 +5761,60 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E3">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>4.8600000000000003</v>
+        <v>-4.12</v>
       </c>
       <c r="G3">
         <f ca="1">RANDBETWEEN(100,300)/100/5</f>
-        <v>0.33199999999999996</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J4" ca="1" si="0">RANDBETWEEN(10,100)</f>
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K4" ca="1" si="1">J3+RANDBETWEEN(-10,30)</f>
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E4">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>-3.09</v>
+        <v>-3.32</v>
       </c>
       <c r="H4">
         <f ca="1">E4-0.5</f>
-        <v>-3.59</v>
+        <v>-3.82</v>
       </c>
       <c r="I4">
         <f ca="1">E4+0.5</f>
-        <v>-2.59</v>
+        <v>-2.82</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -5778,10 +5843,10 @@
         <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="D1" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="E1" t="s">
         <v>39</v>
@@ -5793,16 +5858,16 @@
         <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="I1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="J1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="K1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="L1" t="s">
         <v>23</v>
@@ -5819,18 +5884,18 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>3.24</v>
+        <v>-3.9</v>
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(100,300)/100</f>
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="J2">
         <f>0.3</f>
@@ -5841,11 +5906,11 @@
       </c>
       <c r="L2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="M2">
         <f ca="1">L2+RANDBETWEEN(-20,30)</f>
-        <v>10</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -5856,18 +5921,18 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E3">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>-0.73</v>
+        <v>0.54</v>
       </c>
       <c r="G3">
         <f ca="1">RANDBETWEEN(100,300)/100/5</f>
-        <v>0.2</v>
+        <v>0.29599999999999999</v>
       </c>
       <c r="J3">
         <f>0.07</f>
@@ -5878,37 +5943,37 @@
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L4" ca="1" si="0">RANDBETWEEN(10,100)</f>
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M4" ca="1" si="1">L3+RANDBETWEEN(-20,30)</f>
-        <v>48</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="D4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E4">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>3.77</v>
+        <v>-2.5</v>
       </c>
       <c r="H4">
         <f ca="1">E4-0.5</f>
-        <v>3.27</v>
+        <v>-3</v>
       </c>
       <c r="I4">
         <f ca="1">E4+0.5</f>
-        <v>4.2699999999999996</v>
+        <v>-2</v>
       </c>
       <c r="J4">
         <f>0.22</f>
@@ -5919,11 +5984,11 @@
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
+        <v>11</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="1"/>
-        <v>93</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/tables/list_datasets.xlsx
+++ b/tables/list_datasets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Corentin Gosling\drive_gmail\Recherche\metaConvert\web\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02E8660-FDA4-4FB3-AD4C-69F769665819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5406B6-A06F-448D-BAB3-880604D831CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="4" activeTab="11" xr2:uid="{3A80436A-EBC8-4660-8C38-C3E7D350F51B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{3A80436A-EBC8-4660-8C38-C3E7D350F51B}"/>
   </bookViews>
   <sheets>
     <sheet name="cohen_d" sheetId="1" r:id="rId1"/>
@@ -1295,51 +1295,51 @@
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(10,20)</f>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(10,20)</f>
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2">
         <f ca="1">E2+RANDBETWEEN(10,20)</f>
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="H2">
         <f ca="1">F2+RANDBETWEEN(10,20)</f>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2:N2" ca="1" si="0">G2+G2-E2</f>
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="O2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="P2">
         <f ca="1">O2+RANDBETWEEN(-10,10)</f>
-        <v>25</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -1357,35 +1357,35 @@
       </c>
       <c r="G3">
         <f ca="1">E3+RANDBETWEEN(10,20)</f>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <f ca="1">F3+RANDBETWEEN(10,20)</f>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I3">
         <f t="shared" ref="I3" ca="1" si="1">G3+G3-E3</f>
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3" ca="1" si="2">H3+H3-F3</f>
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="K3">
         <f ca="1">I3+I3-G3</f>
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="L3">
         <f ca="1">J3+J3-H3</f>
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O4" ca="1" si="3">RANDBETWEEN(10,100)</f>
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P4" ca="1" si="4">O3+RANDBETWEEN(-10,10)</f>
-        <v>88</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -1403,35 +1403,35 @@
       </c>
       <c r="E4">
         <f ca="1">RANDBETWEEN(10,20)</f>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F4">
         <f ca="1">RANDBETWEEN(10,20)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4">
         <f ca="1">E4+24</f>
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J4">
         <f ca="1">F4+26</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M4">
         <f ca="1">I4+K4-E4+I4</f>
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="N4">
         <f ca="1">J4+L4-F4+J4</f>
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="3"/>
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="4"/>
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1534,15 +1534,15 @@
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(100,1000)/10</f>
-        <v>75.099999999999994</v>
+        <v>75.400000000000006</v>
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(-25,25)+E2</f>
-        <v>83.1</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="G2">
         <f ca="1">RANDBETWEEN(100,500)/10</f>
-        <v>42.5</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="H2">
         <f ca="1">RANDBETWEEN(100,500)/10</f>
@@ -1550,19 +1550,19 @@
       </c>
       <c r="Q2">
         <f ca="1">0.05+R2/20</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="R2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="T2">
         <f ca="1">S2+RANDBETWEEN(-10,10)</f>
-        <v>91</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -1580,19 +1580,19 @@
       </c>
       <c r="E3">
         <f ca="1">RANDBETWEEN(100,1000)/10</f>
-        <v>37.1</v>
+        <v>18.8</v>
       </c>
       <c r="F3">
         <f ca="1">RANDBETWEEN(-25,25)+E3</f>
-        <v>26.1</v>
+        <v>2.8000000000000007</v>
       </c>
       <c r="I3">
         <f ca="1">RANDBETWEEN(100,500)/10/5</f>
-        <v>7.38</v>
+        <v>2.1399999999999997</v>
       </c>
       <c r="J3">
         <f ca="1">RANDBETWEEN(1,5)+I3</f>
-        <v>11.379999999999999</v>
+        <v>7.14</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q6" ca="1" si="0">0.05+R3/20</f>
@@ -1604,11 +1604,11 @@
       </c>
       <c r="S3">
         <f t="shared" ref="S3:S6" ca="1" si="2">RANDBETWEEN(10,100)</f>
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="T3">
         <f t="shared" ref="T3:T6" ca="1" si="3">S3+RANDBETWEEN(-10,10)</f>
-        <v>90</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
@@ -1626,43 +1626,43 @@
       </c>
       <c r="E4">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>0.34</v>
+        <v>4.01</v>
       </c>
       <c r="F4">
         <f ca="1">RANDBETWEEN(-2,2)+E4</f>
-        <v>1.34</v>
+        <v>3.01</v>
       </c>
       <c r="K4">
         <f ca="1">E4-0.5</f>
-        <v>-0.15999999999999998</v>
+        <v>3.51</v>
       </c>
       <c r="L4">
         <f ca="1">E4+0.5</f>
-        <v>0.84000000000000008</v>
+        <v>4.51</v>
       </c>
       <c r="M4">
         <f ca="1">F4-0.5</f>
-        <v>0.84000000000000008</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="N4">
         <f ca="1">F4+0.5</f>
-        <v>1.84</v>
+        <v>3.51</v>
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="R4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S4">
         <f t="shared" ca="1" si="2"/>
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="T4">
         <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
@@ -1680,15 +1680,15 @@
       </c>
       <c r="E5">
         <f ca="1">RANDBETWEEN(-500,500)/10</f>
-        <v>3.2</v>
+        <v>-17.2</v>
       </c>
       <c r="F5">
         <f ca="1">RANDBETWEEN(-5,5)+E5</f>
-        <v>3.2</v>
+        <v>-19.2</v>
       </c>
       <c r="O5">
         <f ca="1">RANDBETWEEN(-500,500)/10</f>
-        <v>21.5</v>
+        <v>-48.8</v>
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="0"/>
@@ -1700,11 +1700,11 @@
       </c>
       <c r="S5">
         <f t="shared" ca="1" si="2"/>
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="T5">
         <f t="shared" ca="1" si="3"/>
-        <v>103</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
@@ -1722,31 +1722,31 @@
       </c>
       <c r="E6">
         <f ca="1">RANDBETWEEN(-500,500)/10</f>
-        <v>-10.5</v>
+        <v>-36.9</v>
       </c>
       <c r="F6">
         <f ca="1">RANDBETWEEN(-5,5)+E6</f>
-        <v>-8.5</v>
+        <v>-32.9</v>
       </c>
       <c r="P6">
         <f ca="1">RANDBETWEEN(-500,500)/10</f>
-        <v>-26.3</v>
+        <v>5.5</v>
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S6">
         <f t="shared" ca="1" si="2"/>
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="T6">
         <f t="shared" ca="1" si="3"/>
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1758,8 +1758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A577E7D-613F-40B3-ABD8-BC24A7ED5660}">
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1880,19 +1880,19 @@
       </c>
       <c r="S2">
         <f ca="1">0.05+T2/20</f>
-        <v>0.15000000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="T2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="V2">
         <f ca="1">U2+RANDBETWEEN(-10,10)</f>
-        <v>62</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -1932,19 +1932,19 @@
       </c>
       <c r="S3">
         <f t="shared" ref="S3:S4" ca="1" si="0">0.05+T3/20</f>
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="T3">
         <f t="shared" ref="T3:T4" ca="1" si="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U3">
         <f t="shared" ref="U3:U4" ca="1" si="2">RANDBETWEEN(10,100)</f>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="V3">
         <f t="shared" ref="V3:V4" ca="1" si="3">U3+RANDBETWEEN(-10,10)</f>
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -1980,19 +1980,19 @@
       </c>
       <c r="S4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="T4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U4">
         <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="V4">
         <f t="shared" ca="1" si="3"/>
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2069,23 +2069,23 @@
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J2">
         <f ca="1">0.05+K2/20</f>
-        <v>0.1</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="K2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="M2">
         <f ca="1">L2+RANDBETWEEN(-10,10)</f>
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -2103,23 +2103,23 @@
       </c>
       <c r="F3">
         <f ca="1">RANDBETWEEN(0,1000)/10000</f>
-        <v>3.5999999999999997E-2</v>
+        <v>7.22E-2</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J4" ca="1" si="0">0.05+K3/20</f>
-        <v>0.15000000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K6" ca="1" si="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L6" ca="1" si="2">RANDBETWEEN(10,100)</f>
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M4" ca="1" si="3">L3+RANDBETWEEN(-10,10)</f>
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -2137,23 +2137,23 @@
       </c>
       <c r="G4">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>1.03</v>
+        <v>1.92</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="3"/>
-        <v>82</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="H5">
         <f ca="1">RANDBETWEEN(0,1000)/100000</f>
-        <v>8.0400000000000003E-3</v>
+        <v>9.9799999999999993E-3</v>
       </c>
       <c r="J5">
         <f t="shared" ref="J5:J6" ca="1" si="4">0.05+K5/20</f>
@@ -2183,11 +2183,11 @@
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="2"/>
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="M5">
         <f t="shared" ref="M5:M6" ca="1" si="5">L5+RANDBETWEEN(-10,10)</f>
-        <v>87</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -2205,7 +2205,7 @@
       </c>
       <c r="I6">
         <f ca="1">RANDBETWEEN(0,1000)/1000</f>
-        <v>0.71899999999999997</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="4"/>
@@ -2217,11 +2217,11 @@
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(0,1000)/1000</f>
-        <v>1.0999999999999999E-2</v>
+        <v>0.214</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2" ca="1" si="0">0.05+G2/20</f>
@@ -2299,11 +2299,11 @@
       </c>
       <c r="H2">
         <f t="shared" ref="H2" ca="1" si="2">RANDBETWEEN(10,100)</f>
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2" ca="1" si="3">H2+RANDBETWEEN(-10,10)</f>
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2392,15 +2392,15 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E14" ca="1" si="0">RANDBETWEEN(0,600)/100</f>
-        <v>2.92</v>
+        <v>2.37</v>
       </c>
       <c r="N2">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>461</v>
+        <v>65</v>
       </c>
       <c r="O2">
         <f ca="1">N2+RANDBETWEEN(-50,50)</f>
-        <v>472</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -2418,19 +2418,19 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.59</v>
+        <v>0.44</v>
       </c>
       <c r="F3">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.81</v>
+        <v>0.46</v>
       </c>
       <c r="L3">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>261</v>
+        <v>403</v>
       </c>
       <c r="M3">
         <f ca="1">L3+RANDBETWEEN(-10,10)</f>
-        <v>261</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -2448,19 +2448,19 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33</v>
+        <v>4.34</v>
       </c>
       <c r="F4">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.66</v>
+        <v>0.12</v>
       </c>
       <c r="N4">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>162</v>
+        <v>34</v>
       </c>
       <c r="O4">
         <f ca="1">N4+RANDBETWEEN(-50,50)</f>
-        <v>170</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -2478,15 +2478,15 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>4.07</v>
+        <v>1.67</v>
       </c>
       <c r="F5">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.82</v>
+        <v>0.65</v>
       </c>
       <c r="J5">
         <f ca="1">RANDBETWEEN(0,600)/1000</f>
-        <v>1.7000000000000001E-2</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -2504,23 +2504,23 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0199999999999996</v>
+        <v>2.15</v>
       </c>
       <c r="F6">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="K6">
         <f ca="1">RANDBETWEEN(0,100)/500</f>
-        <v>0.122</v>
+        <v>7.8E-2</v>
       </c>
       <c r="L6">
         <f ca="1">RANDBETWEEN(30,100)+N6</f>
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="N6">
         <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -2538,23 +2538,23 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15</v>
+        <v>2.74</v>
       </c>
       <c r="H7">
         <f ca="1">EXP(LN(E7)-2)</f>
-        <v>2.0300292485491905E-2</v>
+        <v>0.37081867606831881</v>
       </c>
       <c r="I7">
         <f ca="1">EXP(LN(E7)+2)</f>
-        <v>1.1083584148395975</v>
+        <v>20.246013711069978</v>
       </c>
       <c r="L7">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="M7">
         <f ca="1">L7+RANDBETWEEN(-10,10)</f>
-        <v>429</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -2572,23 +2572,23 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1100000000000003</v>
+        <v>5.09</v>
       </c>
       <c r="H8">
         <f ca="1">EXP(LN(E8)-2)</f>
-        <v>0.55622801410247813</v>
+        <v>0.68885659167435864</v>
       </c>
       <c r="I8">
         <f ca="1">EXP(LN(E8)+2)</f>
-        <v>30.369020566604974</v>
+        <v>37.610295543557015</v>
       </c>
       <c r="N8">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>497</v>
+        <v>32</v>
       </c>
       <c r="O8">
         <f ca="1">N8+RANDBETWEEN(-50,50)</f>
-        <v>476</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83</v>
+        <v>3.85</v>
       </c>
       <c r="H9">
         <f ca="1">EXP(LN(E9)-2)</f>
-        <v>0.11232828508638852</v>
+        <v>0.52104084046095889</v>
       </c>
       <c r="I9">
         <f ca="1">EXP(LN(E9)+2)</f>
-        <v>6.1329165621124391</v>
+        <v>28.447865980883002</v>
       </c>
       <c r="J9">
         <f ca="1">RANDBETWEEN(0,600)/1000</f>
-        <v>0.58899999999999997</v>
+        <v>0.32100000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -2636,27 +2636,27 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>3.15</v>
+        <v>5.08</v>
       </c>
       <c r="H10">
         <f ca="1">EXP(LN(E10)-2)</f>
-        <v>0.42630614219532997</v>
+        <v>0.6875032388419926</v>
       </c>
       <c r="I10">
         <f ca="1">EXP(LN(E10)+2)</f>
-        <v>23.275526711631549</v>
+        <v>37.53640498256771</v>
       </c>
       <c r="K10">
         <f ca="1">RANDBETWEEN(0,100)/500</f>
-        <v>0.152</v>
+        <v>0.17599999999999999</v>
       </c>
       <c r="L10">
         <f ca="1">RANDBETWEEN(30,100)+N10</f>
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="N10">
         <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -2674,19 +2674,19 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>3.08</v>
+        <v>4.0599999999999996</v>
       </c>
       <c r="G11">
         <f ca="1">E11*F3/10</f>
-        <v>0.24948000000000001</v>
+        <v>0.18675999999999998</v>
       </c>
       <c r="L11">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>450</v>
+        <v>46</v>
       </c>
       <c r="M11">
         <f ca="1">L11+RANDBETWEEN(-10,10)</f>
-        <v>458</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -2704,19 +2704,19 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.05</v>
+        <v>3.54</v>
       </c>
       <c r="G12">
         <f ca="1">E12*F4/10</f>
-        <v>0.33330000000000004</v>
+        <v>4.2480000000000004E-2</v>
       </c>
       <c r="N12">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>181</v>
+        <v>237</v>
       </c>
       <c r="O12">
         <f ca="1">N12+RANDBETWEEN(-50,50)</f>
-        <v>136</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -2734,15 +2734,15 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>2.62</v>
+        <v>2.74</v>
       </c>
       <c r="G13">
         <f ca="1">E13*F5/10</f>
-        <v>0.21484</v>
+        <v>0.17810000000000001</v>
       </c>
       <c r="J13">
         <f ca="1">RANDBETWEEN(0,600)/1000</f>
-        <v>0.52100000000000002</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -2760,23 +2760,23 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73</v>
+        <v>1.39</v>
       </c>
       <c r="G14">
         <f ca="1">E14*F6/10</f>
-        <v>5.475E-2</v>
+        <v>0.12509999999999999</v>
       </c>
       <c r="K14">
         <f ca="1">RANDBETWEEN(0,100)/500</f>
-        <v>6.8000000000000005E-2</v>
+        <v>0.15</v>
       </c>
       <c r="L14">
         <f ca="1">RANDBETWEEN(30,100)+N14</f>
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="N14">
         <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2862,19 +2862,19 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E10" ca="1" si="0">RANDBETWEEN(0,600)/100</f>
-        <v>1.59</v>
+        <v>3.88</v>
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.9</v>
+        <v>0.79</v>
       </c>
       <c r="L2">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>244</v>
+        <v>480</v>
       </c>
       <c r="M2">
         <f ca="1">L2+RANDBETWEEN(-10,10)</f>
-        <v>234</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -2892,19 +2892,19 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="G3">
         <f ca="1">E3*F2/10</f>
-        <v>0.16289999999999999</v>
+        <v>0.14536000000000002</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L4" ca="1" si="1">RANDBETWEEN(30,500)</f>
-        <v>460</v>
+        <v>383</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M4" ca="1" si="2">L3+RANDBETWEEN(-10,10)</f>
-        <v>467</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -2922,23 +2922,23 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11</v>
+        <v>5.44</v>
       </c>
       <c r="H4">
         <f ca="1">EXP(LN(E4)-2)</f>
-        <v>1.4886881156027392E-2</v>
+        <v>0.73622394080717313</v>
       </c>
       <c r="I4">
         <f ca="1">EXP(LN(E4)+2)</f>
-        <v>0.81279617088237166</v>
+        <v>40.196465178182741</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="1"/>
-        <v>167</v>
+        <v>293</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="2"/>
-        <v>171</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -2956,7 +2956,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>3.08</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="F5">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
@@ -2964,11 +2964,11 @@
       </c>
       <c r="N5">
         <f t="shared" ref="N5:N7" ca="1" si="3">RANDBETWEEN(30,500)</f>
-        <v>471</v>
+        <v>160</v>
       </c>
       <c r="O5">
         <f t="shared" ref="O5:O7" ca="1" si="4">N5+RANDBETWEEN(-50,50)</f>
-        <v>477</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -2986,19 +2986,19 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>5.6</v>
+        <v>0.27</v>
       </c>
       <c r="G6">
         <f ca="1">E6*F5/10</f>
-        <v>0.26879999999999998</v>
+        <v>1.2959999999999999E-2</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="3"/>
-        <v>116</v>
+        <v>389</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="4"/>
-        <v>161</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -3016,23 +3016,23 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>2.61</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="H7">
         <f ca="1">EXP(LN(E7)-2)</f>
-        <v>0.35322508924755908</v>
+        <v>0.15157551722500623</v>
       </c>
       <c r="I7">
         <f ca="1">EXP(LN(E7)+2)</f>
-        <v>19.285436418208995</v>
+        <v>8.2757428308023293</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="3"/>
-        <v>485</v>
+        <v>174</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="4"/>
-        <v>467</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -3050,15 +3050,15 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
       <c r="J8">
         <f t="shared" ref="J8:J10" ca="1" si="5">RANDBETWEEN(0,600)/1000</f>
-        <v>0.317</v>
+        <v>0.17199999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -3076,15 +3076,15 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.61</v>
+        <v>4.12</v>
       </c>
       <c r="G9">
         <f ca="1">E9*F8/10</f>
-        <v>0.12266999999999999</v>
+        <v>0.20188</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.51200000000000001</v>
+        <v>0.33200000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -3102,19 +3102,19 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>5.51</v>
+        <v>3.73</v>
       </c>
       <c r="H10">
         <f ca="1">EXP(LN(E10)-2)</f>
-        <v>0.74569741063373585</v>
+        <v>0.50480060647256531</v>
       </c>
       <c r="I10">
         <f ca="1">EXP(LN(E10)+2)</f>
-        <v>40.713699105107878</v>
+        <v>27.561179249011325</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="5"/>
-        <v>0.47099999999999997</v>
+        <v>0.48599999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3191,19 +3191,19 @@
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>162</v>
+        <v>267</v>
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>281</v>
+        <v>461</v>
       </c>
       <c r="G2">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>475</v>
+        <v>158</v>
       </c>
       <c r="H2">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>257</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -3221,19 +3221,19 @@
       </c>
       <c r="E3">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>161</v>
+        <v>214</v>
       </c>
       <c r="F3">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>357</v>
+        <v>238</v>
       </c>
       <c r="K3">
         <f ca="1">RANDBETWEEN(30,500)+E3</f>
-        <v>223</v>
+        <v>692</v>
       </c>
       <c r="L3">
         <f ca="1">RANDBETWEEN(30,500)+F3</f>
-        <v>800</v>
+        <v>698</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -3251,19 +3251,19 @@
       </c>
       <c r="I4">
         <f t="shared" ref="I4:J4" ca="1" si="0">RANDBETWEEN(0,600)/1000</f>
-        <v>0.58699999999999997</v>
+        <v>0.245</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26400000000000001</v>
+        <v>0.432</v>
       </c>
       <c r="K4">
         <f ca="1">RANDBETWEEN(30,500)+E4</f>
-        <v>454</v>
+        <v>221</v>
       </c>
       <c r="L4">
         <f ca="1">RANDBETWEEN(30,500)+F4</f>
-        <v>74</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -3331,19 +3331,19 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2" ca="1" si="0">RANDBETWEEN(0,600)/1000</f>
-        <v>0.56499999999999995</v>
+        <v>0.442</v>
       </c>
       <c r="H2">
         <f ca="1">ROUND((I2+J2)*1.37, 0)</f>
-        <v>103</v>
+        <v>171</v>
       </c>
       <c r="I2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="J2">
         <f ca="1">I2+RANDBETWEEN(-10,10)</f>
-        <v>42</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3361,19 +3361,19 @@
       </c>
       <c r="F3">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>5.22</v>
+        <v>4.67</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H4" ca="1" si="1">ROUND((I3+J3)*1.37, 0)</f>
-        <v>181</v>
+        <v>44</v>
       </c>
       <c r="I3">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="J3">
         <f ca="1">I3+RANDBETWEEN(-10,10)</f>
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3391,19 +3391,19 @@
       </c>
       <c r="G4">
         <f ca="1">RANDBETWEEN(0,600)/1000000</f>
-        <v>5.1E-5</v>
+        <v>2.2800000000000001E-4</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="1"/>
-        <v>242</v>
+        <v>58</v>
       </c>
       <c r="I4">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="J4">
         <f ca="1">I4+RANDBETWEEN(-10,10)</f>
-        <v>85</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="G2">
         <f ca="1">LN(RANDBETWEEN(0,600)/100)</f>
-        <v>1.0260415958332743</v>
+        <v>0.75612197972133366</v>
       </c>
       <c r="H2">
         <f ca="1">(J3-I3)/4</f>
@@ -3509,15 +3509,15 @@
       </c>
       <c r="G3">
         <f ca="1">LN(RANDBETWEEN(0,600)/100)</f>
-        <v>0.63127177684185776</v>
+        <v>1.1724821372345651</v>
       </c>
       <c r="I3">
         <f ca="1">G3-1.27</f>
-        <v>-0.63872822315814226</v>
+        <v>-9.7517862765434948E-2</v>
       </c>
       <c r="J3">
         <f ca="1">G3+1.27</f>
-        <v>1.9012717768418579</v>
+        <v>2.4424821372345651</v>
       </c>
     </row>
   </sheetData>
@@ -3772,7 +3772,7 @@
       </c>
       <c r="G2">
         <f ca="1">LN(RANDBETWEEN(0,600)/100)</f>
-        <v>1.1281710909096541</v>
+        <v>1.5303947050936475</v>
       </c>
       <c r="H2">
         <f ca="1">(J3-I3)/4</f>
@@ -3800,15 +3800,15 @@
       </c>
       <c r="G3">
         <f ca="1">LN(RANDBETWEEN(0,600)/100)</f>
-        <v>1.2412685890696329</v>
+        <v>1.6563214983329508</v>
       </c>
       <c r="I3">
         <f ca="1">G3-1.27</f>
-        <v>-2.8731410930367129E-2</v>
+        <v>0.38632149833295082</v>
       </c>
       <c r="J3">
         <f ca="1">G3+1.27</f>
-        <v>2.5112685890696329</v>
+        <v>2.9263214983329506</v>
       </c>
     </row>
   </sheetData>
@@ -3882,11 +3882,11 @@
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(1,1000)/1000</f>
-        <v>0.46700000000000003</v>
+        <v>0.84699999999999998</v>
       </c>
       <c r="L2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>98</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -3904,11 +3904,11 @@
       </c>
       <c r="F3">
         <f ca="1">RANDBETWEEN(1,1000)/1000</f>
-        <v>0.57499999999999996</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="L3">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -3926,15 +3926,15 @@
       </c>
       <c r="E4">
         <f ca="1">RANDBETWEEN(1,1000)/1000</f>
-        <v>5.0000000000000001E-3</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="J4">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="K4">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>86</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -3952,15 +3952,15 @@
       </c>
       <c r="F5">
         <f ca="1">RANDBETWEEN(1,1000)/1000</f>
-        <v>0.79</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="J5">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K5">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>13</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -3978,11 +3978,11 @@
       </c>
       <c r="E6">
         <f ca="1">RANDBETWEEN(1,1000)/1000</f>
-        <v>0.38600000000000001</v>
+        <v>0.45900000000000002</v>
       </c>
       <c r="G6">
         <f ca="1">RANDBETWEEN(1,1000)/1000</f>
-        <v>0.36</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="L6">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -4010,11 +4010,11 @@
       </c>
       <c r="F7">
         <f ca="1">RANDBETWEEN(1,1000)/1000</f>
-        <v>0.23799999999999999</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="G7">
         <f ca="1">RANDBETWEEN(1,1000)/1000</f>
-        <v>0.38300000000000001</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="H7">
         <v>0.54</v>
@@ -4024,7 +4024,7 @@
       </c>
       <c r="L7">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -4166,11 +4166,11 @@
       </c>
       <c r="H2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="I2">
         <f ca="1">H2+RANDBETWEEN(-10,10)</f>
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -4194,11 +4194,11 @@
       </c>
       <c r="H3">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="I3">
         <f ca="1">H3+RANDBETWEEN(-10,10)</f>
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -4471,8 +4471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1E2805-6C3E-4C7E-86CD-3A9AB14E62DE}">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:R1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4748,15 +4748,15 @@
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>3.8</v>
+        <v>3.06</v>
       </c>
       <c r="L2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="M2">
         <f ca="1">L2+RANDBETWEEN(-10,30)</f>
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -4774,15 +4774,15 @@
       </c>
       <c r="F3">
         <f ca="1">RANDBETWEEN(0,1000)/10000</f>
-        <v>1.26E-2</v>
+        <v>7.8899999999999998E-2</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L8" ca="1" si="0">RANDBETWEEN(10,100)</f>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M8" ca="1" si="1">L3+RANDBETWEEN(-10,30)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -4800,15 +4800,15 @@
       </c>
       <c r="G4">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>4.9400000000000004</v>
+        <v>5.92</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="1"/>
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -4826,15 +4826,15 @@
       </c>
       <c r="H5">
         <f ca="1">RANDBETWEEN(0,1000)/100000</f>
-        <v>9.5399999999999999E-3</v>
+        <v>2.0400000000000001E-3</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -4852,15 +4852,15 @@
       </c>
       <c r="I6">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>4.82</v>
+        <v>5.43</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="1"/>
-        <v>113</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -4878,15 +4878,15 @@
       </c>
       <c r="J7">
         <f ca="1">RANDBETWEEN(0,1000)/1000</f>
-        <v>0.26800000000000002</v>
+        <v>0.246</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="1"/>
-        <v>111</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -4904,15 +4904,15 @@
       </c>
       <c r="K8">
         <f ca="1">RANDBETWEEN(0,1000)/1000</f>
-        <v>0.74299999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="1"/>
-        <v>101</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -5006,27 +5006,27 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:F4" ca="1" si="0">RANDBETWEEN(-500,500)/100</f>
-        <v>2.21</v>
+        <v>0.34</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>2.74</v>
+        <v>-0.69</v>
       </c>
       <c r="G2">
         <f ca="1">RANDBETWEEN(100,300)/100</f>
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="H2">
         <f ca="1">RANDBETWEEN(100,300)/100</f>
-        <v>2.04</v>
+        <v>1.02</v>
       </c>
       <c r="Q2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="R2">
         <f ca="1">Q2+RANDBETWEEN(-10,30)</f>
-        <v>40</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -5044,27 +5044,27 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>-3.28</v>
+        <v>-2.62</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59</v>
+        <v>0.24</v>
       </c>
       <c r="I3">
         <f ca="1">RANDBETWEEN(100,300)/100</f>
-        <v>2.89</v>
+        <v>2.77</v>
       </c>
       <c r="J3">
         <f ca="1">RANDBETWEEN(100,300)/100</f>
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q5" ca="1" si="1">RANDBETWEEN(10,100)</f>
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="R3">
         <f t="shared" ref="R3:R5" ca="1" si="2">Q3+RANDBETWEEN(-10,30)</f>
-        <v>82</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -5082,35 +5082,35 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.89</v>
+        <v>3.61</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>-1.57</v>
+        <v>-0.36</v>
       </c>
       <c r="K4">
         <f ca="1">E4-2.5</f>
-        <v>0.39000000000000012</v>
+        <v>1.1099999999999999</v>
       </c>
       <c r="L4">
         <f ca="1">E4+2.5</f>
-        <v>5.3900000000000006</v>
+        <v>6.1099999999999994</v>
       </c>
       <c r="M4">
         <f ca="1">F4-2.5</f>
-        <v>-4.07</v>
+        <v>-2.86</v>
       </c>
       <c r="N4">
         <f ca="1">F4+2.5</f>
-        <v>0.92999999999999994</v>
+        <v>2.14</v>
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="R4">
         <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -5128,35 +5128,35 @@
       </c>
       <c r="E5">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>-3.05</v>
+        <v>-2.79</v>
       </c>
       <c r="F5">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>0.38</v>
+        <v>2.34</v>
       </c>
       <c r="G5">
         <f ca="1">RANDBETWEEN(100,300)/100</f>
-        <v>2.37</v>
+        <v>2.62</v>
       </c>
       <c r="H5">
         <f ca="1">RANDBETWEEN(100,300)/100</f>
-        <v>1.08</v>
+        <v>1.45</v>
       </c>
       <c r="O5">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.36</v>
+        <v>0.26</v>
       </c>
       <c r="P5">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -5284,47 +5284,47 @@
       </c>
       <c r="E2">
         <f ca="1">F2-RANDBETWEEN(-100,100)/10</f>
-        <v>109.8</v>
+        <v>107.10000000000001</v>
       </c>
       <c r="F2">
         <v>101.2</v>
       </c>
       <c r="G2">
         <f ca="1">H2-RANDBETWEEN(-100,100)/10</f>
-        <v>104.10000000000001</v>
+        <v>96.9</v>
       </c>
       <c r="H2">
         <v>98.9</v>
       </c>
       <c r="I2">
         <f ca="1">J2-RANDBETWEEN(-100,100)/100</f>
-        <v>15.93</v>
+        <v>16.21</v>
       </c>
       <c r="J2">
         <v>15.87</v>
       </c>
       <c r="K2">
         <f ca="1">L2-RANDBETWEEN(-100,100)/100</f>
-        <v>13.54</v>
+        <v>14.799999999999999</v>
       </c>
       <c r="L2">
         <v>13.87</v>
       </c>
       <c r="W2">
         <f ca="1">RANDBETWEEN(0,1000)/1000</f>
-        <v>0.55200000000000005</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="X2">
         <f ca="1">W2+RANDBETWEEN(-100,100)/1000</f>
-        <v>0.49700000000000005</v>
+        <v>0.86</v>
       </c>
       <c r="Y2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="Z2">
         <f ca="1">Y2+RANDBETWEEN(-10,30)</f>
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
@@ -5342,47 +5342,47 @@
       </c>
       <c r="E3">
         <f ca="1">F3-RANDBETWEEN(-100,100)/100</f>
-        <v>6.57</v>
+        <v>6.33</v>
       </c>
       <c r="F3">
         <v>5.94</v>
       </c>
       <c r="G3">
         <f ca="1">H3-RANDBETWEEN(-100,100)/100</f>
-        <v>4.96</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H3">
         <v>5.81</v>
       </c>
       <c r="M3">
         <f ca="1">N3-RANDBETWEEN(-100,100)/1000</f>
-        <v>0.17699999999999999</v>
+        <v>0.22</v>
       </c>
       <c r="N3">
         <v>0.13</v>
       </c>
       <c r="O3">
         <f ca="1">P3-RANDBETWEEN(-100,100)/1000</f>
-        <v>6.0999999999999999E-2</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="P3">
         <v>0.13</v>
       </c>
       <c r="W3">
         <f t="shared" ref="W3:W4" ca="1" si="0">RANDBETWEEN(0,1000)/1000</f>
-        <v>0.71</v>
+        <v>0.72199999999999998</v>
       </c>
       <c r="X3">
         <f t="shared" ref="X3:X4" ca="1" si="1">W3+RANDBETWEEN(-100,100)/1000</f>
-        <v>0.76300000000000001</v>
+        <v>0.65799999999999992</v>
       </c>
       <c r="Y3">
         <f t="shared" ref="Y3:Y4" ca="1" si="2">RANDBETWEEN(10,100)</f>
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="Z3">
         <f t="shared" ref="Z3:Z4" ca="1" si="3">Y3+RANDBETWEEN(-10,30)</f>
-        <v>58</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
@@ -5400,25 +5400,25 @@
       </c>
       <c r="E4">
         <f ca="1">F4-RANDBETWEEN(-100,100)/10</f>
-        <v>42.6</v>
+        <v>54.7</v>
       </c>
       <c r="F4">
         <v>50</v>
       </c>
       <c r="G4">
         <f ca="1">H4-RANDBETWEEN(-100,100)/10</f>
-        <v>69.099999999999994</v>
+        <v>68.7</v>
       </c>
       <c r="H4">
         <v>60</v>
       </c>
       <c r="Q4">
         <f ca="1">E4-5</f>
-        <v>37.6</v>
+        <v>49.7</v>
       </c>
       <c r="R4">
         <f ca="1">E4+5</f>
-        <v>47.6</v>
+        <v>59.7</v>
       </c>
       <c r="S4">
         <v>45</v>
@@ -5434,19 +5434,19 @@
       </c>
       <c r="W4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48499999999999999</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="X4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46799999999999997</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="Y4">
         <f t="shared" ca="1" si="2"/>
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="Z4">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -5533,27 +5533,27 @@
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>4.2</v>
+        <v>3.38</v>
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>5.91</v>
+        <v>5.44</v>
       </c>
       <c r="M2">
         <f ca="1">RANDBETWEEN(0,1000)/1000</f>
-        <v>0.71899999999999997</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="N2">
         <f ca="1">M2+RANDBETWEEN(-100,100)/1000</f>
-        <v>0.69599999999999995</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="O2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="P2">
         <f ca="1">O2+RANDBETWEEN(-10,30)</f>
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -5571,27 +5571,27 @@
       </c>
       <c r="G3">
         <f ca="1">RANDBETWEEN(0,1000)/10000</f>
-        <v>8.3699999999999997E-2</v>
+        <v>2.35E-2</v>
       </c>
       <c r="H3">
         <f ca="1">RANDBETWEEN(0,1000)/10000</f>
-        <v>3.3300000000000003E-2</v>
+        <v>9.7299999999999998E-2</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M5" ca="1" si="0">RANDBETWEEN(0,1000)/1000</f>
-        <v>0.751</v>
+        <v>0.33400000000000002</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N5" ca="1" si="1">M3+RANDBETWEEN(-100,100)/1000</f>
-        <v>0.69499999999999995</v>
+        <v>0.26600000000000001</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O5" ca="1" si="2">RANDBETWEEN(10,100)</f>
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P5" ca="1" si="3">O3+RANDBETWEEN(-10,30)</f>
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -5609,27 +5609,27 @@
       </c>
       <c r="I4">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>3.59</v>
+        <v>3.1</v>
       </c>
       <c r="J4">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>0.6</v>
+        <v>4.04</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.80900000000000005</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73100000000000009</v>
+        <v>0.68800000000000006</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -5647,27 +5647,27 @@
       </c>
       <c r="K5">
         <f ca="1">RANDBETWEEN(0,1000)/100000</f>
-        <v>4.8999999999999998E-3</v>
+        <v>6.8700000000000002E-3</v>
       </c>
       <c r="L5">
         <f ca="1">RANDBETWEEN(0,1000)/100000</f>
-        <v>7.1300000000000001E-3</v>
+        <v>7.7099999999999998E-3</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.113</v>
+        <v>0.624</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="1"/>
-        <v>2.4000000000000007E-2</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="2"/>
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="P5">
         <f t="shared" ca="1" si="3"/>
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -5738,19 +5738,19 @@
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>4.62</v>
+        <v>0.31</v>
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(100,300)/100</f>
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="J2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K2">
         <f ca="1">J2+RANDBETWEEN(-10,30)</f>
-        <v>22</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -5768,19 +5768,19 @@
       </c>
       <c r="E3">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>-4.12</v>
+        <v>-0.09</v>
       </c>
       <c r="G3">
         <f ca="1">RANDBETWEEN(100,300)/100/5</f>
-        <v>0.56399999999999995</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J4" ca="1" si="0">RANDBETWEEN(10,100)</f>
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K4" ca="1" si="1">J3+RANDBETWEEN(-10,30)</f>
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -5798,23 +5798,23 @@
       </c>
       <c r="E4">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>-3.32</v>
+        <v>-2.16</v>
       </c>
       <c r="H4">
         <f ca="1">E4-0.5</f>
-        <v>-3.82</v>
+        <v>-2.66</v>
       </c>
       <c r="I4">
         <f ca="1">E4+0.5</f>
-        <v>-2.82</v>
+        <v>-1.6600000000000001</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -5891,11 +5891,11 @@
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>-3.9</v>
+        <v>-3.47</v>
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(100,300)/100</f>
-        <v>1.37</v>
+        <v>1.59</v>
       </c>
       <c r="J2">
         <f>0.3</f>
@@ -5906,11 +5906,11 @@
       </c>
       <c r="L2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="M2">
         <f ca="1">L2+RANDBETWEEN(-20,30)</f>
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -5928,11 +5928,11 @@
       </c>
       <c r="E3">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>0.54</v>
+        <v>0.35</v>
       </c>
       <c r="G3">
         <f ca="1">RANDBETWEEN(100,300)/100/5</f>
-        <v>0.29599999999999999</v>
+        <v>0.56600000000000006</v>
       </c>
       <c r="J3">
         <f>0.07</f>
@@ -5947,7 +5947,7 @@
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M4" ca="1" si="1">L3+RANDBETWEEN(-20,30)</f>
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -5965,15 +5965,15 @@
       </c>
       <c r="E4">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>-2.5</v>
+        <v>-4.71</v>
       </c>
       <c r="H4">
         <f ca="1">E4-0.5</f>
-        <v>-3</v>
+        <v>-5.21</v>
       </c>
       <c r="I4">
         <f ca="1">E4+0.5</f>
-        <v>-2</v>
+        <v>-4.21</v>
       </c>
       <c r="J4">
         <f>0.22</f>
@@ -5984,11 +5984,11 @@
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/tables/list_datasets.xlsx
+++ b/tables/list_datasets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Corentin Gosling\drive_gmail\Recherche\metaConvert\web\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\drive_gmail\Recherche\metaConvert\web\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5406B6-A06F-448D-BAB3-880604D831CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9301670-610E-4541-95BF-8B523EDD887F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{3A80436A-EBC8-4660-8C38-C3E7D350F51B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="11" activeTab="22" xr2:uid="{3A80436A-EBC8-4660-8C38-C3E7D350F51B}"/>
   </bookViews>
   <sheets>
     <sheet name="cohen_d" sheetId="1" r:id="rId1"/>
@@ -1299,47 +1299,47 @@
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(10,20)</f>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G2">
         <f ca="1">E2+RANDBETWEEN(10,20)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H2">
         <f ca="1">F2+RANDBETWEEN(10,20)</f>
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2:N2" ca="1" si="0">G2+G2-E2</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="P2">
         <f ca="1">O2+RANDBETWEEN(-10,10)</f>
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="G3">
         <f ca="1">E3+RANDBETWEEN(10,20)</f>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <f ca="1">F3+RANDBETWEEN(10,20)</f>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="I3">
         <f t="shared" ref="I3" ca="1" si="1">G3+G3-E3</f>
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3" ca="1" si="2">H3+H3-F3</f>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K3">
         <f ca="1">I3+I3-G3</f>
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="L3">
         <f ca="1">J3+J3-H3</f>
@@ -1381,11 +1381,11 @@
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O4" ca="1" si="3">RANDBETWEEN(10,100)</f>
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P4" ca="1" si="4">O3+RANDBETWEEN(-10,10)</f>
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -1403,35 +1403,35 @@
       </c>
       <c r="E4">
         <f ca="1">RANDBETWEEN(10,20)</f>
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F4">
         <f ca="1">RANDBETWEEN(10,20)</f>
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I4">
         <f ca="1">E4+24</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J4">
         <f ca="1">F4+26</f>
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="M4">
         <f ca="1">I4+K4-E4+I4</f>
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="N4">
         <f ca="1">J4+L4-F4+J4</f>
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="4"/>
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1534,35 +1534,35 @@
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(100,1000)/10</f>
-        <v>75.400000000000006</v>
+        <v>79.3</v>
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(-25,25)+E2</f>
-        <v>71.400000000000006</v>
+        <v>79.3</v>
       </c>
       <c r="G2">
         <f ca="1">RANDBETWEEN(100,500)/10</f>
-        <v>19.899999999999999</v>
+        <v>44.6</v>
       </c>
       <c r="H2">
         <f ca="1">RANDBETWEEN(100,500)/10</f>
-        <v>20.6</v>
+        <v>37.4</v>
       </c>
       <c r="Q2">
         <f ca="1">0.05+R2/20</f>
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="R2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="T2">
         <f ca="1">S2+RANDBETWEEN(-10,10)</f>
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -1580,35 +1580,35 @@
       </c>
       <c r="E3">
         <f ca="1">RANDBETWEEN(100,1000)/10</f>
-        <v>18.8</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="F3">
         <f ca="1">RANDBETWEEN(-25,25)+E3</f>
-        <v>2.8000000000000007</v>
+        <v>49.3</v>
       </c>
       <c r="I3">
         <f ca="1">RANDBETWEEN(100,500)/10/5</f>
-        <v>2.1399999999999997</v>
+        <v>2.02</v>
       </c>
       <c r="J3">
         <f ca="1">RANDBETWEEN(1,5)+I3</f>
-        <v>7.14</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q6" ca="1" si="0">0.05+R3/20</f>
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="R3">
         <f t="shared" ref="R3:R6" ca="1" si="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S3">
         <f t="shared" ref="S3:S6" ca="1" si="2">RANDBETWEEN(10,100)</f>
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="T3">
         <f t="shared" ref="T3:T6" ca="1" si="3">S3+RANDBETWEEN(-10,10)</f>
-        <v>62</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
@@ -1626,43 +1626,43 @@
       </c>
       <c r="E4">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>4.01</v>
+        <v>3.46</v>
       </c>
       <c r="F4">
         <f ca="1">RANDBETWEEN(-2,2)+E4</f>
-        <v>3.01</v>
+        <v>5.46</v>
       </c>
       <c r="K4">
         <f ca="1">E4-0.5</f>
-        <v>3.51</v>
+        <v>2.96</v>
       </c>
       <c r="L4">
         <f ca="1">E4+0.5</f>
-        <v>4.51</v>
+        <v>3.96</v>
       </c>
       <c r="M4">
         <f ca="1">F4-0.5</f>
-        <v>2.5099999999999998</v>
+        <v>4.96</v>
       </c>
       <c r="N4">
         <f ca="1">F4+0.5</f>
-        <v>3.51</v>
+        <v>5.96</v>
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="R4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S4">
         <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="T4">
         <f t="shared" ca="1" si="3"/>
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
@@ -1680,31 +1680,31 @@
       </c>
       <c r="E5">
         <f ca="1">RANDBETWEEN(-500,500)/10</f>
-        <v>-17.2</v>
+        <v>-39.4</v>
       </c>
       <c r="F5">
         <f ca="1">RANDBETWEEN(-5,5)+E5</f>
-        <v>-19.2</v>
+        <v>-38.4</v>
       </c>
       <c r="O5">
         <f ca="1">RANDBETWEEN(-500,500)/10</f>
-        <v>-48.8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S5">
         <f t="shared" ca="1" si="2"/>
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="T5">
         <f t="shared" ca="1" si="3"/>
-        <v>73</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
@@ -1722,31 +1722,31 @@
       </c>
       <c r="E6">
         <f ca="1">RANDBETWEEN(-500,500)/10</f>
-        <v>-36.9</v>
+        <v>-10.8</v>
       </c>
       <c r="F6">
         <f ca="1">RANDBETWEEN(-5,5)+E6</f>
-        <v>-32.9</v>
+        <v>-10.8</v>
       </c>
       <c r="P6">
         <f ca="1">RANDBETWEEN(-500,500)/10</f>
-        <v>5.5</v>
+        <v>-25.3</v>
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S6">
         <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="T6">
         <f t="shared" ca="1" si="3"/>
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1880,19 +1880,19 @@
       </c>
       <c r="S2">
         <f ca="1">0.05+T2/20</f>
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="V2">
         <f ca="1">U2+RANDBETWEEN(-10,10)</f>
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -1940,11 +1940,11 @@
       </c>
       <c r="U3">
         <f t="shared" ref="U3:U4" ca="1" si="2">RANDBETWEEN(10,100)</f>
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="V3">
         <f t="shared" ref="V3:V4" ca="1" si="3">U3+RANDBETWEEN(-10,10)</f>
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -1980,19 +1980,19 @@
       </c>
       <c r="S4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="T4">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U4">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="V4">
         <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2069,23 +2069,23 @@
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>3.4</v>
+        <v>3.68</v>
       </c>
       <c r="J2">
         <f ca="1">0.05+K2/20</f>
-        <v>0.15000000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="K2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="M2">
         <f ca="1">L2+RANDBETWEEN(-10,10)</f>
-        <v>39</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -2103,23 +2103,23 @@
       </c>
       <c r="F3">
         <f ca="1">RANDBETWEEN(0,1000)/10000</f>
-        <v>7.22E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J4" ca="1" si="0">0.05+K3/20</f>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K6" ca="1" si="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L6" ca="1" si="2">RANDBETWEEN(10,100)</f>
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M4" ca="1" si="3">L3+RANDBETWEEN(-10,10)</f>
-        <v>61</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -2137,23 +2137,23 @@
       </c>
       <c r="G4">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>1.92</v>
+        <v>0.87</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="3"/>
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="H5">
         <f ca="1">RANDBETWEEN(0,1000)/100000</f>
-        <v>9.9799999999999993E-3</v>
+        <v>7.1999999999999998E-3</v>
       </c>
       <c r="J5">
         <f t="shared" ref="J5:J6" ca="1" si="4">0.05+K5/20</f>
@@ -2183,11 +2183,11 @@
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="M5">
         <f t="shared" ref="M5:M6" ca="1" si="5">L5+RANDBETWEEN(-10,10)</f>
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -2205,23 +2205,23 @@
       </c>
       <c r="I6">
         <f ca="1">RANDBETWEEN(0,1000)/1000</f>
-        <v>0.80400000000000005</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="2"/>
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2287,23 +2287,23 @@
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(0,1000)/1000</f>
-        <v>0.214</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="F2">
         <f t="shared" ref="F2" ca="1" si="0">0.05+G2/20</f>
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="G2">
         <f t="shared" ref="G2" ca="1" si="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <f t="shared" ref="H2" ca="1" si="2">RANDBETWEEN(10,100)</f>
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="I2">
         <f t="shared" ref="I2" ca="1" si="3">H2+RANDBETWEEN(-10,10)</f>
-        <v>87</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2392,15 +2392,15 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E14" ca="1" si="0">RANDBETWEEN(0,600)/100</f>
-        <v>2.37</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="N2">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>65</v>
+        <v>133</v>
       </c>
       <c r="O2">
         <f ca="1">N2+RANDBETWEEN(-50,50)</f>
-        <v>49</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -2418,19 +2418,19 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44</v>
+        <v>1.95</v>
       </c>
       <c r="F3">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.46</v>
+        <v>0.3</v>
       </c>
       <c r="L3">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>403</v>
+        <v>77</v>
       </c>
       <c r="M3">
         <f ca="1">L3+RANDBETWEEN(-10,10)</f>
-        <v>399</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -2448,19 +2448,19 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>4.34</v>
+        <v>5.77</v>
       </c>
       <c r="F4">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="N4">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>34</v>
+        <v>412</v>
       </c>
       <c r="O4">
         <f ca="1">N4+RANDBETWEEN(-50,50)</f>
-        <v>24</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -2478,15 +2478,15 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.67</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="F5">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.65</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="J5">
         <f ca="1">RANDBETWEEN(0,600)/1000</f>
-        <v>0.308</v>
+        <v>0.46100000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -2504,23 +2504,23 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.15</v>
+        <v>0.3</v>
       </c>
       <c r="F6">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.9</v>
+        <v>0.71</v>
       </c>
       <c r="K6">
         <f ca="1">RANDBETWEEN(0,100)/500</f>
-        <v>7.8E-2</v>
+        <v>0.108</v>
       </c>
       <c r="L6">
         <f ca="1">RANDBETWEEN(30,100)+N6</f>
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="N6">
         <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -2538,23 +2538,23 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>2.74</v>
+        <v>0.32</v>
       </c>
       <c r="H7">
         <f ca="1">EXP(LN(E7)-2)</f>
-        <v>0.37081867606831881</v>
+        <v>4.3307290635716061E-2</v>
       </c>
       <c r="I7">
         <f ca="1">EXP(LN(E7)+2)</f>
-        <v>20.246013711069978</v>
+        <v>2.3644979516578082</v>
       </c>
       <c r="L7">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>475</v>
+        <v>403</v>
       </c>
       <c r="M7">
         <f ca="1">L7+RANDBETWEEN(-10,10)</f>
-        <v>474</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -2572,23 +2572,23 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>5.09</v>
+        <v>3.61</v>
       </c>
       <c r="H8">
         <f ca="1">EXP(LN(E8)-2)</f>
-        <v>0.68885659167435864</v>
+        <v>0.48856037248417183</v>
       </c>
       <c r="I8">
         <f ca="1">EXP(LN(E8)+2)</f>
-        <v>37.610295543557015</v>
+        <v>26.674492517139647</v>
       </c>
       <c r="N8">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>32</v>
+        <v>352</v>
       </c>
       <c r="O8">
         <f ca="1">N8+RANDBETWEEN(-50,50)</f>
-        <v>74</v>
+        <v>390</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>3.85</v>
+        <v>5.54</v>
       </c>
       <c r="H9">
         <f ca="1">EXP(LN(E9)-2)</f>
-        <v>0.52104084046095889</v>
+        <v>0.7497574691308343</v>
       </c>
       <c r="I9">
         <f ca="1">EXP(LN(E9)+2)</f>
-        <v>28.447865980883002</v>
+        <v>40.935370788075787</v>
       </c>
       <c r="J9">
         <f ca="1">RANDBETWEEN(0,600)/1000</f>
-        <v>0.32100000000000001</v>
+        <v>0.23799999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -2636,27 +2636,27 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>5.08</v>
+        <v>5.83</v>
       </c>
       <c r="H10">
         <f ca="1">EXP(LN(E10)-2)</f>
-        <v>0.6875032388419926</v>
+        <v>0.78900470126945199</v>
       </c>
       <c r="I10">
         <f ca="1">EXP(LN(E10)+2)</f>
-        <v>37.53640498256771</v>
+        <v>43.078197056765703</v>
       </c>
       <c r="K10">
         <f ca="1">RANDBETWEEN(0,100)/500</f>
-        <v>0.17599999999999999</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="L10">
         <f ca="1">RANDBETWEEN(30,100)+N10</f>
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="N10">
         <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -2674,19 +2674,19 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.0599999999999996</v>
+        <v>4.2</v>
       </c>
       <c r="G11">
         <f ca="1">E11*F3/10</f>
-        <v>0.18675999999999998</v>
+        <v>0.126</v>
       </c>
       <c r="L11">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="M11">
         <f ca="1">L11+RANDBETWEEN(-10,10)</f>
-        <v>46</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -2704,19 +2704,19 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>3.54</v>
+        <v>3.38</v>
       </c>
       <c r="G12">
         <f ca="1">E12*F4/10</f>
-        <v>4.2480000000000004E-2</v>
+        <v>2.0279999999999999E-2</v>
       </c>
       <c r="N12">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>237</v>
+        <v>313</v>
       </c>
       <c r="O12">
         <f ca="1">N12+RANDBETWEEN(-50,50)</f>
-        <v>240</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -2734,15 +2734,15 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>2.74</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="G13">
         <f ca="1">E13*F5/10</f>
-        <v>0.17810000000000001</v>
+        <v>0.13467999999999999</v>
       </c>
       <c r="J13">
         <f ca="1">RANDBETWEEN(0,600)/1000</f>
-        <v>0.59</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -2760,23 +2760,23 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.39</v>
+        <v>1.76</v>
       </c>
       <c r="G14">
         <f ca="1">E14*F6/10</f>
-        <v>0.12509999999999999</v>
+        <v>0.12496</v>
       </c>
       <c r="K14">
         <f ca="1">RANDBETWEEN(0,100)/500</f>
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="L14">
         <f ca="1">RANDBETWEEN(30,100)+N14</f>
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="N14">
         <f ca="1">RANDBETWEEN(30,100)</f>
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2862,19 +2862,19 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E10" ca="1" si="0">RANDBETWEEN(0,600)/100</f>
-        <v>3.88</v>
+        <v>3.65</v>
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.79</v>
+        <v>0.21</v>
       </c>
       <c r="L2">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>480</v>
+        <v>439</v>
       </c>
       <c r="M2">
         <f ca="1">L2+RANDBETWEEN(-10,10)</f>
-        <v>485</v>
+        <v>437</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -2892,19 +2892,19 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.84</v>
+        <v>0.86</v>
       </c>
       <c r="G3">
         <f ca="1">E3*F2/10</f>
-        <v>0.14536000000000002</v>
+        <v>1.806E-2</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L4" ca="1" si="1">RANDBETWEEN(30,500)</f>
-        <v>383</v>
+        <v>333</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M4" ca="1" si="2">L3+RANDBETWEEN(-10,10)</f>
-        <v>383</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -2922,23 +2922,23 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>5.44</v>
+        <v>0.71</v>
       </c>
       <c r="H4">
         <f ca="1">EXP(LN(E4)-2)</f>
-        <v>0.73622394080717313</v>
+        <v>9.6088051097995023E-2</v>
       </c>
       <c r="I4">
         <f ca="1">EXP(LN(E4)+2)</f>
-        <v>40.196465178182741</v>
+        <v>5.2462298302407619</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="1"/>
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="2"/>
-        <v>289</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -2956,19 +2956,19 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2400000000000002</v>
+        <v>2.96</v>
       </c>
       <c r="F5">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.48</v>
+        <v>0.99</v>
       </c>
       <c r="N5">
         <f t="shared" ref="N5:N7" ca="1" si="3">RANDBETWEEN(30,500)</f>
-        <v>160</v>
+        <v>489</v>
       </c>
       <c r="O5">
         <f t="shared" ref="O5:O7" ca="1" si="4">N5+RANDBETWEEN(-50,50)</f>
-        <v>118</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -2986,19 +2986,19 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="G6">
         <f ca="1">E6*F5/10</f>
-        <v>1.2959999999999999E-2</v>
+        <v>0.22176000000000001</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="3"/>
-        <v>389</v>
+        <v>459</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="4"/>
-        <v>374</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -3016,23 +3016,23 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1200000000000001</v>
+        <v>1.73</v>
       </c>
       <c r="H7">
         <f ca="1">EXP(LN(E7)-2)</f>
-        <v>0.15157551722500623</v>
+        <v>0.23413003999933993</v>
       </c>
       <c r="I7">
         <f ca="1">EXP(LN(E7)+2)</f>
-        <v>8.2757428308023293</v>
+        <v>12.783067051150024</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="3"/>
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="4"/>
-        <v>206</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -3050,15 +3050,15 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2.16</v>
       </c>
       <c r="F8">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.49</v>
+        <v>0.34</v>
       </c>
       <c r="J8">
         <f t="shared" ref="J8:J10" ca="1" si="5">RANDBETWEEN(0,600)/1000</f>
-        <v>0.17199999999999999</v>
+        <v>0.44400000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -3076,15 +3076,15 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>4.12</v>
+        <v>2.37</v>
       </c>
       <c r="G9">
         <f ca="1">E9*F8/10</f>
-        <v>0.20188</v>
+        <v>8.0580000000000013E-2</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="5"/>
-        <v>0.33200000000000002</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -3102,19 +3102,19 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>3.73</v>
+        <v>0.01</v>
       </c>
       <c r="H10">
         <f ca="1">EXP(LN(E10)-2)</f>
-        <v>0.50480060647256531</v>
+        <v>1.3533528323661276E-3</v>
       </c>
       <c r="I10">
         <f ca="1">EXP(LN(E10)+2)</f>
-        <v>27.561179249011325</v>
+        <v>7.3890560989306533E-2</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="5"/>
-        <v>0.48599999999999999</v>
+        <v>0.121</v>
       </c>
     </row>
   </sheetData>
@@ -3191,19 +3191,19 @@
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>267</v>
+        <v>419</v>
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>461</v>
+        <v>211</v>
       </c>
       <c r="G2">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>158</v>
+        <v>428</v>
       </c>
       <c r="H2">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>353</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -3221,19 +3221,19 @@
       </c>
       <c r="E3">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>214</v>
+        <v>142</v>
       </c>
       <c r="F3">
         <f ca="1">RANDBETWEEN(30,500)</f>
-        <v>238</v>
+        <v>149</v>
       </c>
       <c r="K3">
         <f ca="1">RANDBETWEEN(30,500)+E3</f>
-        <v>692</v>
+        <v>385</v>
       </c>
       <c r="L3">
         <f ca="1">RANDBETWEEN(30,500)+F3</f>
-        <v>698</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -3251,19 +3251,19 @@
       </c>
       <c r="I4">
         <f t="shared" ref="I4:J4" ca="1" si="0">RANDBETWEEN(0,600)/1000</f>
-        <v>0.245</v>
+        <v>0.59399999999999997</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.432</v>
+        <v>0.33500000000000002</v>
       </c>
       <c r="K4">
         <f ca="1">RANDBETWEEN(30,500)+E4</f>
-        <v>221</v>
+        <v>446</v>
       </c>
       <c r="L4">
         <f ca="1">RANDBETWEEN(30,500)+F4</f>
-        <v>387</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3331,19 +3331,19 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2" ca="1" si="0">RANDBETWEEN(0,600)/1000</f>
-        <v>0.442</v>
+        <v>0.251</v>
       </c>
       <c r="H2">
         <f ca="1">ROUND((I2+J2)*1.37, 0)</f>
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="J2">
         <f ca="1">I2+RANDBETWEEN(-10,10)</f>
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3361,19 +3361,19 @@
       </c>
       <c r="F3">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>4.67</v>
+        <v>0.18</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H4" ca="1" si="1">ROUND((I3+J3)*1.37, 0)</f>
-        <v>44</v>
+        <v>203</v>
       </c>
       <c r="I3">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="J3">
         <f ca="1">I3+RANDBETWEEN(-10,10)</f>
-        <v>16</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3391,19 +3391,19 @@
       </c>
       <c r="G4">
         <f ca="1">RANDBETWEEN(0,600)/1000000</f>
-        <v>2.2800000000000001E-4</v>
+        <v>5.8E-5</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="1"/>
-        <v>58</v>
+        <v>174</v>
       </c>
       <c r="I4">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="J4">
         <f ca="1">I4+RANDBETWEEN(-10,10)</f>
-        <v>22</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="G2">
         <f ca="1">LN(RANDBETWEEN(0,600)/100)</f>
-        <v>0.75612197972133366</v>
+        <v>1.3937663759585917</v>
       </c>
       <c r="H2">
         <f ca="1">(J3-I3)/4</f>
@@ -3509,15 +3509,15 @@
       </c>
       <c r="G3">
         <f ca="1">LN(RANDBETWEEN(0,600)/100)</f>
-        <v>1.1724821372345651</v>
+        <v>0.5481214085096876</v>
       </c>
       <c r="I3">
         <f ca="1">G3-1.27</f>
-        <v>-9.7517862765434948E-2</v>
+        <v>-0.72187859149031242</v>
       </c>
       <c r="J3">
         <f ca="1">G3+1.27</f>
-        <v>2.4424821372345651</v>
+        <v>1.8181214085096875</v>
       </c>
     </row>
   </sheetData>
@@ -3772,7 +3772,7 @@
       </c>
       <c r="G2">
         <f ca="1">LN(RANDBETWEEN(0,600)/100)</f>
-        <v>1.5303947050936475</v>
+        <v>1.7387102481382397</v>
       </c>
       <c r="H2">
         <f ca="1">(J3-I3)/4</f>
@@ -3800,15 +3800,15 @@
       </c>
       <c r="G3">
         <f ca="1">LN(RANDBETWEEN(0,600)/100)</f>
-        <v>1.6563214983329508</v>
+        <v>-6.1875403718087529E-2</v>
       </c>
       <c r="I3">
         <f ca="1">G3-1.27</f>
-        <v>0.38632149833295082</v>
+        <v>-1.3318754037180875</v>
       </c>
       <c r="J3">
         <f ca="1">G3+1.27</f>
-        <v>2.9263214983329506</v>
+        <v>1.2081245962819125</v>
       </c>
     </row>
   </sheetData>
@@ -3882,11 +3882,11 @@
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(1,1000)/1000</f>
-        <v>0.84699999999999998</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="L2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>76</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -3904,11 +3904,11 @@
       </c>
       <c r="F3">
         <f ca="1">RANDBETWEEN(1,1000)/1000</f>
-        <v>5.1999999999999998E-2</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="L3">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -3926,15 +3926,15 @@
       </c>
       <c r="E4">
         <f ca="1">RANDBETWEEN(1,1000)/1000</f>
-        <v>0.14599999999999999</v>
+        <v>0.438</v>
       </c>
       <c r="J4">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="K4">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -3952,15 +3952,15 @@
       </c>
       <c r="F5">
         <f ca="1">RANDBETWEEN(1,1000)/1000</f>
-        <v>7.1999999999999995E-2</v>
+        <v>0.79300000000000004</v>
       </c>
       <c r="J5">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="K5">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>50</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -3978,11 +3978,11 @@
       </c>
       <c r="E6">
         <f ca="1">RANDBETWEEN(1,1000)/1000</f>
-        <v>0.45900000000000002</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="G6">
         <f ca="1">RANDBETWEEN(1,1000)/1000</f>
-        <v>0.78300000000000003</v>
+        <v>0.23100000000000001</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -3992,7 +3992,7 @@
       </c>
       <c r="L6">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -4010,11 +4010,11 @@
       </c>
       <c r="F7">
         <f ca="1">RANDBETWEEN(1,1000)/1000</f>
-        <v>0.71299999999999997</v>
+        <v>0.84199999999999997</v>
       </c>
       <c r="G7">
         <f ca="1">RANDBETWEEN(1,1000)/1000</f>
-        <v>0.98699999999999999</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="H7">
         <v>0.54</v>
@@ -4024,7 +4024,7 @@
       </c>
       <c r="L7">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>84</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -4107,8 +4107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E311BB22-7D22-416E-939A-951F479DB280}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4139,10 +4139,10 @@
         <v>35</v>
       </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -4166,11 +4166,11 @@
       </c>
       <c r="H2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="I2">
         <f ca="1">H2+RANDBETWEEN(-10,10)</f>
-        <v>29</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -4194,11 +4194,11 @@
       </c>
       <c r="H3">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="I3">
         <f ca="1">H3+RANDBETWEEN(-10,10)</f>
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4471,8 +4471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1E2805-6C3E-4C7E-86CD-3A9AB14E62DE}">
   <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4748,15 +4748,15 @@
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>3.06</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="L2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="M2">
         <f ca="1">L2+RANDBETWEEN(-10,30)</f>
-        <v>3</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -4774,15 +4774,15 @@
       </c>
       <c r="F3">
         <f ca="1">RANDBETWEEN(0,1000)/10000</f>
-        <v>7.8899999999999998E-2</v>
+        <v>8.1799999999999998E-2</v>
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L8" ca="1" si="0">RANDBETWEEN(10,100)</f>
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M8" ca="1" si="1">L3+RANDBETWEEN(-10,30)</f>
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -4800,15 +4800,15 @@
       </c>
       <c r="G4">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>5.92</v>
+        <v>2.23</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -4826,15 +4826,15 @@
       </c>
       <c r="H5">
         <f ca="1">RANDBETWEEN(0,1000)/100000</f>
-        <v>2.0400000000000001E-3</v>
+        <v>9.75E-3</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="1"/>
-        <v>104</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -4852,15 +4852,15 @@
       </c>
       <c r="I6">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>5.43</v>
+        <v>2.79</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -4878,15 +4878,15 @@
       </c>
       <c r="J7">
         <f ca="1">RANDBETWEEN(0,1000)/1000</f>
-        <v>0.246</v>
+        <v>0.65700000000000003</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -4904,15 +4904,15 @@
       </c>
       <c r="K8">
         <f ca="1">RANDBETWEEN(0,1000)/1000</f>
-        <v>0.79</v>
+        <v>0.1</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -5006,27 +5006,27 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:F4" ca="1" si="0">RANDBETWEEN(-500,500)/100</f>
-        <v>0.34</v>
+        <v>3.85</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.69</v>
+        <v>4.55</v>
       </c>
       <c r="G2">
         <f ca="1">RANDBETWEEN(100,300)/100</f>
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="H2">
         <f ca="1">RANDBETWEEN(100,300)/100</f>
-        <v>1.02</v>
+        <v>2</v>
       </c>
       <c r="Q2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="R2">
         <f ca="1">Q2+RANDBETWEEN(-10,30)</f>
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -5044,27 +5044,27 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>-2.62</v>
+        <v>1.42</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24</v>
+        <v>1.39</v>
       </c>
       <c r="I3">
         <f ca="1">RANDBETWEEN(100,300)/100</f>
-        <v>2.77</v>
+        <v>1.38</v>
       </c>
       <c r="J3">
         <f ca="1">RANDBETWEEN(100,300)/100</f>
-        <v>1.17</v>
+        <v>1.02</v>
       </c>
       <c r="Q3">
         <f t="shared" ref="Q3:Q5" ca="1" si="1">RANDBETWEEN(10,100)</f>
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="R3">
         <f t="shared" ref="R3:R5" ca="1" si="2">Q3+RANDBETWEEN(-10,30)</f>
-        <v>40</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -5082,35 +5082,35 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>3.61</v>
+        <v>2.89</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.36</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="K4">
         <f ca="1">E4-2.5</f>
-        <v>1.1099999999999999</v>
+        <v>0.39000000000000012</v>
       </c>
       <c r="L4">
         <f ca="1">E4+2.5</f>
-        <v>6.1099999999999994</v>
+        <v>5.3900000000000006</v>
       </c>
       <c r="M4">
         <f ca="1">F4-2.5</f>
-        <v>-2.86</v>
+        <v>-3.07</v>
       </c>
       <c r="N4">
         <f ca="1">F4+2.5</f>
-        <v>2.14</v>
+        <v>1.9300000000000002</v>
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="1"/>
-        <v>86</v>
+        <v>42</v>
       </c>
       <c r="R4">
         <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -5128,35 +5128,35 @@
       </c>
       <c r="E5">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>-2.79</v>
+        <v>-3.95</v>
       </c>
       <c r="F5">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>2.34</v>
+        <v>0.34</v>
       </c>
       <c r="G5">
         <f ca="1">RANDBETWEEN(100,300)/100</f>
-        <v>2.62</v>
+        <v>1.99</v>
       </c>
       <c r="H5">
         <f ca="1">RANDBETWEEN(100,300)/100</f>
-        <v>1.45</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="O5">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.26</v>
+        <v>0.49</v>
       </c>
       <c r="P5">
         <f ca="1">RANDBETWEEN(1,100)/100</f>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="2"/>
-        <v>95</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -5284,47 +5284,47 @@
       </c>
       <c r="E2">
         <f ca="1">F2-RANDBETWEEN(-100,100)/10</f>
-        <v>107.10000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="F2">
         <v>101.2</v>
       </c>
       <c r="G2">
         <f ca="1">H2-RANDBETWEEN(-100,100)/10</f>
-        <v>96.9</v>
+        <v>92</v>
       </c>
       <c r="H2">
         <v>98.9</v>
       </c>
       <c r="I2">
         <f ca="1">J2-RANDBETWEEN(-100,100)/100</f>
-        <v>16.21</v>
+        <v>16.13</v>
       </c>
       <c r="J2">
         <v>15.87</v>
       </c>
       <c r="K2">
         <f ca="1">L2-RANDBETWEEN(-100,100)/100</f>
-        <v>14.799999999999999</v>
+        <v>12.92</v>
       </c>
       <c r="L2">
         <v>13.87</v>
       </c>
       <c r="W2">
         <f ca="1">RANDBETWEEN(0,1000)/1000</f>
-        <v>0.88100000000000001</v>
+        <v>0.61499999999999999</v>
       </c>
       <c r="X2">
         <f ca="1">W2+RANDBETWEEN(-100,100)/1000</f>
-        <v>0.86</v>
+        <v>0.65</v>
       </c>
       <c r="Y2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="Z2">
         <f ca="1">Y2+RANDBETWEEN(-10,30)</f>
-        <v>39</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
@@ -5342,47 +5342,47 @@
       </c>
       <c r="E3">
         <f ca="1">F3-RANDBETWEEN(-100,100)/100</f>
-        <v>6.33</v>
+        <v>6.86</v>
       </c>
       <c r="F3">
         <v>5.94</v>
       </c>
       <c r="G3">
         <f ca="1">H3-RANDBETWEEN(-100,100)/100</f>
-        <v>5.0999999999999996</v>
+        <v>6.39</v>
       </c>
       <c r="H3">
         <v>5.81</v>
       </c>
       <c r="M3">
         <f ca="1">N3-RANDBETWEEN(-100,100)/1000</f>
-        <v>0.22</v>
+        <v>3.9000000000000007E-2</v>
       </c>
       <c r="N3">
         <v>0.13</v>
       </c>
       <c r="O3">
         <f ca="1">P3-RANDBETWEEN(-100,100)/1000</f>
-        <v>0.19600000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="P3">
         <v>0.13</v>
       </c>
       <c r="W3">
         <f t="shared" ref="W3:W4" ca="1" si="0">RANDBETWEEN(0,1000)/1000</f>
-        <v>0.72199999999999998</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="X3">
         <f t="shared" ref="X3:X4" ca="1" si="1">W3+RANDBETWEEN(-100,100)/1000</f>
-        <v>0.65799999999999992</v>
+        <v>0.63900000000000001</v>
       </c>
       <c r="Y3">
         <f t="shared" ref="Y3:Y4" ca="1" si="2">RANDBETWEEN(10,100)</f>
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="Z3">
         <f t="shared" ref="Z3:Z4" ca="1" si="3">Y3+RANDBETWEEN(-10,30)</f>
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
@@ -5400,25 +5400,25 @@
       </c>
       <c r="E4">
         <f ca="1">F4-RANDBETWEEN(-100,100)/10</f>
-        <v>54.7</v>
+        <v>53.3</v>
       </c>
       <c r="F4">
         <v>50</v>
       </c>
       <c r="G4">
         <f ca="1">H4-RANDBETWEEN(-100,100)/10</f>
-        <v>68.7</v>
+        <v>62.7</v>
       </c>
       <c r="H4">
         <v>60</v>
       </c>
       <c r="Q4">
         <f ca="1">E4-5</f>
-        <v>49.7</v>
+        <v>48.3</v>
       </c>
       <c r="R4">
         <f ca="1">E4+5</f>
-        <v>59.7</v>
+        <v>58.3</v>
       </c>
       <c r="S4">
         <v>45</v>
@@ -5434,19 +5434,19 @@
       </c>
       <c r="W4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95799999999999996</v>
+        <v>0.38100000000000001</v>
       </c>
       <c r="X4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95699999999999996</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="Y4">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="Z4">
         <f t="shared" ca="1" si="3"/>
-        <v>106</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -5533,27 +5533,27 @@
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>3.38</v>
+        <v>5.29</v>
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>5.44</v>
+        <v>3.6</v>
       </c>
       <c r="M2">
         <f ca="1">RANDBETWEEN(0,1000)/1000</f>
-        <v>0.55900000000000005</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="N2">
         <f ca="1">M2+RANDBETWEEN(-100,100)/1000</f>
-        <v>0.64200000000000002</v>
+        <v>6.2E-2</v>
       </c>
       <c r="O2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="P2">
         <f ca="1">O2+RANDBETWEEN(-10,30)</f>
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -5571,27 +5571,27 @@
       </c>
       <c r="G3">
         <f ca="1">RANDBETWEEN(0,1000)/10000</f>
-        <v>2.35E-2</v>
+        <v>6.4299999999999996E-2</v>
       </c>
       <c r="H3">
         <f ca="1">RANDBETWEEN(0,1000)/10000</f>
-        <v>9.7299999999999998E-2</v>
+        <v>5.6899999999999999E-2</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M5" ca="1" si="0">RANDBETWEEN(0,1000)/1000</f>
-        <v>0.33400000000000002</v>
+        <v>0.66400000000000003</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N5" ca="1" si="1">M3+RANDBETWEEN(-100,100)/1000</f>
-        <v>0.26600000000000001</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="O3">
         <f t="shared" ref="O3:O5" ca="1" si="2">RANDBETWEEN(10,100)</f>
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="P3">
         <f t="shared" ref="P3:P5" ca="1" si="3">O3+RANDBETWEEN(-10,30)</f>
-        <v>89</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -5609,27 +5609,27 @@
       </c>
       <c r="I4">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>3.1</v>
+        <v>3.57</v>
       </c>
       <c r="J4">
         <f ca="1">RANDBETWEEN(0,600)/100</f>
-        <v>4.04</v>
+        <v>0.83</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68400000000000005</v>
+        <v>0.161</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68800000000000006</v>
+        <v>0.20500000000000002</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="2"/>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="3"/>
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -5647,27 +5647,27 @@
       </c>
       <c r="K5">
         <f ca="1">RANDBETWEEN(0,1000)/100000</f>
-        <v>6.8700000000000002E-3</v>
+        <v>8.9800000000000001E-3</v>
       </c>
       <c r="L5">
         <f ca="1">RANDBETWEEN(0,1000)/100000</f>
-        <v>7.7099999999999998E-3</v>
+        <v>1.99E-3</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.624</v>
+        <v>0.38900000000000001</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58299999999999996</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="P5">
         <f t="shared" ca="1" si="3"/>
-        <v>99</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -5738,19 +5738,19 @@
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>0.31</v>
+        <v>-4.45</v>
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(100,300)/100</f>
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="J2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="K2">
         <f ca="1">J2+RANDBETWEEN(-10,30)</f>
-        <v>56</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -5768,19 +5768,19 @@
       </c>
       <c r="E3">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>-0.09</v>
+        <v>-3.78</v>
       </c>
       <c r="G3">
         <f ca="1">RANDBETWEEN(100,300)/100/5</f>
-        <v>0.55400000000000005</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J4" ca="1" si="0">RANDBETWEEN(10,100)</f>
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K4" ca="1" si="1">J3+RANDBETWEEN(-10,30)</f>
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -5798,23 +5798,23 @@
       </c>
       <c r="E4">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>-2.16</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="H4">
         <f ca="1">E4-0.5</f>
-        <v>-2.66</v>
+        <v>3.6900000000000004</v>
       </c>
       <c r="I4">
         <f ca="1">E4+0.5</f>
-        <v>-1.6600000000000001</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="1"/>
-        <v>99</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -5891,11 +5891,11 @@
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>-3.47</v>
+        <v>-0.12</v>
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(100,300)/100</f>
-        <v>1.59</v>
+        <v>2.23</v>
       </c>
       <c r="J2">
         <f>0.3</f>
@@ -5906,11 +5906,11 @@
       </c>
       <c r="L2">
         <f ca="1">RANDBETWEEN(10,100)</f>
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="M2">
         <f ca="1">L2+RANDBETWEEN(-20,30)</f>
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -5928,11 +5928,11 @@
       </c>
       <c r="E3">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>0.35</v>
+        <v>-0.95</v>
       </c>
       <c r="G3">
         <f ca="1">RANDBETWEEN(100,300)/100/5</f>
-        <v>0.56600000000000006</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J3">
         <f>0.07</f>
@@ -5943,11 +5943,11 @@
       </c>
       <c r="L3">
         <f t="shared" ref="L3:L4" ca="1" si="0">RANDBETWEEN(10,100)</f>
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M4" ca="1" si="1">L3+RANDBETWEEN(-20,30)</f>
-        <v>69</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -5965,15 +5965,15 @@
       </c>
       <c r="E4">
         <f ca="1">RANDBETWEEN(-500,500)/100</f>
-        <v>-4.71</v>
+        <v>-1.62</v>
       </c>
       <c r="H4">
         <f ca="1">E4-0.5</f>
-        <v>-5.21</v>
+        <v>-2.12</v>
       </c>
       <c r="I4">
         <f ca="1">E4+0.5</f>
-        <v>-4.21</v>
+        <v>-1.1200000000000001</v>
       </c>
       <c r="J4">
         <f>0.22</f>
@@ -5984,11 +5984,11 @@
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
